--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="1644">
   <si>
     <t>trackID</t>
   </si>
@@ -4782,6 +4782,177 @@
   </si>
   <si>
     <t>FR39901, FR39902, FR39903, FR39904, FR39905, NDLT02</t>
+  </si>
+  <si>
+    <t>RUTH02</t>
+  </si>
+  <si>
+    <t>RUTH03</t>
+  </si>
+  <si>
+    <t>RUTH04</t>
+  </si>
+  <si>
+    <t>RUTH05</t>
+  </si>
+  <si>
+    <t>RUTH06</t>
+  </si>
+  <si>
+    <t>RUTH07</t>
+  </si>
+  <si>
+    <t>RUTH08</t>
+  </si>
+  <si>
+    <t>RUTH09</t>
+  </si>
+  <si>
+    <t>Camp Two Lake trail [South]</t>
+  </si>
+  <si>
+    <t>Buckskin Trail [South]</t>
+  </si>
+  <si>
+    <t>Buckskin Trail [North]</t>
+  </si>
+  <si>
+    <t>RUTH06, CMP210</t>
+  </si>
+  <si>
+    <t>RUTH05. CMP210</t>
+  </si>
+  <si>
+    <t>RUTH09, MNRL03</t>
+  </si>
+  <si>
+    <t>RUTH08, MNRL03</t>
+  </si>
+  <si>
+    <t>Minor Lake trails</t>
+  </si>
+  <si>
+    <t>CMP210</t>
+  </si>
+  <si>
+    <t>CMP211</t>
+  </si>
+  <si>
+    <t>CMP212</t>
+  </si>
+  <si>
+    <t>CMP213</t>
+  </si>
+  <si>
+    <t>CMP214</t>
+  </si>
+  <si>
+    <t>CMP215</t>
+  </si>
+  <si>
+    <t>CMP216</t>
+  </si>
+  <si>
+    <t>CMP217</t>
+  </si>
+  <si>
+    <t>MNRL01</t>
+  </si>
+  <si>
+    <t>MNRL02</t>
+  </si>
+  <si>
+    <t>MNRL03</t>
+  </si>
+  <si>
+    <t>MNRL04</t>
+  </si>
+  <si>
+    <t>MNRL05</t>
+  </si>
+  <si>
+    <t>MNRL06</t>
+  </si>
+  <si>
+    <t>Camp Two Lake trails [North]</t>
+  </si>
+  <si>
+    <t>RUTH05, RUTH06</t>
+  </si>
+  <si>
+    <t>CMP211, MNRL01</t>
+  </si>
+  <si>
+    <t>CMP210, MNRL01</t>
+  </si>
+  <si>
+    <t>CMP213, MNRL04</t>
+  </si>
+  <si>
+    <t>CMP212, MNRL04</t>
+  </si>
+  <si>
+    <t>CMP216, CMP217</t>
+  </si>
+  <si>
+    <t>CMP215, CMP217</t>
+  </si>
+  <si>
+    <t>CMP218</t>
+  </si>
+  <si>
+    <t>CMP215, CMP216</t>
+  </si>
+  <si>
+    <t>CMP210, CMP211</t>
+  </si>
+  <si>
+    <t>MNRL03, MNRL06</t>
+  </si>
+  <si>
+    <t>MNRL02, MNRL06</t>
+  </si>
+  <si>
+    <t>RUTH08, RUTH09</t>
+  </si>
+  <si>
+    <t>CMP212, CMP213</t>
+  </si>
+  <si>
+    <t>MNRL02, MNRL03</t>
+  </si>
+  <si>
+    <t>CMP214, CMP215</t>
+  </si>
+  <si>
+    <t>CMP216, CMP218</t>
+  </si>
+  <si>
+    <t>DEAD28</t>
+  </si>
+  <si>
+    <t>DEAD29</t>
+  </si>
+  <si>
+    <t>CMP216, DEAD29</t>
+  </si>
+  <si>
+    <t>CMP218, DEAD29</t>
+  </si>
+  <si>
+    <t>CMP215, DEAD28</t>
+  </si>
+  <si>
+    <t>CMP214, DEAD28</t>
+  </si>
+  <si>
+    <t>CAMP2N</t>
+  </si>
+  <si>
+    <t>Camp Two Lake North</t>
+  </si>
+  <si>
+    <t>CMP210, CMP211, CMP212, CMP213, CMP214, CMP215, CMP216, DEAD29, DEAD29, CMP218, CMP217, CMP215, DEAD28, DEAD28, CMP214, CMP213, MNRL04, MNRL05, MNRL06, MNRL03, MNRL03, MNRL02, MNRL01, CMP210</t>
   </si>
 </sst>
 </file>
@@ -5130,13 +5301,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X419"/>
+  <dimension ref="A1:X444"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I220" sqref="I220"/>
+      <selection pane="bottomRight" activeCell="H326" sqref="H326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6221,7 +6392,7 @@
         <v>1510</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>775</v>
+        <v>1595</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>35</v>
@@ -6248,7 +6419,7 @@
         <v>1510</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>775</v>
+        <v>1595</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>35</v>
@@ -13678,25 +13849,25 @@
       <c r="F314" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G314" s="4" t="s">
-        <v>349</v>
+      <c r="G314" s="3" t="s">
+        <v>1596</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="I314" t="s">
-        <v>1282</v>
+      <c r="I314" s="3" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>351</v>
+        <v>1587</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>9</v>
@@ -13704,28 +13875,28 @@
       <c r="E315" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F315" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G315" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="H315" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I315" t="s">
-        <v>1275</v>
+      <c r="F315" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H315" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>353</v>
+        <v>1588</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>9</v>
@@ -13733,28 +13904,26 @@
       <c r="E316" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F316" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G316" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H316" s="4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I316" t="s">
-        <v>1277</v>
+      <c r="F316" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G316" s="4"/>
+      <c r="H316" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>354</v>
+        <v>1589</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>9</v>
@@ -13762,28 +13931,24 @@
       <c r="E317" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F317" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G317" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="H317" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I317" t="s">
-        <v>356</v>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="H317" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>356</v>
+        <v>1590</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>9</v>
@@ -13791,28 +13956,26 @@
       <c r="E318" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F318" s="4" t="s">
-        <v>355</v>
-      </c>
+      <c r="F318" s="4"/>
       <c r="G318" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H318" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I318" t="s">
-        <v>357</v>
+        <v>1617</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>357</v>
+        <v>1591</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>9</v>
@@ -13821,360 +13984,339 @@
         <v>10</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G319" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="H319" s="4" t="s">
-        <v>356</v>
+        <v>1617</v>
+      </c>
+      <c r="G319" s="4"/>
+      <c r="H319" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>359</v>
+        <v>1592</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F320" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G320" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H320" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I320" t="s">
-        <v>1328</v>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="H320" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>360</v>
+        <v>1593</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F321" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="F321" s="4"/>
       <c r="G321" s="4" t="s">
-        <v>39</v>
+        <v>1602</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I321" t="s">
-        <v>1330</v>
+        <v>1592</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>361</v>
+        <v>1594</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>39</v>
+        <v>1602</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>1331</v>
+        <v>1601</v>
       </c>
       <c r="I322" t="s">
-        <v>1332</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>362</v>
+        <v>1603</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C323" s="3" t="s">
-        <v>40</v>
+      <c r="C323" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H323" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I323" s="4" t="s">
-        <v>1334</v>
+        <v>1602</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>363</v>
+        <v>1604</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>40</v>
+      <c r="C324" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G324" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H324" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1336</v>
+        <v>1602</v>
+      </c>
+      <c r="G324" s="4"/>
+      <c r="H324" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>364</v>
+        <v>1605</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C325" s="3" t="s">
-        <v>40</v>
+      <c r="C325" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F325" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F325" s="4"/>
       <c r="G325" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H325" s="4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I325" t="s">
-        <v>1338</v>
+        <v>1602</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>365</v>
+        <v>1606</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>40</v>
+      <c r="C326" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G326" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H326" s="4" t="s">
-        <v>1339</v>
-      </c>
-      <c r="I326" t="s">
-        <v>1340</v>
+        <v>1602</v>
+      </c>
+      <c r="G326" s="4"/>
+      <c r="H326" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>367</v>
+        <v>1607</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>40</v>
+      <c r="C327" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F327" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G327" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H327" s="4" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I327" t="s">
-        <v>1342</v>
+      <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
+      <c r="H327" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>368</v>
+        <v>1608</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>40</v>
+      <c r="C328" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F328" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G328" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H328" s="4" t="s">
-        <v>369</v>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+      <c r="H328" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>370</v>
+        <v>1609</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>371</v>
+      <c r="C329" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>9</v>
+        <v>543</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F329" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G329" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="I329" s="4" t="s">
-        <v>761</v>
+      <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
+      <c r="H329" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>761</v>
+        <v>1610</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C330" s="3" t="s">
-        <v>769</v>
+      <c r="C330" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F330" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="G330" s="4"/>
-      <c r="H330" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="I330" t="s">
-        <v>1343</v>
+      <c r="F330" s="4"/>
+      <c r="G330" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>762</v>
+        <v>1625</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>769</v>
+      <c r="C331" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F331" s="4"/>
-      <c r="G331" s="4"/>
-      <c r="H331" s="4" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I331" t="s">
-        <v>1345</v>
+      <c r="G331" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>763</v>
+        <v>1611</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>769</v>
+        <v>1602</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>543</v>
@@ -14182,53 +14324,51 @@
       <c r="E332" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F332" s="4"/>
-      <c r="G332" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H332" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I332" t="s">
-        <v>1347</v>
+      <c r="F332" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G332" s="4"/>
+      <c r="H332" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>764</v>
+        <v>1612</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>769</v>
+        <v>1602</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F333" s="4"/>
-      <c r="G333" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H333" s="4" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I333" t="s">
-        <v>771</v>
+      <c r="G333" s="4"/>
+      <c r="H333" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>765</v>
+        <v>1613</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>769</v>
+        <v>1602</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>35</v>
@@ -14237,156 +14377,154 @@
         <v>10</v>
       </c>
       <c r="F334" s="4"/>
-      <c r="G334" s="4"/>
-      <c r="H334" s="4" t="s">
-        <v>1349</v>
-      </c>
-      <c r="I334" t="s">
-        <v>1350</v>
+      <c r="G334" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>766</v>
+        <v>1614</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>769</v>
+        <v>1602</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F335" s="4"/>
+      <c r="F335" s="4" t="s">
+        <v>1617</v>
+      </c>
       <c r="G335" s="4"/>
-      <c r="H335" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="I335" t="s">
-        <v>1352</v>
+      <c r="H335" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>768</v>
+        <v>1615</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>769</v>
+        <v>1602</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F336" s="4"/>
-      <c r="G336" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H336" s="4" t="s">
-        <v>770</v>
+      <c r="G336" s="4"/>
+      <c r="H336" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>372</v>
+        <v>1616</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>70</v>
+        <v>1602</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F337" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G337" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H337" s="4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1284</v>
+      <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
+      <c r="H337" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>373</v>
+        <v>1635</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>70</v>
+      <c r="C338" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>24</v>
+        <v>1617</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H338" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I338" s="4" t="s">
-        <v>1286</v>
+        <v>116</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>374</v>
+        <v>1636</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C339" s="3" t="s">
-        <v>70</v>
+      <c r="C339" s="4" t="s">
+        <v>1617</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>74</v>
+        <v>1617</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H339" s="4" t="s">
-        <v>1287</v>
+        <v>116</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>9</v>
@@ -14395,453 +14533,503 @@
         <v>10</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="H340" s="4" t="s">
-        <v>378</v>
+        <v>352</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>544</v>
+        <v>353</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3" t="s">
-        <v>1312</v>
+      <c r="F341" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H341" s="4" t="s">
+        <v>1276</v>
       </c>
       <c r="I341" t="s">
-        <v>1313</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>545</v>
+        <v>354</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E342" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3" t="s">
-        <v>1314</v>
+      <c r="F342" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>1278</v>
       </c>
       <c r="I342" t="s">
-        <v>1315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>546</v>
+        <v>356</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H343" s="3" t="s">
-        <v>1316</v>
+      <c r="F343" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H343" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="I343" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>547</v>
+        <v>357</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F344" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I344" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F344" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>548</v>
+        <v>359</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3" t="s">
-        <v>1320</v>
+      <c r="F345" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>1327</v>
       </c>
       <c r="I345" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>549</v>
+        <v>360</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E346" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F346" s="3"/>
-      <c r="G346" s="3"/>
+      <c r="F346" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H346" s="3" t="s">
-        <v>1322</v>
+        <v>1329</v>
       </c>
       <c r="I346" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>550</v>
+        <v>361</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F347" s="3"/>
-      <c r="G347" s="3" t="s">
-        <v>51</v>
+      <c r="F347" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
       <c r="I347" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>551</v>
+        <v>362</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H348" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F348" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>552</v>
+        <v>363</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H349" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F349" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H349" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>553</v>
+        <v>364</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E350" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H350" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H350" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E351" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F351" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H351" s="3" t="s">
-        <v>1294</v>
+      <c r="F351" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G351" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H351" s="4" t="s">
+        <v>1339</v>
       </c>
       <c r="I351" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H352" s="3" t="s">
-        <v>1296</v>
+      <c r="F352" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H352" s="4" t="s">
+        <v>1341</v>
       </c>
       <c r="I352" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>447</v>
+        <v>368</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G353" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H353" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F353" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G353" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H353" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E354" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F354" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H354" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I354" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F354" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="I354" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>449</v>
+        <v>761</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G355" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>1302</v>
+      <c r="F355" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="G355" s="4"/>
+      <c r="H355" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="I355" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>450</v>
+        <v>762</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H356" s="3" t="s">
-        <v>1305</v>
+      <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
+      <c r="H356" s="4" t="s">
+        <v>1344</v>
       </c>
       <c r="I356" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>451</v>
+        <v>763</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H357" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I357" s="3" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F357" s="4"/>
+      <c r="G357" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H357" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I357" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>452</v>
+        <v>764</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>35</v>
@@ -14849,22 +15037,26 @@
       <c r="E358" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H358" s="3" t="s">
-        <v>1310</v>
+      <c r="F358" s="4"/>
+      <c r="G358" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H358" s="4" t="s">
+        <v>1348</v>
       </c>
       <c r="I358" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>453</v>
+        <v>765</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>35</v>
@@ -14872,22 +15064,24 @@
       <c r="E359" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G359" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H359" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
+      <c r="H359" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I359" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>456</v>
+        <v>766</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>35</v>
@@ -14895,48 +15089,48 @@
       <c r="E360" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H360" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
+      <c r="H360" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I360" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>379</v>
+        <v>768</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>267</v>
+        <v>769</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F361" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="F361" s="4"/>
       <c r="G361" s="4" t="s">
-        <v>380</v>
+        <v>1353</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>25</v>
@@ -14945,101 +15139,108 @@
         <v>10</v>
       </c>
       <c r="F362" s="4" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="G362" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I362" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H362" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>807</v>
+        <v>373</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>806</v>
+        <v>70</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G363" s="4"/>
-      <c r="H363" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I363" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H363" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I363" s="4" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>808</v>
+        <v>374</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>806</v>
+        <v>70</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F364" s="4"/>
-      <c r="G364" s="4"/>
-      <c r="H364" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="I364" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F364" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H364" s="4" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>809</v>
+        <v>376</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>806</v>
+        <v>132</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F365" s="4"/>
-      <c r="G365" s="4"/>
-      <c r="H365" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I365" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F365" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H365" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>810</v>
+        <v>544</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>806</v>
+        <v>555</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>35</v>
@@ -15047,24 +15248,24 @@
       <c r="E366" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F366" s="4"/>
-      <c r="G366" s="4"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
       <c r="H366" s="3" t="s">
-        <v>1357</v>
+        <v>1312</v>
       </c>
       <c r="I366" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>811</v>
+        <v>545</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>806</v>
+        <v>555</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>35</v>
@@ -15072,24 +15273,24 @@
       <c r="E367" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F367" s="4"/>
-      <c r="G367" s="4"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="3"/>
       <c r="H367" s="3" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="I367" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>812</v>
+        <v>546</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>806</v>
+        <v>555</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>35</v>
@@ -15097,23 +15298,26 @@
       <c r="E368" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F368" s="4"/>
-      <c r="G368" s="4" t="s">
-        <v>816</v>
+      <c r="F368" s="3"/>
+      <c r="G368" s="3" t="s">
+        <v>1304</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>815</v>
+        <v>1316</v>
+      </c>
+      <c r="I368" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>813</v>
+        <v>547</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>806</v>
+        <v>555</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>35</v>
@@ -15121,53 +15325,51 @@
       <c r="E369" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F369" s="4"/>
-      <c r="G369" s="4"/>
+      <c r="F369" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G369" s="3"/>
       <c r="H369" s="3" t="s">
-        <v>1360</v>
+        <v>1318</v>
       </c>
       <c r="I369" t="s">
-        <v>1361</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>383</v>
+        <v>548</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>97</v>
+        <v>555</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F370" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G370" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H370" s="4" t="s">
-        <v>1362</v>
+      <c r="F370" s="3"/>
+      <c r="G370" s="3"/>
+      <c r="H370" s="3" t="s">
+        <v>1320</v>
       </c>
       <c r="I370" t="s">
-        <v>1363</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>386</v>
+        <v>549</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>97</v>
+        <v>555</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>35</v>
@@ -15175,109 +15377,102 @@
       <c r="E371" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F371" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G371" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H371" s="4" t="s">
-        <v>1364</v>
+      <c r="F371" s="3"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3" t="s">
+        <v>1322</v>
       </c>
       <c r="I371" t="s">
-        <v>1365</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>388</v>
+        <v>550</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>97</v>
+        <v>555</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F372" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G372" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="H372" s="4" t="s">
-        <v>389</v>
+      <c r="F372" s="3"/>
+      <c r="G372" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I372" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>390</v>
+        <v>551</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F373" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G373" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H373" s="4" t="s">
-        <v>1291</v>
+      <c r="F373" s="3"/>
+      <c r="G373" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>1325</v>
       </c>
       <c r="I373" t="s">
-        <v>1292</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>391</v>
+        <v>552</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F374" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G374" s="4" t="s">
-        <v>1293</v>
-      </c>
-      <c r="H374" s="4" t="s">
-        <v>392</v>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>393</v>
+        <v>553</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>291</v>
+        <v>555</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>35</v>
@@ -15285,25 +15480,23 @@
       <c r="E375" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F375" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="F375" s="3"/>
       <c r="G375" s="3" t="s">
-        <v>571</v>
+        <v>457</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>394</v>
+        <v>558</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>879</v>
+        <v>443</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>880</v>
+        <v>444</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>35</v>
@@ -15312,160 +15505,148 @@
         <v>10</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H376" s="16" t="s">
-        <v>883</v>
+        <v>445</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>1294</v>
       </c>
       <c r="I376" t="s">
-        <v>881</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>881</v>
+        <v>446</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>880</v>
+        <v>444</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F377" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G377" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H377" s="16" t="s">
-        <v>879</v>
+      <c r="H377" s="3" t="s">
+        <v>1296</v>
       </c>
       <c r="I377" t="s">
-        <v>1366</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>882</v>
+        <v>447</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C378" s="16" t="s">
-        <v>895</v>
+      <c r="C378" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F378" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G378" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H378" s="16" t="s">
-        <v>1367</v>
+        <v>1304</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>1298</v>
       </c>
       <c r="I378" t="s">
-        <v>1368</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>833</v>
+        <v>448</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1378</v>
+        <v>444</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G379" s="3"/>
+        <v>1304</v>
+      </c>
       <c r="H379" s="3" t="s">
-        <v>1375</v>
+        <v>1300</v>
       </c>
       <c r="I379" t="s">
-        <v>1376</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>834</v>
+        <v>449</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1379</v>
+        <v>444</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F380" s="3"/>
       <c r="G380" s="3" t="s">
-        <v>836</v>
+        <v>44</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>837</v>
+        <v>1302</v>
+      </c>
+      <c r="I380" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>835</v>
+        <v>450</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1379</v>
+        <v>444</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3" t="s">
-        <v>836</v>
-      </c>
       <c r="H381" s="3" t="s">
-        <v>838</v>
+        <v>1305</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>799</v>
+        <v>451</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>35</v>
@@ -15473,28 +15654,22 @@
       <c r="E382" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F382" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G382" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H382" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I382" t="s">
-        <v>1370</v>
+      <c r="H382" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>870</v>
+        <v>452</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>35</v>
@@ -15502,28 +15677,22 @@
       <c r="E383" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F383" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G383" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H383" s="16" t="s">
-        <v>1371</v>
+      <c r="H383" s="3" t="s">
+        <v>1310</v>
       </c>
       <c r="I383" t="s">
-        <v>1372</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>871</v>
+        <v>453</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>35</v>
@@ -15531,28 +15700,22 @@
       <c r="E384" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F384" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G384" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H384" s="16" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I384" t="s">
-        <v>1374</v>
+        <v>454</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>35</v>
@@ -15560,25 +15723,22 @@
       <c r="E385" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F385" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G385" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H385" s="4" t="s">
-        <v>397</v>
+      <c r="G385" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>25</v>
@@ -15587,731 +15747,695 @@
         <v>10</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="G386" s="4" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I386" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="G387" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H387" s="4" t="s">
-        <v>398</v>
+        <v>26</v>
+      </c>
+      <c r="I387" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>402</v>
+        <v>807</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>341</v>
+        <v>806</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G388" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="H388" s="4" t="s">
-        <v>1288</v>
+        <v>814</v>
+      </c>
+      <c r="G388" s="4"/>
+      <c r="H388" s="3" t="s">
+        <v>1354</v>
       </c>
       <c r="I388" t="s">
-        <v>1289</v>
+        <v>808</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>404</v>
+        <v>808</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>341</v>
+        <v>806</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F389" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G389" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="H389" s="4" t="s">
-        <v>405</v>
+      <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
+      <c r="H389" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="I389" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>406</v>
+        <v>809</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F390" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G390" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="I390" s="3" t="s">
-        <v>408</v>
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+      <c r="H390" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I390" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>408</v>
+        <v>810</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F391" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G391" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H391" s="4" t="s">
-        <v>406</v>
+      <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
+      <c r="H391" s="3" t="s">
+        <v>1357</v>
       </c>
       <c r="I391" t="s">
-        <v>409</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>409</v>
+        <v>811</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F392" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G392" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
       <c r="H392" s="3" t="s">
-        <v>408</v>
+        <v>1306</v>
       </c>
       <c r="I392" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>410</v>
+        <v>812</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F393" s="4" t="s">
-        <v>445</v>
-      </c>
+      <c r="F393" s="4"/>
       <c r="G393" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H393" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I393" s="3" t="s">
-        <v>1386</v>
+        <v>816</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>411</v>
+        <v>813</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F394" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G394" s="4" t="s">
-        <v>586</v>
-      </c>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
       <c r="H394" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I394" s="4" t="s">
-        <v>1388</v>
+        <v>1360</v>
+      </c>
+      <c r="I394" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F395" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>800</v>
+        <v>384</v>
+      </c>
+      <c r="G395" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="H395" s="4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="I395" s="17" t="s">
-        <v>1391</v>
+        <v>1362</v>
+      </c>
+      <c r="I395" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E396" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F396" s="3" t="s">
-        <v>800</v>
+      <c r="F396" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="G396" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H396" s="17" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I396" s="17" t="s">
-        <v>1396</v>
+        <v>99</v>
+      </c>
+      <c r="H396" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I396" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F397" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H397" s="17" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I397" t="s">
-        <v>1398</v>
+        <v>387</v>
+      </c>
+      <c r="G397" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H397" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F398" s="3" t="s">
-        <v>800</v>
+      <c r="F398" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H398" s="17" t="s">
-        <v>1393</v>
+        <v>266</v>
+      </c>
+      <c r="H398" s="4" t="s">
+        <v>1291</v>
       </c>
       <c r="I398" t="s">
-        <v>1399</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F399" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G399" s="3" t="s">
-        <v>589</v>
+        <v>266</v>
+      </c>
+      <c r="G399" s="4" t="s">
+        <v>1293</v>
       </c>
       <c r="H399" s="4" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I399" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>589</v>
+        <v>290</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H400" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="I400" t="s">
-        <v>1400</v>
+        <v>571</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>419</v>
+        <v>879</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>11</v>
+        <v>880</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G401" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>1394</v>
+        <v>196</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H401" s="16" t="s">
+        <v>883</v>
       </c>
       <c r="I401" t="s">
-        <v>1401</v>
+        <v>881</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>588</v>
+        <v>881</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>11</v>
+        <v>880</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>9</v>
+        <v>543</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F402" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G402" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H402" s="4" t="s">
-        <v>1402</v>
+      <c r="F402" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H402" s="16" t="s">
+        <v>879</v>
       </c>
       <c r="I402" t="s">
-        <v>1403</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>587</v>
+        <v>882</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="C403" s="3" t="s">
-        <v>11</v>
+      <c r="C403" s="16" t="s">
+        <v>895</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>9</v>
+        <v>543</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F403" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G403" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H403" s="4" t="s">
-        <v>1395</v>
+      <c r="F403" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H403" s="16" t="s">
+        <v>1367</v>
       </c>
       <c r="I403" t="s">
-        <v>1404</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>11</v>
+        <v>1378</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>9</v>
+        <v>543</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F404" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G404" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H404" s="4" t="s">
-        <v>1405</v>
+      <c r="F404" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G404" s="3"/>
+      <c r="H404" s="3" t="s">
+        <v>1375</v>
       </c>
       <c r="I404" t="s">
-        <v>873</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>873</v>
+        <v>834</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>11</v>
+        <v>1379</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>9</v>
+        <v>543</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F405" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G405" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H405" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="I405" t="s">
-        <v>1406</v>
+      <c r="F405" s="3"/>
+      <c r="G405" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>874</v>
+        <v>835</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>11</v>
+        <v>1379</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F406" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G406" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H406" s="4" t="s">
-        <v>1407</v>
-      </c>
-      <c r="I406" t="s">
-        <v>1408</v>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>420</v>
+        <v>799</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>366</v>
+        <v>800</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F407" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G407" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H407" s="4" t="s">
-        <v>422</v>
+      <c r="F407" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I407" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>423</v>
+        <v>870</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>74</v>
+        <v>800</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F408" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G408" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H408" s="4" t="s">
-        <v>1409</v>
+      <c r="F408" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H408" s="16" t="s">
+        <v>1371</v>
       </c>
       <c r="I408" t="s">
-        <v>1410</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>424</v>
+        <v>871</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>74</v>
+        <v>800</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F409" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G409" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="H409" s="4" t="s">
-        <v>1411</v>
+      <c r="F409" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H409" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I409" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F410" s="4" t="s">
-        <v>341</v>
+        <v>138</v>
       </c>
       <c r="G410" s="4" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="H410" s="4" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F411" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G411" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I411" s="3" t="s">
-        <v>1414</v>
+      <c r="F411" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G411" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H411" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I411" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>9</v>
@@ -16319,28 +16443,25 @@
       <c r="E412" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F412" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H412" s="3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="I412" s="3" t="s">
-        <v>1415</v>
+      <c r="F412" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G412" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H412" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>9</v>
@@ -16348,28 +16469,28 @@
       <c r="E413" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F413" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G413" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H413" s="3" t="s">
-        <v>1416</v>
+      <c r="F413" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G413" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H413" s="4" t="s">
+        <v>1288</v>
       </c>
       <c r="I413" t="s">
-        <v>1418</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>9</v>
@@ -16377,28 +16498,25 @@
       <c r="E414" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F414" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H414" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I414" t="s">
-        <v>433</v>
+      <c r="F414" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G414" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H414" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>9</v>
@@ -16406,25 +16524,25 @@
       <c r="E415" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F415" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G415" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H415" s="3" t="s">
-        <v>431</v>
+      <c r="F415" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G415" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>9</v>
@@ -16432,28 +16550,28 @@
       <c r="E416" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F416" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H416" s="3" t="s">
-        <v>1419</v>
+      <c r="F416" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G416" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H416" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="I416" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>9</v>
@@ -16461,51 +16579,57 @@
       <c r="E417" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F417" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G417" s="3" t="s">
-        <v>438</v>
+      <c r="F417" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G417" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F418" s="3" t="s">
-        <v>99</v>
+      <c r="F418" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H418" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H418" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>574</v>
+        <v>411</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>9</v>
@@ -16513,13 +16637,717 @@
       <c r="E419" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F419" s="3" t="s">
+      <c r="F419" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G419" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I419" s="4" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H420" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I420" s="17" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G421" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H421" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I421" s="17" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F422" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H422" s="17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I422" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G423" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H423" s="17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I423" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F424" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H424" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I424" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H425" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="I425" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G426" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I426" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F427" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G427" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H427" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F428" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G428" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G419" s="3" t="s">
+      <c r="H428" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I428" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F429" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G429" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H429" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I429" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F430" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G430" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H430" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="I430" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F431" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G431" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H431" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I431" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F432" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G432" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H432" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F433" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G433" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H433" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I433" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F434" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G434" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H434" s="4" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F435" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G435" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H435" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I439" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I441" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G443" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H443" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G444" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H419" s="3" t="s">
+      <c r="H444" s="3" t="s">
         <v>575</v>
       </c>
     </row>
@@ -16540,8 +17368,8 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17413,12 +18241,22 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
     </row>
-    <row r="25" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
+    <row r="25" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B25" s="14">
+        <v>44725</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1643</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1979">
   <si>
     <t>trackID</t>
   </si>
@@ -5865,6 +5865,99 @@
   </si>
   <si>
     <t>IMG_2161</t>
+  </si>
+  <si>
+    <t>BVRL01</t>
+  </si>
+  <si>
+    <t>Beaver Lake trails</t>
+  </si>
+  <si>
+    <t>Beaver Lake</t>
+  </si>
+  <si>
+    <t>BVRL02</t>
+  </si>
+  <si>
+    <t>Beaver Lake overlook</t>
+  </si>
+  <si>
+    <t>ANDG01</t>
+  </si>
+  <si>
+    <t>ANDG02</t>
+  </si>
+  <si>
+    <t>ANDG03</t>
+  </si>
+  <si>
+    <t>ANDG04</t>
+  </si>
+  <si>
+    <t>ANDG05</t>
+  </si>
+  <si>
+    <t>ANDL01</t>
+  </si>
+  <si>
+    <t>BUFO01</t>
+  </si>
+  <si>
+    <t>CLAY01</t>
+  </si>
+  <si>
+    <t>Anderson Lake Trail</t>
+  </si>
+  <si>
+    <t>Bufo Lake Trail</t>
+  </si>
+  <si>
+    <t>Clay Lake Trail</t>
+  </si>
+  <si>
+    <t>Anderson Lake</t>
+  </si>
+  <si>
+    <t>Bufo Lake</t>
+  </si>
+  <si>
+    <t>Clay Lake</t>
+  </si>
+  <si>
+    <t>NDLT03, NDLT04</t>
+  </si>
+  <si>
+    <t>ANDG02, ANDL01</t>
+  </si>
+  <si>
+    <t>ANDG01, ANDL01</t>
+  </si>
+  <si>
+    <t>ANDG04, BUFO01</t>
+  </si>
+  <si>
+    <t>ANDG04, CLAY01</t>
+  </si>
+  <si>
+    <t>ANDG03, BUFO01</t>
+  </si>
+  <si>
+    <t>ANDG05, CLAY01</t>
+  </si>
+  <si>
+    <t>ANDG01, ANDG02</t>
+  </si>
+  <si>
+    <t>ANDG03, ANDG04</t>
+  </si>
+  <si>
+    <t>ANDG04, ANDG05</t>
+  </si>
+  <si>
+    <t>NDLT04, ANDG01</t>
+  </si>
+  <si>
+    <t>NDLT03, ANDG01</t>
   </si>
 </sst>
 </file>
@@ -6213,13 +6306,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X527"/>
+  <dimension ref="A1:X537"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B429" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I452" sqref="I452"/>
+      <selection pane="bottomRight" activeCell="F355" sqref="F355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15660,7 +15753,7 @@
         <v>1242</v>
       </c>
       <c r="I351" t="s">
-        <v>297</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -15686,7 +15779,7 @@
         <v>298</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>295</v>
+        <v>1978</v>
       </c>
       <c r="I352" t="s">
         <v>1243</v>
@@ -20344,6 +20437,272 @@
       </c>
       <c r="H527" s="3" t="s">
         <v>1845</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I530" s="3" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I531" s="3" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I532" s="3" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -46608,7 +46967,7 @@
   </sheetPr>
   <dimension ref="A1:Y216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="2024">
   <si>
     <t>trackID</t>
   </si>
@@ -5958,6 +5958,141 @@
   </si>
   <si>
     <t>NDLT03, ANDG01</t>
+  </si>
+  <si>
+    <t>IMG_2173</t>
+  </si>
+  <si>
+    <t>IMG_2174</t>
+  </si>
+  <si>
+    <t>IMG_2175</t>
+  </si>
+  <si>
+    <t>IMG_2176</t>
+  </si>
+  <si>
+    <t>IMG_2177</t>
+  </si>
+  <si>
+    <t>IMG_2178</t>
+  </si>
+  <si>
+    <t>IMG_2183</t>
+  </si>
+  <si>
+    <t>IMG_2184</t>
+  </si>
+  <si>
+    <t>IMG_2185</t>
+  </si>
+  <si>
+    <t>IMG_2187</t>
+  </si>
+  <si>
+    <t>IMG_2188</t>
+  </si>
+  <si>
+    <t>IMG_2189</t>
+  </si>
+  <si>
+    <t>IMG_2190</t>
+  </si>
+  <si>
+    <t>IMG_2191</t>
+  </si>
+  <si>
+    <t>IMG_2192</t>
+  </si>
+  <si>
+    <t>IMG_2193</t>
+  </si>
+  <si>
+    <t>IMG_2194</t>
+  </si>
+  <si>
+    <t>IMG_2195</t>
+  </si>
+  <si>
+    <t>IMG_2196</t>
+  </si>
+  <si>
+    <t>IMG_2200</t>
+  </si>
+  <si>
+    <t>IMG_2201</t>
+  </si>
+  <si>
+    <t>IMG_2202</t>
+  </si>
+  <si>
+    <t>IMG_2203</t>
+  </si>
+  <si>
+    <t>IMG_2204</t>
+  </si>
+  <si>
+    <t>IMG_2205</t>
+  </si>
+  <si>
+    <t>IMG_2206</t>
+  </si>
+  <si>
+    <t>IMG_2207</t>
+  </si>
+  <si>
+    <t>IMG_2208</t>
+  </si>
+  <si>
+    <t>IMG_2209</t>
+  </si>
+  <si>
+    <t>IMG_2210</t>
+  </si>
+  <si>
+    <t>IMG_2211</t>
+  </si>
+  <si>
+    <t>IMG_2212</t>
+  </si>
+  <si>
+    <t>IMG_2213</t>
+  </si>
+  <si>
+    <t>Parking area on N Delta Rd</t>
+  </si>
+  <si>
+    <t>Junction of Anderson Grade and North Country Trail</t>
+  </si>
+  <si>
+    <t>WRVR01</t>
+  </si>
+  <si>
+    <t>WRVR02</t>
+  </si>
+  <si>
+    <t>WRVR03</t>
+  </si>
+  <si>
+    <t>WRVR04</t>
+  </si>
+  <si>
+    <t>White River Road</t>
+  </si>
+  <si>
+    <t>White River Fishery Area parking [West]</t>
+  </si>
+  <si>
+    <t>Snowmobile trail exit</t>
+  </si>
+  <si>
+    <t>White River Fishery Area parking [East]</t>
+  </si>
+  <si>
+    <t>end of road</t>
+  </si>
+  <si>
+    <t>Pike River Rd</t>
   </si>
 </sst>
 </file>
@@ -6306,13 +6441,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X537"/>
+  <dimension ref="A1:X541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B338" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B513" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F355" sqref="F355"/>
+      <selection pane="bottomRight" activeCell="H538" sqref="H538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20703,6 +20838,116 @@
       </c>
       <c r="H537" s="3" t="s">
         <v>1976</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I538" s="3" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I539" s="3" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I540" s="3" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -46965,11 +47210,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y216"/>
+  <dimension ref="A1:Y249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C240" sqref="C240:C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49374,6 +49619,369 @@
         <v>1716</v>
       </c>
     </row>
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>575</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>578</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>578</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>609</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>867</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>576</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B237" s="16" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C249" s="19" t="s">
+        <v>1716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="2096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5552" uniqueCount="2137">
   <si>
     <t>trackID</t>
   </si>
@@ -6194,9 +6194,6 @@
     <t>Sign at Bob Norlin Overlook</t>
   </si>
   <si>
-    <t>NCTR26</t>
-  </si>
-  <si>
     <t>Sign at Banana Belt Rd</t>
   </si>
   <si>
@@ -6309,6 +6306,132 @@
   </si>
   <si>
     <t>View from Delta-Drummond Rd</t>
+  </si>
+  <si>
+    <t>NCTBF26</t>
+  </si>
+  <si>
+    <t>NCTBF21</t>
+  </si>
+  <si>
+    <t>NCTBF22</t>
+  </si>
+  <si>
+    <t>NCTBF23</t>
+  </si>
+  <si>
+    <t>NCTBF24</t>
+  </si>
+  <si>
+    <t>NCTBF25</t>
+  </si>
+  <si>
+    <t>NCTBFEL</t>
+  </si>
+  <si>
+    <t>Pero Rd</t>
+  </si>
+  <si>
+    <t>NCTBF22, NCTBFEL</t>
+  </si>
+  <si>
+    <t>NCTBF21, NCTBFEL</t>
+  </si>
+  <si>
+    <t>NCTBF23, NCTBFEL</t>
+  </si>
+  <si>
+    <t>NCTBF27</t>
+  </si>
+  <si>
+    <t>NCTBF21, NCTBF22</t>
+  </si>
+  <si>
+    <t>NCTBF22, NCTBF23</t>
+  </si>
+  <si>
+    <t>Erick Lake campsite trail [West]</t>
+  </si>
+  <si>
+    <t>Erick Lake campsite trail [East]</t>
+  </si>
+  <si>
+    <t>IMG_2326</t>
+  </si>
+  <si>
+    <t>IMG_2327</t>
+  </si>
+  <si>
+    <t>IMG_2329</t>
+  </si>
+  <si>
+    <t>IMG_2330</t>
+  </si>
+  <si>
+    <t>IMG_2331</t>
+  </si>
+  <si>
+    <t>IMG_2332</t>
+  </si>
+  <si>
+    <t>IMG_2333</t>
+  </si>
+  <si>
+    <t>IMG_2334</t>
+  </si>
+  <si>
+    <t>IMG_2335</t>
+  </si>
+  <si>
+    <t>IMG_2336</t>
+  </si>
+  <si>
+    <t>IMG_2337</t>
+  </si>
+  <si>
+    <t>IMG_2338</t>
+  </si>
+  <si>
+    <t>IMG_2339</t>
+  </si>
+  <si>
+    <t>IMG_2340</t>
+  </si>
+  <si>
+    <t>IMG_2341</t>
+  </si>
+  <si>
+    <t>IMG_2342</t>
+  </si>
+  <si>
+    <t>IMG_2343</t>
+  </si>
+  <si>
+    <t>IMG_2345</t>
+  </si>
+  <si>
+    <t>IMG_2346</t>
+  </si>
+  <si>
+    <t>NCTBF20</t>
+  </si>
+  <si>
+    <t>Sign at Pero Rd</t>
+  </si>
+  <si>
+    <t>Erick Lake campsite view</t>
+  </si>
+  <si>
+    <t>Erick Lake campsite</t>
+  </si>
+  <si>
+    <t>Erick Lake</t>
+  </si>
+  <si>
+    <t>Erick Lake campsite latrine</t>
+  </si>
+  <si>
+    <t>Beaver pond</t>
   </si>
 </sst>
 </file>
@@ -6657,13 +6780,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X561"/>
+  <dimension ref="A1:X568"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B524" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B340" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I535" sqref="I535"/>
+      <selection pane="bottomRight" activeCell="H351" sqref="H351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7126,13 +7249,13 @@
     </row>
     <row r="16" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -7141,24 +7264,24 @@
         <v>10</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>2083</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2084</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -7167,13 +7290,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2085</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>2086</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -7305,7 +7428,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>991</v>
@@ -7330,7 +7453,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I23" t="s">
         <v>989</v>
@@ -7359,15 +7482,15 @@
         <v>36</v>
       </c>
       <c r="H24" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I24" t="s">
         <v>2063</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1436</v>
@@ -7384,15 +7507,15 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1436</v>
@@ -7409,10 +7532,10 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -7754,13 +7877,13 @@
     </row>
     <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
@@ -7774,18 +7897,18 @@
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -7795,21 +7918,21 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>2076</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>2077</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -7822,7 +7945,7 @@
         <v>1613</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -8492,7 +8615,7 @@
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="I70" t="s">
         <v>1009</v>
@@ -13089,7 +13212,7 @@
         <v>2042</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -13115,7 +13238,7 @@
         <v>35</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>1355</v>
@@ -13173,7 +13296,7 @@
         <v>1337</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="I244" t="s">
         <v>1340</v>
@@ -16032,7 +16155,7 @@
     </row>
     <row r="351" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>2034</v>
+        <v>2096</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>1436</v>
@@ -16047,19 +16170,19 @@
         <v>10</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>2037</v>
+        <v>2102</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>2038</v>
+        <v>2109</v>
       </c>
       <c r="H351" s="3"/>
       <c r="I351" s="3" t="s">
-        <v>2035</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>2035</v>
+        <v>2097</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>1436</v>
@@ -16074,21 +16197,21 @@
         <v>10</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>2038</v>
-      </c>
-      <c r="G352" s="4" t="s">
-        <v>2039</v>
+        <v>2109</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>2110</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>2034</v>
+        <v>2104</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>2046</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>2036</v>
+        <v>2098</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>1436</v>
@@ -16102,22 +16225,20 @@
       <c r="E353" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F353" s="4" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G353" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="F353" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G353" s="3"/>
       <c r="H353" s="3" t="s">
-        <v>2047</v>
+        <v>2103</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>2040</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>743</v>
+        <v>2099</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>1436</v>
@@ -16131,22 +16252,18 @@
       <c r="E354" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F354" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G354" s="3" t="s">
-        <v>1711</v>
-      </c>
+      <c r="F354" s="4"/>
+      <c r="G354" s="3"/>
       <c r="H354" s="3" t="s">
-        <v>2041</v>
-      </c>
-      <c r="I354" t="s">
-        <v>2071</v>
+        <v>2098</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>2100</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>744</v>
+        <v>2100</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>1436</v>
@@ -16160,22 +16277,18 @@
       <c r="E355" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F355" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>440</v>
-      </c>
+      <c r="F355" s="4"/>
+      <c r="G355" s="3"/>
       <c r="H355" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I355" t="s">
-        <v>1159</v>
+        <v>2099</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>783</v>
+        <v>2095</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1436</v>
@@ -16189,22 +16302,18 @@
       <c r="E356" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F356" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="F356" s="4"/>
+      <c r="G356" s="3"/>
       <c r="H356" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I356" t="s">
-        <v>1209</v>
+        <v>2100</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>2106</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>784</v>
+        <v>2101</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>1436</v>
@@ -16218,22 +16327,20 @@
       <c r="E357" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F357" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G357" s="3" t="s">
-        <v>596</v>
+      <c r="F357" s="4"/>
+      <c r="G357" s="4" t="s">
+        <v>2037</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I357" t="s">
-        <v>1211</v>
+        <v>2107</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>2108</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>785</v>
+        <v>2034</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>1436</v>
@@ -16247,22 +16354,22 @@
       <c r="E358" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F358" s="3" t="s">
-        <v>596</v>
+      <c r="F358" s="4" t="s">
+        <v>2037</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>787</v>
+        <v>2038</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I358" t="s">
-        <v>786</v>
+        <v>2095</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>2035</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>786</v>
+        <v>2035</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1436</v>
@@ -16277,21 +16384,21 @@
         <v>10</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="G359" s="3" t="s">
-        <v>43</v>
+        <v>2038</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>2039</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="I359" t="s">
-        <v>1215</v>
+        <v>2034</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>2046</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>794</v>
+        <v>2036</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1436</v>
@@ -16305,22 +16412,22 @@
       <c r="E360" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F360" s="3" t="s">
-        <v>43</v>
+      <c r="F360" s="4" t="s">
+        <v>2039</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>573</v>
+        <v>169</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I360" t="s">
-        <v>1214</v>
+        <v>2047</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>1436</v>
@@ -16335,21 +16442,21 @@
         <v>10</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>573</v>
+        <v>169</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>798</v>
+        <v>1711</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>1216</v>
+        <v>2041</v>
       </c>
       <c r="I361" t="s">
-        <v>1217</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>1436</v>
@@ -16364,21 +16471,21 @@
         <v>10</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>798</v>
+        <v>1711</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>792</v>
+        <v>440</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>1218</v>
+        <v>2071</v>
       </c>
       <c r="I362" t="s">
-        <v>1219</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>1436</v>
@@ -16393,21 +16500,21 @@
         <v>10</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>792</v>
+        <v>440</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="I363" t="s">
-        <v>1779</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1810</v>
+        <v>784</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>1436</v>
@@ -16422,21 +16529,21 @@
         <v>10</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1813</v>
+        <v>596</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="I364" s="3" t="s">
-        <v>1811</v>
+        <v>1210</v>
+      </c>
+      <c r="I364" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1811</v>
+        <v>785</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>1436</v>
@@ -16451,21 +16558,21 @@
         <v>10</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1813</v>
+        <v>596</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1815</v>
+        <v>787</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>1810</v>
-      </c>
-      <c r="I365" s="3" t="s">
-        <v>1812</v>
+        <v>1212</v>
+      </c>
+      <c r="I365" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1812</v>
+        <v>786</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>1436</v>
@@ -16480,24 +16587,27 @@
         <v>10</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1815</v>
+        <v>787</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1814</v>
+        <v>43</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>1811</v>
+        <v>785</v>
+      </c>
+      <c r="I366" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>285</v>
+        <v>794</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>34</v>
@@ -16506,27 +16616,27 @@
         <v>10</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>287</v>
+        <v>573</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="I367" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>288</v>
+        <v>795</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>34</v>
@@ -16535,224 +16645,227 @@
         <v>10</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>287</v>
+        <v>573</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>289</v>
+        <v>798</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="I368" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>290</v>
+        <v>796</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F369" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G369" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H369" s="17" t="s">
-        <v>1983</v>
+      <c r="F369" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>1218</v>
       </c>
       <c r="I369" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>292</v>
+        <v>797</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F370" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G370" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H370" s="17" t="s">
-        <v>1227</v>
+      <c r="F370" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>1220</v>
       </c>
       <c r="I370" t="s">
-        <v>1228</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>294</v>
+        <v>1810</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H371" s="16" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I371" t="s">
-        <v>1919</v>
+        <v>1813</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>1811</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>296</v>
+        <v>1811</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>295</v>
+        <v>1813</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>297</v>
+        <v>1815</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1920</v>
-      </c>
-      <c r="I372" t="s">
-        <v>1230</v>
+        <v>1810</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>298</v>
+        <v>1812</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>297</v>
+        <v>1815</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>299</v>
+        <v>1814</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I373" t="s">
-        <v>183</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F374" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G374" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H374" s="4" t="s">
-        <v>302</v>
+      <c r="F374" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F375" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G375" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I375" s="3" t="s">
-        <v>306</v>
+        <v>10</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>9</v>
@@ -16761,24 +16874,27 @@
         <v>10</v>
       </c>
       <c r="F376" s="4" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="G376" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I376" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
+      </c>
+      <c r="H376" s="17" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>9</v>
@@ -16787,24 +16903,27 @@
         <v>10</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="G377" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H377" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
+      </c>
+      <c r="H377" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I377" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>9</v>
@@ -16812,28 +16931,28 @@
       <c r="E378" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F378" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G378" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H378" s="4" t="s">
-        <v>110</v>
+      <c r="F378" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H378" s="16" t="s">
+        <v>1229</v>
       </c>
       <c r="I378" t="s">
-        <v>1231</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>9</v>
@@ -16841,112 +16960,109 @@
       <c r="E379" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F379" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G379" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H379" s="4" t="s">
-        <v>316</v>
+      <c r="F379" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F380" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G380" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H380" s="4" t="s">
-        <v>1232</v>
+      <c r="F380" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="I380" t="s">
-        <v>1233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F381" s="4" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="G381" s="4" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H381" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I381" t="s">
-        <v>1235</v>
+        <v>302</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F382" s="4" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G382" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H382" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I382" t="s">
-        <v>1237</v>
+        <v>150</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>9</v>
@@ -16955,27 +17071,27 @@
         <v>10</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="G383" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H383" s="4" t="s">
-        <v>322</v>
+        <v>61</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>10</v>
@@ -16984,47 +17100,50 @@
         <v>61</v>
       </c>
       <c r="G384" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H384" s="4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>328</v>
+        <v>111</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G385" s="4" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="H385" s="4" t="s">
-        <v>330</v>
+        <v>110</v>
+      </c>
+      <c r="I385" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>9</v>
@@ -17033,53 +17152,53 @@
         <v>10</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="G386" s="4" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="H386" s="4" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I386" s="3" t="s">
-        <v>1782</v>
+        <v>316</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>1783</v>
-      </c>
-      <c r="I387" s="3" t="s">
-        <v>336</v>
+        <v>54</v>
+      </c>
+      <c r="G387" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H387" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I387" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>9</v>
@@ -17087,22 +17206,28 @@
       <c r="E388" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H388" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I388" s="3" t="s">
-        <v>1785</v>
+      <c r="F388" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G388" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H388" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I388" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>9</v>
@@ -17110,25 +17235,28 @@
       <c r="E389" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F389" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="G389" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="H389" s="3" t="s">
-        <v>1784</v>
+        <v>308</v>
+      </c>
+      <c r="H389" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="I389" t="s">
-        <v>1786</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>9</v>
@@ -17137,111 +17265,105 @@
         <v>10</v>
       </c>
       <c r="F390" s="4" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="G390" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1787</v>
-      </c>
-      <c r="I390" s="3" t="s">
-        <v>1788</v>
+        <v>215</v>
+      </c>
+      <c r="H390" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>1780</v>
+        <v>323</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F391" s="4" t="s">
-        <v>337</v>
+        <v>61</v>
       </c>
       <c r="G391" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="I391" s="4" t="s">
-        <v>1781</v>
+        <v>325</v>
+      </c>
+      <c r="H391" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1781</v>
+        <v>327</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="G392" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H392" s="4" t="s">
-        <v>1780</v>
+        <v>330</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G393" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H393" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I393" t="s">
-        <v>1244</v>
+        <v>1649</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>1782</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>9</v>
@@ -17250,27 +17372,24 @@
         <v>10</v>
       </c>
       <c r="F394" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G394" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="H394" s="4" t="s">
-        <v>1245</v>
+        <v>333</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>1783</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>1510</v>
+        <v>336</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>1510</v>
+        <v>336</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>9</v>
@@ -17278,28 +17397,22 @@
       <c r="E395" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F395" s="3" t="s">
-        <v>1712</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="H395" s="4" t="s">
-        <v>345</v>
+      <c r="H395" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>1703</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>1511</v>
+        <v>338</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>9</v>
@@ -17307,26 +17420,25 @@
       <c r="E396" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F396" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="G396" s="4"/>
+      <c r="G396" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="H396" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="I396" s="3" t="s">
-        <v>1512</v>
+        <v>1784</v>
+      </c>
+      <c r="I396" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1512</v>
+        <v>340</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>9</v>
@@ -17334,24 +17446,28 @@
       <c r="E397" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F397" s="4"/>
-      <c r="G397" s="4"/>
-      <c r="H397" s="3" t="s">
-        <v>1511</v>
+      <c r="F397" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G397" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H397" t="s">
+        <v>1787</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>1615</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>1513</v>
+        <v>1780</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>9</v>
@@ -17359,26 +17475,28 @@
       <c r="E398" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F398" s="4"/>
+      <c r="F398" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="G398" s="4" t="s">
-        <v>1538</v>
+        <v>339</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I398" s="3" t="s">
-        <v>1519</v>
+        <v>1789</v>
+      </c>
+      <c r="I398" s="4" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1514</v>
+        <v>1781</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>9</v>
@@ -17387,44 +17505,47 @@
         <v>10</v>
       </c>
       <c r="F399" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G399" s="4"/>
-      <c r="H399" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I399" s="3" t="s">
-        <v>1515</v>
+        <v>341</v>
+      </c>
+      <c r="G399" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H399" s="4" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>1515</v>
+        <v>343</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F400" s="4"/>
-      <c r="G400" s="4"/>
-      <c r="H400" s="3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I400" s="3" t="s">
-        <v>1516</v>
+      <c r="F400" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G400" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H400" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I400" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1516</v>
+        <v>345</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>1436</v>
@@ -17438,20 +17559,22 @@
       <c r="E401" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F401" s="4"/>
-      <c r="G401" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>1515</v>
+      <c r="F401" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H401" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>1436</v>
@@ -17465,22 +17588,22 @@
       <c r="E402" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F402" s="4" t="s">
-        <v>1523</v>
+      <c r="F402" s="3" t="s">
+        <v>1712</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>1522</v>
+        <v>1713</v>
+      </c>
+      <c r="H402" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1746</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1745</v>
+        <v>1511</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>1436</v>
@@ -17495,27 +17618,25 @@
         <v>10</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G403" s="4" t="s">
-        <v>344</v>
-      </c>
+        <v>1713</v>
+      </c>
+      <c r="G403" s="4"/>
       <c r="H403" s="3" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I403" t="s">
-        <v>1246</v>
+        <v>1704</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>346</v>
+        <v>1512</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>9</v>
@@ -17523,28 +17644,24 @@
       <c r="E404" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F404" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G404" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
       <c r="H404" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I404" t="s">
-        <v>1239</v>
+        <v>1511</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>348</v>
+        <v>1513</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>9</v>
@@ -17552,28 +17669,26 @@
       <c r="E405" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F405" s="4" t="s">
-        <v>347</v>
-      </c>
+      <c r="F405" s="4"/>
       <c r="G405" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H405" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I405" t="s">
-        <v>1241</v>
+        <v>1538</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>349</v>
+        <v>1514</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>9</v>
@@ -17582,27 +17697,25 @@
         <v>10</v>
       </c>
       <c r="F406" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G406" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H406" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I406" t="s">
-        <v>351</v>
+        <v>1538</v>
+      </c>
+      <c r="G406" s="4"/>
+      <c r="H406" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>351</v>
+        <v>1515</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>9</v>
@@ -17610,28 +17723,24 @@
       <c r="E407" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F407" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G407" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H407" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I407" t="s">
-        <v>352</v>
+      <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
+      <c r="H407" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I407" s="3" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>352</v>
+        <v>1516</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>9</v>
@@ -17639,222 +17748,220 @@
       <c r="E408" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F408" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="F408" s="4"/>
       <c r="G408" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H408" s="4" t="s">
-        <v>351</v>
+        <v>1523</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>354</v>
+        <v>1517</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F409" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G409" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H409" s="4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I409" t="s">
-        <v>1291</v>
+        <v>1523</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I409" s="3" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>355</v>
+        <v>1745</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F410" s="4" t="s">
-        <v>328</v>
+      <c r="F410" s="3" t="s">
+        <v>1604</v>
       </c>
       <c r="G410" s="4" t="s">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1292</v>
+        <v>1747</v>
       </c>
       <c r="I410" t="s">
-        <v>1293</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F411" s="4" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="G411" s="4" t="s">
-        <v>92</v>
+        <v>347</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>1294</v>
+        <v>1238</v>
       </c>
       <c r="I411" t="s">
-        <v>1295</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F412" s="4" t="s">
-        <v>92</v>
+        <v>347</v>
       </c>
       <c r="G412" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H412" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I412" s="4" t="s">
-        <v>1297</v>
+        <v>135</v>
+      </c>
+      <c r="H412" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I412" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E413" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>1298</v>
+        <v>1242</v>
       </c>
       <c r="I413" t="s">
-        <v>1966</v>
+        <v>351</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="G414" s="4" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="H414" s="4" t="s">
-        <v>1967</v>
+        <v>349</v>
       </c>
       <c r="I414" t="s">
-        <v>1299</v>
+        <v>352</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F415" s="4" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G415" s="4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H415" s="4" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I415" t="s">
-        <v>1301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>1436</v>
@@ -17869,21 +17976,21 @@
         <v>10</v>
       </c>
       <c r="F416" s="4" t="s">
-        <v>361</v>
+        <v>54</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="H416" s="4" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="I416" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>1436</v>
@@ -17898,340 +18005,359 @@
         <v>10</v>
       </c>
       <c r="F417" s="4" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H417" s="4" t="s">
-        <v>364</v>
+        <v>38</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>366</v>
+        <v>39</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F418" s="4" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="I418" s="4" t="s">
-        <v>753</v>
+        <v>92</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I418" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>753</v>
+        <v>357</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F419" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="G419" s="4"/>
-      <c r="H419" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="I419" t="s">
-        <v>1304</v>
+        <v>92</v>
+      </c>
+      <c r="G419" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H419" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I419" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>754</v>
+        <v>358</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F420" s="4"/>
-      <c r="G420" s="4"/>
+      <c r="F420" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G420" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H420" s="4" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="I420" t="s">
-        <v>1306</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>755</v>
+        <v>359</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F421" s="4"/>
+      <c r="F421" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G421" s="4" t="s">
-        <v>1711</v>
+        <v>126</v>
       </c>
       <c r="H421" s="4" t="s">
-        <v>1307</v>
+        <v>1967</v>
       </c>
       <c r="I421" t="s">
-        <v>2073</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>756</v>
+        <v>360</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F422" s="4"/>
+      <c r="F422" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G422" s="4" t="s">
-        <v>1711</v>
+        <v>361</v>
       </c>
       <c r="H422" s="4" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="I422" t="s">
-        <v>33</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>757</v>
+        <v>362</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F423" s="4"/>
-      <c r="G423" s="4"/>
+      <c r="F423" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G423" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H423" s="4" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="I423" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>758</v>
+        <v>363</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>761</v>
+        <v>39</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F424" s="4"/>
-      <c r="G424" s="4"/>
+      <c r="F424" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G424" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H424" s="4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I424" t="s">
-        <v>1312</v>
+        <v>364</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>760</v>
+        <v>365</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>761</v>
+        <v>366</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F425" s="4"/>
+      <c r="F425" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="G425" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H425" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
+      </c>
+      <c r="I425" s="4" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>367</v>
+        <v>753</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>69</v>
+        <v>761</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>25</v>
+        <v>538</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F426" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G426" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="G426" s="4"/>
       <c r="H426" s="4" t="s">
-        <v>1247</v>
+        <v>365</v>
       </c>
       <c r="I426" t="s">
-        <v>1248</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>368</v>
+        <v>754</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>69</v>
+        <v>761</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>25</v>
+        <v>538</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F427" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G427" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H427" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I427" s="4" t="s">
-        <v>1250</v>
+      <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
+      <c r="H427" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>369</v>
+        <v>755</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>69</v>
+        <v>761</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>25</v>
+        <v>538</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F428" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="F428" s="4"/>
       <c r="G428" s="4" t="s">
-        <v>370</v>
+        <v>1711</v>
       </c>
       <c r="H428" s="4" t="s">
-        <v>1251</v>
+        <v>1307</v>
+      </c>
+      <c r="I428" t="s">
+        <v>2072</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>371</v>
+        <v>756</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>130</v>
+        <v>761</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F429" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="F429" s="4"/>
       <c r="G429" s="4" t="s">
-        <v>372</v>
+        <v>1711</v>
       </c>
       <c r="H429" s="4" t="s">
-        <v>373</v>
+        <v>1308</v>
+      </c>
+      <c r="I429" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>539</v>
+        <v>757</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>550</v>
+        <v>761</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>34</v>
@@ -18239,24 +18365,24 @@
       <c r="E430" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3" t="s">
-        <v>1275</v>
+      <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
+      <c r="H430" s="4" t="s">
+        <v>1309</v>
       </c>
       <c r="I430" t="s">
-        <v>1276</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>540</v>
+        <v>758</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>550</v>
+        <v>761</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>34</v>
@@ -18264,24 +18390,24 @@
       <c r="E431" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F431" s="3"/>
-      <c r="G431" s="3"/>
-      <c r="H431" s="3" t="s">
-        <v>1277</v>
+      <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
+      <c r="H431" s="4" t="s">
+        <v>1311</v>
       </c>
       <c r="I431" t="s">
-        <v>1278</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>541</v>
+        <v>760</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>550</v>
+        <v>761</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>34</v>
@@ -18289,124 +18415,127 @@
       <c r="E432" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="H432" s="3" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I432" t="s">
-        <v>1280</v>
+      <c r="F432" s="4"/>
+      <c r="G432" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H432" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>550</v>
+        <v>69</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F433" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3" t="s">
-        <v>1281</v>
+      <c r="F433" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G433" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H433" s="4" t="s">
+        <v>1247</v>
       </c>
       <c r="I433" t="s">
-        <v>1282</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>543</v>
+        <v>368</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>550</v>
+        <v>69</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E434" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I434" t="s">
-        <v>1284</v>
+      <c r="F434" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G434" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H434" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I434" s="4" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>544</v>
+        <v>369</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>550</v>
+        <v>69</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F435" s="3"/>
-      <c r="G435" s="3"/>
-      <c r="H435" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I435" t="s">
-        <v>1286</v>
+      <c r="F435" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G435" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H435" s="4" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>545</v>
+        <v>371</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F436" s="3"/>
-      <c r="G436" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H436" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I436" t="s">
-        <v>555</v>
+      <c r="F436" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G436" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H436" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>1436</v>
@@ -18421,19 +18550,17 @@
         <v>10</v>
       </c>
       <c r="F437" s="3"/>
-      <c r="G437" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G437" s="3"/>
       <c r="H437" s="3" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="I437" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>1436</v>
@@ -18448,16 +18575,17 @@
         <v>10</v>
       </c>
       <c r="F438" s="3"/>
-      <c r="G438" s="3" t="s">
-        <v>449</v>
-      </c>
+      <c r="G438" s="3"/>
       <c r="H438" s="3" t="s">
-        <v>554</v>
+        <v>1277</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>1436</v>
@@ -18473,21 +18601,24 @@
       </c>
       <c r="F439" s="3"/>
       <c r="G439" s="3" t="s">
-        <v>452</v>
+        <v>1267</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+      <c r="I439" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>438</v>
+        <v>542</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>34</v>
@@ -18496,24 +18627,25 @@
         <v>10</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>440</v>
-      </c>
+        <v>1267</v>
+      </c>
+      <c r="G440" s="3"/>
       <c r="H440" s="3" t="s">
-        <v>1258</v>
+        <v>1281</v>
       </c>
       <c r="I440" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>441</v>
+        <v>543</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>34</v>
@@ -18521,22 +18653,24 @@
       <c r="E441" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F441" s="3"/>
+      <c r="G441" s="3"/>
       <c r="H441" s="3" t="s">
-        <v>1260</v>
+        <v>1283</v>
       </c>
       <c r="I441" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>442</v>
+        <v>544</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>34</v>
@@ -18544,25 +18678,24 @@
       <c r="E442" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G442" s="3" t="s">
-        <v>1267</v>
-      </c>
+      <c r="F442" s="3"/>
+      <c r="G442" s="3"/>
       <c r="H442" s="3" t="s">
-        <v>1262</v>
+        <v>1285</v>
       </c>
       <c r="I442" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>443</v>
+        <v>545</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>34</v>
@@ -18570,25 +18703,26 @@
       <c r="E443" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F443" s="3" t="s">
-        <v>1267</v>
+      <c r="F443" s="3"/>
+      <c r="G443" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>1264</v>
+        <v>1287</v>
       </c>
       <c r="I443" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>444</v>
+        <v>546</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>34</v>
@@ -18596,25 +18730,26 @@
       <c r="E444" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F444" s="3"/>
       <c r="G444" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>1266</v>
+        <v>1288</v>
       </c>
       <c r="I444" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>445</v>
+        <v>547</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>34</v>
@@ -18622,22 +18757,23 @@
       <c r="E445" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F445" s="3"/>
+      <c r="G445" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="H445" s="3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I445" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>446</v>
+        <v>548</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>34</v>
@@ -18645,16 +18781,17 @@
       <c r="E446" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H446" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I446" s="3" t="s">
-        <v>1272</v>
+      <c r="F446" s="3"/>
+      <c r="G446" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>1436</v>
@@ -18668,16 +18805,19 @@
       <c r="E447" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F447" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="H447" s="3" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="I447" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>1436</v>
@@ -18691,16 +18831,16 @@
       <c r="E448" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G448" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="H448" s="3" t="s">
-        <v>450</v>
+        <v>1260</v>
+      </c>
+      <c r="I448" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>1436</v>
@@ -18715,73 +18855,76 @@
         <v>10</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>452</v>
+        <v>1267</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>453</v>
+        <v>1262</v>
+      </c>
+      <c r="I449" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>264</v>
+        <v>439</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F450" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G450" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H450" s="4" t="s">
-        <v>376</v>
+      <c r="F450" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I450" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>56</v>
+        <v>439</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F451" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G451" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I451" s="3" t="s">
-        <v>53</v>
+      <c r="G451" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I451" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>799</v>
+        <v>445</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>798</v>
+        <v>439</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>34</v>
@@ -18789,26 +18932,22 @@
       <c r="E452" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F452" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="G452" s="4"/>
       <c r="H452" s="3" t="s">
-        <v>1314</v>
+        <v>1268</v>
       </c>
       <c r="I452" t="s">
-        <v>800</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>800</v>
+        <v>446</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>798</v>
+        <v>439</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>34</v>
@@ -18816,24 +18955,22 @@
       <c r="E453" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F453" s="4"/>
-      <c r="G453" s="4"/>
-      <c r="H453" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="I453" t="s">
-        <v>1315</v>
+      <c r="H453" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>801</v>
+        <v>447</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>798</v>
+        <v>439</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>34</v>
@@ -18841,24 +18978,22 @@
       <c r="E454" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F454" s="4"/>
-      <c r="G454" s="4"/>
       <c r="H454" s="3" t="s">
-        <v>1316</v>
+        <v>1273</v>
       </c>
       <c r="I454" t="s">
-        <v>805</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="455" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>802</v>
+        <v>448</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>798</v>
+        <v>439</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>34</v>
@@ -18866,24 +19001,22 @@
       <c r="E455" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F455" s="4"/>
-      <c r="G455" s="4"/>
+      <c r="G455" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="H455" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I455" t="s">
-        <v>1318</v>
+        <v>450</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>803</v>
+        <v>451</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>798</v>
+        <v>439</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>34</v>
@@ -18891,102 +19024,101 @@
       <c r="E456" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F456" s="4"/>
-      <c r="G456" s="4"/>
+      <c r="G456" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="H456" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I456" t="s">
-        <v>1319</v>
+        <v>453</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>804</v>
+        <v>374</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>798</v>
+        <v>264</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F457" s="4"/>
+      <c r="F457" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="G457" s="4" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H457" s="3" t="s">
-        <v>807</v>
+        <v>375</v>
+      </c>
+      <c r="H457" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>805</v>
+        <v>377</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>798</v>
+        <v>56</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E458" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F458" s="4"/>
-      <c r="G458" s="4"/>
-      <c r="H458" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I458" t="s">
-        <v>1321</v>
+      <c r="F458" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G458" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>378</v>
+        <v>799</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>96</v>
+        <v>798</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F459" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G459" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H459" s="4" t="s">
-        <v>1322</v>
+        <v>806</v>
+      </c>
+      <c r="G459" s="4"/>
+      <c r="H459" s="3" t="s">
+        <v>1314</v>
       </c>
       <c r="I459" t="s">
-        <v>1323</v>
+        <v>800</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>381</v>
+        <v>800</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>96</v>
+        <v>798</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>34</v>
@@ -18994,300 +19126,305 @@
       <c r="E460" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F460" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G460" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H460" s="4" t="s">
-        <v>1324</v>
+      <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
+      <c r="H460" s="3" t="s">
+        <v>799</v>
       </c>
       <c r="I460" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>383</v>
+        <v>801</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>96</v>
+        <v>798</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F461" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G461" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H461" s="4" t="s">
-        <v>384</v>
+      <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
+      <c r="H461" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I461" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>1845</v>
+        <v>802</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>1849</v>
+        <v>798</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E462" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F462" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G462" s="3"/>
-      <c r="H462" s="16"/>
-      <c r="I462" s="16" t="s">
-        <v>1846</v>
+      <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
+      <c r="H462" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I462" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="463" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1846</v>
+        <v>803</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>1849</v>
+        <v>798</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E463" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G463" s="3"/>
-      <c r="H463" s="16" t="s">
-        <v>1845</v>
-      </c>
-      <c r="I463" s="16" t="s">
-        <v>1867</v>
+      <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
+      <c r="H463" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I463" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="464" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1847</v>
+        <v>804</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>1849</v>
+        <v>798</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E464" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G464" s="3"/>
-      <c r="H464" s="16" t="s">
-        <v>1868</v>
-      </c>
-      <c r="I464" s="16" t="s">
-        <v>1869</v>
+      <c r="F464" s="4"/>
+      <c r="G464" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>1848</v>
+        <v>805</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>1849</v>
+        <v>798</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G465" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="H465" s="16" t="s">
-        <v>1870</v>
-      </c>
-      <c r="I465" s="16" t="s">
-        <v>1809</v>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
+      <c r="H465" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I465" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="466" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>1850</v>
+        <v>378</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>1849</v>
+        <v>96</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E466" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F466" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G466" s="3"/>
-      <c r="H466" s="16"/>
-      <c r="I466" s="16" t="s">
-        <v>1871</v>
+      <c r="F466" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G466" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H466" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="467" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1851</v>
+        <v>381</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>1849</v>
+        <v>96</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E467" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G467" s="3"/>
-      <c r="H467" s="16" t="s">
-        <v>1872</v>
-      </c>
-      <c r="I467" s="16" t="s">
-        <v>1873</v>
+      <c r="F467" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G467" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H467" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="468" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1852</v>
+        <v>383</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>1849</v>
+        <v>96</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E468" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G468" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="H468" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="I468" s="16" t="s">
-        <v>1875</v>
+      <c r="F468" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G468" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H468" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="469" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F469" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G469" s="3"/>
-      <c r="H469" s="16" t="s">
-        <v>1863</v>
-      </c>
+      <c r="H469" s="16"/>
       <c r="I469" s="16" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="3"/>
       <c r="H470" s="16" t="s">
-        <v>1877</v>
+        <v>1845</v>
       </c>
       <c r="I470" s="16" t="s">
-        <v>1878</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="3"/>
       <c r="H471" s="16" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="I471" s="16" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="472" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D472" s="3" t="s">
         <v>538</v>
@@ -19295,201 +19432,195 @@
       <c r="E472" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F472" s="3" t="s">
-        <v>169</v>
+      <c r="G472" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H472" s="16" t="s">
+        <v>1870</v>
       </c>
       <c r="I472" s="16" t="s">
-        <v>1881</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="473" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E473" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F473" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G473" s="3"/>
-      <c r="H473" s="16" t="s">
-        <v>1864</v>
-      </c>
+      <c r="H473" s="16"/>
       <c r="I473" s="16" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E474" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="3"/>
       <c r="H474" s="16" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
       <c r="I474" s="16" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G475" s="3"/>
+      <c r="G475" s="3" t="s">
+        <v>606</v>
+      </c>
       <c r="H475" s="16" t="s">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="I475" s="16" t="s">
-        <v>1866</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>385</v>
+        <v>1853</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>81</v>
+        <v>1860</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E476" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F476" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G476" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H476" s="4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I476" t="s">
-        <v>1256</v>
+      <c r="G476" s="3"/>
+      <c r="H476" s="16" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I476" s="16" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>386</v>
+        <v>1854</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>81</v>
+        <v>1860</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E477" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F477" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G477" s="4" t="s">
-        <v>1257</v>
-      </c>
-      <c r="H477" s="4" t="s">
-        <v>387</v>
+      <c r="G477" s="3"/>
+      <c r="H477" s="16" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I477" s="16" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="16" t="s">
-        <v>1419</v>
+      <c r="A478" s="3" t="s">
+        <v>1855</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C478" s="16" t="s">
-        <v>1421</v>
+      <c r="C478" s="3" t="s">
+        <v>1860</v>
       </c>
       <c r="D478" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" s="3"/>
+      <c r="H478" s="16" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I478" s="16" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E478" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F478" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H478" s="16" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I478" s="16" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="16" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C479" s="16" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E479" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G479" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H479" s="16" t="s">
-        <v>1419</v>
+      <c r="F479" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="I479" s="16" t="s">
-        <v>1427</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>867</v>
+        <v>1857</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>868</v>
+        <v>1860</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>34</v>
@@ -19497,137 +19628,126 @@
       <c r="E480" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F480" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G480" s="3" t="s">
-        <v>1711</v>
-      </c>
+      <c r="G480" s="3"/>
       <c r="H480" s="16" t="s">
-        <v>871</v>
-      </c>
-      <c r="I480" t="s">
-        <v>869</v>
+        <v>1864</v>
+      </c>
+      <c r="I480" s="16" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>869</v>
+        <v>1858</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>868</v>
+        <v>1860</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E481" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F481" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G481" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G481" s="3"/>
       <c r="H481" s="16" t="s">
-        <v>867</v>
-      </c>
-      <c r="I481" t="s">
-        <v>1326</v>
+        <v>1883</v>
+      </c>
+      <c r="I481" s="16" t="s">
+        <v>1884</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>870</v>
+        <v>1859</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C482" s="16" t="s">
-        <v>883</v>
+      <c r="C482" s="3" t="s">
+        <v>1860</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E482" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F482" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G482" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G482" s="3"/>
       <c r="H482" s="16" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I482" t="s">
-        <v>1676</v>
+        <v>1865</v>
+      </c>
+      <c r="I482" s="16" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>824</v>
+        <v>385</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>1337</v>
+        <v>81</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E483" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F483" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G483" s="3"/>
-      <c r="H483" s="3" t="s">
-        <v>1334</v>
+      <c r="F483" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G483" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H483" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="I483" t="s">
-        <v>1335</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>825</v>
+        <v>386</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1338</v>
+        <v>81</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="E484" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="H484" s="3" t="s">
-        <v>828</v>
+      <c r="F484" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G484" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H484" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3" t="s">
-        <v>826</v>
+      <c r="A485" s="16" t="s">
+        <v>1419</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C485" s="3" t="s">
-        <v>1338</v>
+      <c r="C485" s="16" t="s">
+        <v>1421</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>538</v>
@@ -19635,23 +19755,25 @@
       <c r="E485" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="H485" s="3" t="s">
-        <v>829</v>
+      <c r="F485" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H485" s="16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I485" s="16" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3" t="s">
-        <v>1019</v>
+      <c r="A486" s="16" t="s">
+        <v>1420</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>34</v>
@@ -19659,57 +19781,57 @@
       <c r="E486" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F486" s="16" t="s">
-        <v>194</v>
-      </c>
       <c r="G486" s="3" t="s">
-        <v>1711</v>
+        <v>16</v>
       </c>
       <c r="H486" s="16" t="s">
-        <v>1034</v>
+        <v>1419</v>
+      </c>
+      <c r="I486" s="16" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1617</v>
+        <v>867</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C487" s="16" t="s">
-        <v>1605</v>
+      <c r="C487" s="3" t="s">
+        <v>868</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E487" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F487" s="16" t="s">
-        <v>75</v>
+      <c r="F487" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>1711</v>
       </c>
       <c r="H487" s="16" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I487" s="16" t="s">
-        <v>1620</v>
+        <v>871</v>
+      </c>
+      <c r="I487" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1618</v>
+        <v>869</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C488" s="16" t="s">
-        <v>1604</v>
+      <c r="C488" s="3" t="s">
+        <v>868</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E488" s="3" t="s">
         <v>10</v>
@@ -19717,133 +19839,129 @@
       <c r="F488" s="3" t="s">
         <v>1711</v>
       </c>
-      <c r="G488" s="3"/>
+      <c r="G488" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H488" s="16" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I488" s="16" t="s">
-        <v>1622</v>
+        <v>867</v>
+      </c>
+      <c r="I488" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1607</v>
+        <v>870</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>1604</v>
+        <v>883</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E489" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F489" s="16"/>
+      <c r="F489" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G489" s="3" t="s">
-        <v>1711</v>
+        <v>8</v>
       </c>
       <c r="H489" s="16" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I489" s="16" t="s">
-        <v>1601</v>
+        <v>1327</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>1733</v>
+        <v>824</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C490" s="16" t="s">
-        <v>1604</v>
+      <c r="C490" s="3" t="s">
+        <v>1337</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E490" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F490" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G490" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="H490" s="16" t="s">
-        <v>1739</v>
-      </c>
-      <c r="I490" s="16" t="s">
-        <v>1737</v>
+      <c r="F490" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G490" s="3"/>
+      <c r="H490" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1734</v>
+        <v>825</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C491" s="16" t="s">
-        <v>1604</v>
+      <c r="C491" s="3" t="s">
+        <v>1338</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E491" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F491" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G491" s="3"/>
-      <c r="H491" s="16" t="s">
-        <v>1740</v>
-      </c>
-      <c r="I491" s="16" t="s">
-        <v>1741</v>
+      <c r="F491" s="3"/>
+      <c r="G491" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1735</v>
+        <v>826</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C492" s="16" t="s">
-        <v>1604</v>
+      <c r="C492" s="3" t="s">
+        <v>1338</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E492" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F492" s="16"/>
+      <c r="F492" s="3"/>
       <c r="G492" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H492" s="16" t="s">
-        <v>1742</v>
-      </c>
-      <c r="I492" s="16" t="s">
-        <v>1743</v>
+        <v>827</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1736</v>
+        <v>1019</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>1604</v>
+        <v>1434</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>34</v>
@@ -19851,52 +19969,54 @@
       <c r="E493" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F493" s="3" t="s">
+      <c r="F493" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G493" s="3" t="s">
         <v>1711</v>
       </c>
-      <c r="G493" s="3"/>
       <c r="H493" s="16" t="s">
-        <v>1738</v>
-      </c>
-      <c r="I493" s="16" t="s">
-        <v>1744</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1709</v>
+        <v>1617</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C494" s="16" t="s">
-        <v>273</v>
+        <v>1605</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="E494" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F494" s="16" t="s">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>891</v>
+        <v>1711</v>
       </c>
       <c r="H494" s="16" t="s">
-        <v>1710</v>
+        <v>1619</v>
+      </c>
+      <c r="I494" s="16" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>388</v>
+        <v>1618</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C495" s="3" t="s">
-        <v>287</v>
+      <c r="C495" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>34</v>
@@ -19905,24 +20025,25 @@
         <v>10</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G495" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H495" s="3" t="s">
-        <v>389</v>
+        <v>1711</v>
+      </c>
+      <c r="G495" s="3"/>
+      <c r="H495" s="16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I495" s="16" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>791</v>
+        <v>1607</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C496" s="3" t="s">
-        <v>792</v>
+      <c r="C496" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>34</v>
@@ -19930,28 +20051,26 @@
       <c r="E496" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F496" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F496" s="16"/>
       <c r="G496" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H496" s="3" t="s">
-        <v>1986</v>
-      </c>
-      <c r="I496" t="s">
-        <v>1330</v>
+        <v>1711</v>
+      </c>
+      <c r="H496" s="16" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I496" s="16" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="497" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>860</v>
+        <v>1733</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C497" s="3" t="s">
-        <v>792</v>
+      <c r="C497" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>34</v>
@@ -19959,28 +20078,28 @@
       <c r="E497" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F497" s="3" t="s">
-        <v>11</v>
+      <c r="F497" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>44</v>
+        <v>1711</v>
       </c>
       <c r="H497" s="16" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I497" t="s">
-        <v>1331</v>
+        <v>1739</v>
+      </c>
+      <c r="I497" s="16" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="498" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>861</v>
+        <v>1734</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C498" s="3" t="s">
-        <v>792</v>
+      <c r="C498" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>34</v>
@@ -19989,104 +20108,105 @@
         <v>10</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G498" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>1711</v>
+      </c>
+      <c r="G498" s="3"/>
       <c r="H498" s="16" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I498" t="s">
-        <v>1333</v>
+        <v>1740</v>
+      </c>
+      <c r="I498" s="16" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="499" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>2012</v>
+        <v>1735</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C499" s="3" t="s">
-        <v>792</v>
+      <c r="C499" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F499" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G499" s="3"/>
-      <c r="H499" s="16"/>
+      <c r="F499" s="16"/>
+      <c r="G499" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H499" s="16" t="s">
+        <v>1742</v>
+      </c>
       <c r="I499" s="16" t="s">
-        <v>2020</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>2013</v>
+        <v>1736</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C500" s="3" t="s">
-        <v>792</v>
+      <c r="C500" s="16" t="s">
+        <v>1604</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E500" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F500" s="3"/>
-      <c r="G500" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F500" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G500" s="3"/>
       <c r="H500" s="16" t="s">
-        <v>2019</v>
+        <v>1738</v>
       </c>
       <c r="I500" s="16" t="s">
-        <v>2021</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="501" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>2014</v>
+        <v>1709</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="C501" s="3" t="s">
-        <v>2018</v>
+      <c r="C501" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="E501" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F501" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G501" s="3"/>
-      <c r="H501" s="16"/>
-      <c r="I501" s="16" t="s">
-        <v>2022</v>
+      <c r="F501" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H501" s="16" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>2015</v>
+        <v>388</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>2018</v>
+        <v>287</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>34</v>
@@ -20094,350 +20214,346 @@
       <c r="E502" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F502" s="3"/>
-      <c r="G502" s="3"/>
-      <c r="H502" s="16" t="s">
-        <v>2023</v>
-      </c>
-      <c r="I502" s="16" t="s">
-        <v>2024</v>
+      <c r="F502" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="503" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>2016</v>
+        <v>791</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>2018</v>
+        <v>792</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F503" s="3"/>
+      <c r="F503" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G503" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="H503" s="16" t="s">
-        <v>2025</v>
-      </c>
-      <c r="I503" s="16" t="s">
-        <v>1760</v>
+        <v>46</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="I503" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>2017</v>
+        <v>860</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>2018</v>
+        <v>792</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E504" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F504" s="3"/>
-      <c r="G504" s="3"/>
+      <c r="F504" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H504" s="16" t="s">
-        <v>2026</v>
-      </c>
-      <c r="I504" s="16" t="s">
-        <v>2027</v>
+        <v>1332</v>
+      </c>
+      <c r="I504" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="505" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>2045</v>
+        <v>861</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>2039</v>
+        <v>792</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="E505" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G505" s="3"/>
-      <c r="H505" s="3" t="s">
-        <v>2044</v>
-      </c>
-      <c r="I505" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H505" s="16" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I505" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="506" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>390</v>
+        <v>2012</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>347</v>
+        <v>792</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>34</v>
+        <v>538</v>
       </c>
       <c r="E506" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G506" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H506" s="4" t="s">
-        <v>392</v>
+        <v>169</v>
+      </c>
+      <c r="G506" s="3"/>
+      <c r="H506" s="16"/>
+      <c r="I506" s="16" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="507" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>393</v>
+        <v>2013</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>79</v>
+        <v>792</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>25</v>
+        <v>538</v>
       </c>
       <c r="E507" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F507" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G507" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H507" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I507" t="s">
-        <v>395</v>
+      <c r="F507" s="3"/>
+      <c r="G507" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H507" s="16" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I507" s="16" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="508" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>395</v>
+        <v>2014</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>79</v>
+        <v>2018</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="E508" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F508" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G508" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H508" s="4" t="s">
-        <v>393</v>
+        <v>169</v>
+      </c>
+      <c r="G508" s="3"/>
+      <c r="H508" s="16"/>
+      <c r="I508" s="16" t="s">
+        <v>2022</v>
       </c>
     </row>
     <row r="509" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>397</v>
+        <v>2015</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>337</v>
+        <v>2018</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E509" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F509" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="G509" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H509" s="4" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I509" t="s">
-        <v>1253</v>
+      <c r="F509" s="3"/>
+      <c r="G509" s="3"/>
+      <c r="H509" s="16" t="s">
+        <v>2023</v>
+      </c>
+      <c r="I509" s="16" t="s">
+        <v>2024</v>
       </c>
     </row>
     <row r="510" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>399</v>
+        <v>2016</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>337</v>
+        <v>2018</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="E510" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F510" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G510" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H510" s="4" t="s">
-        <v>400</v>
+      <c r="F510" s="3"/>
+      <c r="G510" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H510" s="16" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I510" s="16" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>401</v>
+        <v>2017</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>11</v>
+        <v>2018</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="E511" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F511" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G511" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="I511" s="3" t="s">
-        <v>403</v>
+      <c r="F511" s="3"/>
+      <c r="G511" s="3"/>
+      <c r="H511" s="16" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I511" s="16" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="512" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>403</v>
+        <v>2045</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>11</v>
+        <v>2039</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="E512" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="G512" s="3" t="s">
-        <v>792</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G512" s="3"/>
       <c r="H512" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="I512" s="3" t="s">
-        <v>404</v>
-      </c>
+        <v>2044</v>
+      </c>
+      <c r="I512" s="16"/>
     </row>
     <row r="513" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E513" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F513" s="3" t="s">
-        <v>792</v>
+      <c r="F513" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G513" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="H513" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I513" s="3" t="s">
-        <v>2010</v>
+        <v>391</v>
+      </c>
+      <c r="H513" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E514" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F514" s="4" t="s">
-        <v>402</v>
+        <v>26</v>
       </c>
       <c r="G514" s="4" t="s">
-        <v>1711</v>
+        <v>394</v>
       </c>
       <c r="H514" s="4" t="s">
-        <v>2011</v>
+        <v>1254</v>
       </c>
       <c r="I514" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="515" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>9</v>
@@ -20446,27 +20562,24 @@
         <v>10</v>
       </c>
       <c r="F515" s="4" t="s">
-        <v>1711</v>
+        <v>394</v>
       </c>
       <c r="G515" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H515" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I515" t="s">
-        <v>2002</v>
+        <v>396</v>
+      </c>
+      <c r="H515" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>9</v>
@@ -20475,27 +20588,27 @@
         <v>10</v>
       </c>
       <c r="F516" s="4" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="G516" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H516" t="s">
-        <v>2007</v>
-      </c>
-      <c r="I516" s="3" t="s">
-        <v>1998</v>
+        <v>398</v>
+      </c>
+      <c r="H516" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>9</v>
@@ -20504,21 +20617,18 @@
         <v>10</v>
       </c>
       <c r="F517" s="4" t="s">
-        <v>12</v>
+        <v>398</v>
       </c>
       <c r="G517" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="H517" s="3" t="s">
-        <v>2003</v>
-      </c>
-      <c r="I517" s="4" t="s">
-        <v>1995</v>
+        <v>394</v>
+      </c>
+      <c r="H517" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="518" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>1436</v>
@@ -20533,21 +20643,18 @@
         <v>10</v>
       </c>
       <c r="F518" s="4" t="s">
-        <v>580</v>
+        <v>169</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="H518" s="4" t="s">
-        <v>1999</v>
-      </c>
-      <c r="I518" s="17" t="s">
-        <v>1993</v>
+      <c r="I518" s="3" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="519" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>1436</v>
@@ -20564,19 +20671,19 @@
       <c r="F519" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="G519" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H519" s="17" t="s">
-        <v>1996</v>
-      </c>
-      <c r="I519" s="17" t="s">
-        <v>1991</v>
+      <c r="G519" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I519" s="3" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>1436</v>
@@ -20590,22 +20697,22 @@
       <c r="E520" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F520" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G520" s="3" t="s">
+      <c r="F520" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="H520" s="17" t="s">
-        <v>1994</v>
-      </c>
-      <c r="I520" t="s">
-        <v>1989</v>
+      <c r="G520" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I520" s="3" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="521" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>1436</v>
@@ -20619,22 +20726,22 @@
       <c r="E521" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F521" s="3" t="s">
-        <v>792</v>
+      <c r="F521" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="G521" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H521" s="17" t="s">
-        <v>1992</v>
+        <v>1711</v>
+      </c>
+      <c r="H521" s="4" t="s">
+        <v>2011</v>
       </c>
       <c r="I521" t="s">
-        <v>1988</v>
+        <v>406</v>
       </c>
     </row>
     <row r="522" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>1436</v>
@@ -20649,21 +20756,21 @@
         <v>10</v>
       </c>
       <c r="F522" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G522" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="H522" s="4" t="s">
-        <v>1990</v>
+        <v>1711</v>
+      </c>
+      <c r="G522" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="I522" t="s">
-        <v>582</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="523" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>582</v>
+        <v>407</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>1436</v>
@@ -20677,22 +20784,22 @@
       <c r="E523" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F523" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="G523" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H523" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="I523" t="s">
-        <v>1984</v>
+      <c r="F523" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G523" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H523" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I523" s="3" t="s">
+        <v>1998</v>
       </c>
     </row>
     <row r="524" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>581</v>
+        <v>408</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>1436</v>
@@ -20706,22 +20813,22 @@
       <c r="E524" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F524" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="G524" s="3" t="s">
-        <v>1650</v>
+      <c r="F524" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G524" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>1987</v>
-      </c>
-      <c r="I524" s="3" t="s">
-        <v>1982</v>
+        <v>2003</v>
+      </c>
+      <c r="I524" s="4" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="525" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>793</v>
+        <v>409</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>1436</v>
@@ -20735,22 +20842,22 @@
       <c r="E525" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F525" s="3" t="s">
-        <v>1650</v>
-      </c>
-      <c r="G525" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H525" s="3" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I525" t="s">
-        <v>1980</v>
+      <c r="F525" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H525" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I525" s="17" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="526" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>863</v>
+        <v>410</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>1436</v>
@@ -20764,22 +20871,22 @@
       <c r="E526" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F526" s="4" t="s">
-        <v>247</v>
+      <c r="F526" s="3" t="s">
+        <v>792</v>
       </c>
       <c r="G526" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H526" s="4" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I526" t="s">
-        <v>1977</v>
+        <v>8</v>
+      </c>
+      <c r="H526" s="17" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I526" s="17" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>864</v>
+        <v>411</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>1436</v>
@@ -20794,21 +20901,21 @@
         <v>10</v>
       </c>
       <c r="F527" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G527" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H527" s="4" t="s">
-        <v>1981</v>
+        <v>8</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H527" s="17" t="s">
+        <v>1994</v>
       </c>
       <c r="I527" t="s">
-        <v>1974</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="528" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1648</v>
+        <v>413</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>1436</v>
@@ -20822,22 +20929,22 @@
       <c r="E528" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F528" s="4" t="s">
-        <v>332</v>
+      <c r="F528" s="3" t="s">
+        <v>792</v>
       </c>
       <c r="G528" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H528" s="4" t="s">
-        <v>1978</v>
+        <v>44</v>
+      </c>
+      <c r="H528" s="17" t="s">
+        <v>1992</v>
       </c>
       <c r="I528" t="s">
-        <v>1971</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1972</v>
+        <v>414</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>1436</v>
@@ -20852,21 +20959,21 @@
         <v>10</v>
       </c>
       <c r="F529" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G529" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>583</v>
       </c>
       <c r="H529" s="4" t="s">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="I529" t="s">
-        <v>1968</v>
+        <v>582</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1969</v>
+        <v>582</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>1436</v>
@@ -20875,33 +20982,33 @@
         <v>11</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E530" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F530" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G530" s="4" t="s">
-        <v>39</v>
+      <c r="F530" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>792</v>
       </c>
       <c r="H530" s="4" t="s">
-        <v>1973</v>
+        <v>414</v>
       </c>
       <c r="I530" t="s">
-        <v>1342</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>9</v>
@@ -20909,25 +21016,28 @@
       <c r="E531" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F531" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G531" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H531" s="4" t="s">
-        <v>417</v>
+      <c r="F531" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I531" s="3" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="532" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>418</v>
+        <v>793</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D532" s="3" t="s">
         <v>9</v>
@@ -20935,28 +21045,28 @@
       <c r="E532" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F532" s="4" t="s">
-        <v>54</v>
+      <c r="F532" s="3" t="s">
+        <v>1650</v>
       </c>
       <c r="G532" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H532" s="4" t="s">
-        <v>1343</v>
+        <v>247</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>1985</v>
       </c>
       <c r="I532" t="s">
-        <v>1344</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="533" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
-        <v>419</v>
+        <v>863</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>9</v>
@@ -20965,24 +21075,27 @@
         <v>10</v>
       </c>
       <c r="F533" s="4" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="G533" s="4" t="s">
-        <v>1346</v>
+        <v>46</v>
       </c>
       <c r="H533" s="4" t="s">
-        <v>1345</v>
+        <v>1656</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>420</v>
+        <v>864</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>9</v>
@@ -20991,24 +21104,27 @@
         <v>10</v>
       </c>
       <c r="F534" s="4" t="s">
-        <v>337</v>
+        <v>46</v>
       </c>
       <c r="G534" s="4" t="s">
-        <v>421</v>
+        <v>332</v>
       </c>
       <c r="H534" s="4" t="s">
-        <v>422</v>
+        <v>1981</v>
+      </c>
+      <c r="I534" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>2088</v>
+        <v>1648</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>2089</v>
+        <v>11</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>9</v>
@@ -21017,22 +21133,27 @@
         <v>10</v>
       </c>
       <c r="F535" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G535" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H535" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="H535" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="536" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>423</v>
+        <v>1972</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>9</v>
@@ -21040,54 +21161,57 @@
       <c r="E536" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F536" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G536" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I536" s="3" t="s">
-        <v>1348</v>
+      <c r="F536" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G536" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H536" s="4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I536" t="s">
+        <v>1968</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>424</v>
+        <v>1969</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E537" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F537" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H537" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I537" s="3" t="s">
-        <v>1349</v>
+      <c r="F537" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G537" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H537" s="4" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I537" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>9</v>
@@ -21095,28 +21219,25 @@
       <c r="E538" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F538" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G538" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H538" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I538" t="s">
-        <v>1352</v>
+      <c r="F538" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G538" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H538" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="539" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D539" s="3" t="s">
         <v>9</v>
@@ -21124,28 +21245,28 @@
       <c r="E539" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F539" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G539" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H539" s="3" t="s">
-        <v>1351</v>
+      <c r="F539" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G539" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H539" s="4" t="s">
+        <v>1343</v>
       </c>
       <c r="I539" t="s">
-        <v>428</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>9</v>
@@ -21153,25 +21274,25 @@
       <c r="E540" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F540" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G540" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H540" s="3" t="s">
-        <v>426</v>
+      <c r="F540" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G540" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H540" s="4" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>9</v>
@@ -21179,28 +21300,25 @@
       <c r="E541" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F541" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G541" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H541" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I541" t="s">
-        <v>1354</v>
+      <c r="F541" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G541" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H541" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="542" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
-        <v>431</v>
+        <v>2087</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>289</v>
+        <v>2088</v>
       </c>
       <c r="D542" s="3" t="s">
         <v>9</v>
@@ -21208,215 +21326,237 @@
       <c r="E542" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F542" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G542" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="H542" s="3" t="s">
-        <v>434</v>
-      </c>
+      <c r="F542" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G542" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="H542" s="4"/>
     </row>
     <row r="543" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E543" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G543" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H543" s="4" t="s">
-        <v>437</v>
+        <v>169</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I543" s="3" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
-        <v>569</v>
+        <v>424</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E544" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>1777</v>
+        <v>199</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>1976</v>
+        <v>1347</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1771</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="545" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>1771</v>
+        <v>425</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E545" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F545" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="H545" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="I545" s="3" t="s">
-        <v>1772</v>
+        <v>1350</v>
+      </c>
+      <c r="I545" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="546" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>1772</v>
+        <v>426</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E546" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F546" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="H546" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I546" s="3" t="s">
-        <v>1773</v>
+        <v>1351</v>
+      </c>
+      <c r="I546" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="547" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>1773</v>
+        <v>428</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>333</v>
+        <v>202</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E547" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F547" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="H547" s="3" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I547" s="3" t="s">
-        <v>1774</v>
+        <v>426</v>
       </c>
     </row>
     <row r="548" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>1774</v>
+        <v>430</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E548" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F548" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="H548" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="I548" s="3" t="s">
-        <v>1775</v>
+        <v>1353</v>
+      </c>
+      <c r="I548" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="549" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1775</v>
+        <v>431</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E549" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F549" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="G549" s="3" t="s">
-        <v>1778</v>
+        <v>433</v>
       </c>
       <c r="H549" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I549" s="3" t="s">
-        <v>1776</v>
+        <v>434</v>
       </c>
     </row>
     <row r="550" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>1776</v>
+        <v>435</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E550" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="G550" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H550" s="3" t="s">
-        <v>1775</v>
+        <v>98</v>
+      </c>
+      <c r="G550" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H550" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="551" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>1792</v>
+        <v>569</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>1436</v>
@@ -21431,18 +21571,18 @@
         <v>10</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>332</v>
+        <v>1777</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1798</v>
+        <v>1976</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>1793</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="552" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>1793</v>
+        <v>1771</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>1436</v>
@@ -21457,15 +21597,15 @@
         <v>10</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1792</v>
+        <v>569</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>1799</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="553" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>1436</v>
@@ -21480,15 +21620,15 @@
         <v>10</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>1800</v>
+        <v>1771</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1795</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="554" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>1436</v>
@@ -21503,15 +21643,15 @@
         <v>10</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1794</v>
+        <v>1772</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="555" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>1436</v>
@@ -21526,12 +21666,15 @@
         <v>10</v>
       </c>
       <c r="H555" s="3" t="s">
-        <v>1795</v>
+        <v>1773</v>
+      </c>
+      <c r="I555" s="3" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="556" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>1797</v>
+        <v>1775</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>1436</v>
@@ -21545,16 +21688,19 @@
       <c r="E556" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G556" s="3" t="s">
+        <v>1778</v>
+      </c>
       <c r="H556" s="3" t="s">
-        <v>1252</v>
+        <v>1774</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>1801</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="557" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>1436</v>
@@ -21569,122 +21715,286 @@
         <v>10</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>332</v>
+        <v>1778</v>
       </c>
       <c r="G557" s="3" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="H557" s="3" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="558" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>1956</v>
+        <v>1792</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1960</v>
+        <v>333</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F558" s="3" t="s">
-        <v>1965</v>
-      </c>
-      <c r="G558" s="3" t="s">
-        <v>1961</v>
+        <v>332</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>1798</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>1957</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="559" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>1957</v>
+        <v>1793</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1960</v>
+        <v>333</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F559" s="3" t="s">
-        <v>1961</v>
-      </c>
-      <c r="G559" s="3" t="s">
-        <v>1962</v>
-      </c>
       <c r="H559" s="3" t="s">
-        <v>1956</v>
+        <v>1792</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>1958</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="560" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I560" s="3" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I561" s="3" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I566" s="3" t="s">
         <v>1958</v>
       </c>
-      <c r="B560" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C560" s="3" t="s">
+    </row>
+    <row r="567" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C567" s="3" t="s">
         <v>1960</v>
       </c>
-      <c r="D560" s="3" t="s">
+      <c r="D567" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E560" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F560" s="3" t="s">
+      <c r="E567" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F567" s="3" t="s">
         <v>1962</v>
       </c>
-      <c r="G560" s="3" t="s">
+      <c r="G567" s="3" t="s">
         <v>1963</v>
       </c>
-      <c r="H560" s="3" t="s">
+      <c r="H567" s="3" t="s">
         <v>1957</v>
       </c>
-      <c r="I560" s="3" t="s">
+      <c r="I567" s="3" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="3" t="s">
+    <row r="568" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
         <v>1959</v>
       </c>
-      <c r="B561" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C561" s="3" t="s">
+      <c r="B568" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C568" s="3" t="s">
         <v>1960</v>
       </c>
-      <c r="D561" s="3" t="s">
+      <c r="D568" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E561" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F561" s="3" t="s">
+      <c r="E568" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F568" s="3" t="s">
         <v>1963</v>
       </c>
-      <c r="G561" s="3" t="s">
+      <c r="G568" s="3" t="s">
         <v>1964</v>
       </c>
-      <c r="H561" s="3" t="s">
+      <c r="H568" s="3" t="s">
         <v>1958</v>
       </c>
     </row>
@@ -47948,11 +48258,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y266"/>
+  <dimension ref="A1:Y285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A267" sqref="A267"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -50843,13 +51153,13 @@
     </row>
     <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>2057</v>
+        <v>2095</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>2054</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50860,51 +51170,260 @@
         <v>2055</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C266" s="19" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C267" s="19" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C275" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>2095</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5879" uniqueCount="2261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5882" uniqueCount="2264">
   <si>
     <t>trackID</t>
   </si>
@@ -6804,6 +6804,15 @@
   </si>
   <si>
     <t>IMG_2539</t>
+  </si>
+  <si>
+    <t>Deer trail on old road grade</t>
+  </si>
+  <si>
+    <t>Bushwacked straight (downhill) to FR401</t>
+  </si>
+  <si>
+    <t>Bushwacked to the right (uphill) to FR399 … this is better than TR400A05</t>
   </si>
 </sst>
 </file>
@@ -7154,11 +7163,11 @@
   </sheetPr>
   <dimension ref="A1:X594"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B511" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A533" sqref="A533"/>
+      <selection pane="bottomRight" activeCell="J535" sqref="J535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21315,7 +21324,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>1958</v>
       </c>
@@ -21342,7 +21351,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>1959</v>
       </c>
@@ -21367,7 +21376,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>2250</v>
       </c>
@@ -21394,7 +21403,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>2252</v>
       </c>
@@ -21419,7 +21428,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>2254</v>
       </c>
@@ -21443,8 +21452,11 @@
       <c r="I533" s="16" t="s">
         <v>2255</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J533" s="16" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>2256</v>
       </c>
@@ -21468,8 +21480,11 @@
       <c r="I534" s="16" t="s">
         <v>2240</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J534" s="16" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>2248</v>
       </c>
@@ -21493,8 +21508,11 @@
       <c r="I535" s="16" t="s">
         <v>2230</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J535" s="16" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>390</v>
       </c>
@@ -21520,7 +21538,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>393</v>
       </c>
@@ -21549,7 +21567,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>395</v>
       </c>
@@ -21575,7 +21593,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>397</v>
       </c>
@@ -21604,7 +21622,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>399</v>
       </c>
@@ -21630,7 +21648,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>401</v>
       </c>
@@ -21656,7 +21674,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>403</v>
       </c>
@@ -21685,7 +21703,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>404</v>
       </c>
@@ -21714,7 +21732,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>405</v>
       </c>
@@ -49343,7 +49361,7 @@
   </sheetPr>
   <dimension ref="A1:Y329"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C328" sqref="C328"/>
     </sheetView>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6931" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6967" uniqueCount="2660">
   <si>
     <t>trackID</t>
   </si>
@@ -7962,6 +7962,45 @@
   </si>
   <si>
     <t>FR1630204, FR1630205</t>
+  </si>
+  <si>
+    <t>IMG_3668</t>
+  </si>
+  <si>
+    <t>IMG_3669</t>
+  </si>
+  <si>
+    <t>IMG_3670</t>
+  </si>
+  <si>
+    <t>IMG_3671</t>
+  </si>
+  <si>
+    <t>IMG_3672</t>
+  </si>
+  <si>
+    <t>IMG_3673</t>
+  </si>
+  <si>
+    <t>IMG_3674</t>
+  </si>
+  <si>
+    <t>IMG_3683</t>
+  </si>
+  <si>
+    <t>IMG_3684</t>
+  </si>
+  <si>
+    <t>IMG_3685</t>
+  </si>
+  <si>
+    <t>IMG_3697</t>
+  </si>
+  <si>
+    <t>IMG_3698</t>
+  </si>
+  <si>
+    <t>Old exclosure at end of trail</t>
   </si>
 </sst>
 </file>
@@ -8312,8 +8351,8 @@
   </sheetPr>
   <dimension ref="A1:X729"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
@@ -53959,11 +53998,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y347"/>
+  <dimension ref="A1:Y359"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C340" sqref="C340:C347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -57828,6 +57867,138 @@
         <v>2195</v>
       </c>
     </row>
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="19" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C349" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C357" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C359" s="19" t="s">
+        <v>2195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8203" uniqueCount="3118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="3141">
   <si>
     <t>trackID</t>
   </si>
@@ -9375,6 +9375,75 @@
   </si>
   <si>
     <t>Wildwood Campground loop</t>
+  </si>
+  <si>
+    <t>STRL01</t>
+  </si>
+  <si>
+    <t>STRL02</t>
+  </si>
+  <si>
+    <t>STRL03</t>
+  </si>
+  <si>
+    <t>STRL04</t>
+  </si>
+  <si>
+    <t>STRL05</t>
+  </si>
+  <si>
+    <t>STRL06</t>
+  </si>
+  <si>
+    <t>Star Lake Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail of Star Lake Rd</t>
+  </si>
+  <si>
+    <t>Anodonta Lake ramp</t>
+  </si>
+  <si>
+    <t>Star Lake ramp</t>
+  </si>
+  <si>
+    <t>Nymphia Lake / Cisco Lake Rd</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>ANDT01</t>
+  </si>
+  <si>
+    <t>STRL04, ANDT01</t>
+  </si>
+  <si>
+    <t>STRL03, ANDT01</t>
+  </si>
+  <si>
+    <t>STRL05, STRL06</t>
+  </si>
+  <si>
+    <t>STRL04, STRL06</t>
+  </si>
+  <si>
+    <t>STRL04, STRL05</t>
+  </si>
+  <si>
+    <t>STRL03, STRL04</t>
+  </si>
+  <si>
+    <t>IMG_3951</t>
+  </si>
+  <si>
+    <t>IMG_3947</t>
+  </si>
+  <si>
+    <t>Star Lake</t>
+  </si>
+  <si>
+    <t>Anodonta Lake</t>
   </si>
 </sst>
 </file>
@@ -9723,13 +9792,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X860"/>
+  <dimension ref="A1:X867"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B530" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B594" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C552" sqref="C552"/>
+      <selection pane="bottomRight" activeCell="I615" sqref="I615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26104,13 +26173,13 @@
     </row>
     <row r="608" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
-        <v>361</v>
+        <v>3118</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>128</v>
+        <v>3124</v>
       </c>
       <c r="D608" s="3" t="s">
         <v>9</v>
@@ -26119,199 +26188,210 @@
         <v>10</v>
       </c>
       <c r="F608" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G608" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H608" s="4" t="s">
-        <v>363</v>
+        <v>333</v>
+      </c>
+      <c r="G608" s="4"/>
+      <c r="H608" s="4"/>
+      <c r="I608" s="3" t="s">
+        <v>3119</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
-        <v>527</v>
+        <v>3119</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>538</v>
+        <v>3124</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F609" s="3"/>
-      <c r="G609" s="3"/>
-      <c r="H609" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I609" t="s">
-        <v>1163</v>
+      <c r="F609" s="4"/>
+      <c r="G609" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="H609" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>3120</v>
       </c>
     </row>
     <row r="610" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
-        <v>528</v>
+        <v>3120</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>538</v>
+        <v>3124</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F610" s="3"/>
-      <c r="G610" s="3"/>
-      <c r="H610" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I610" t="s">
-        <v>1165</v>
+      <c r="F610" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="G610" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="H610" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>3131</v>
       </c>
     </row>
     <row r="611" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
-        <v>529</v>
+        <v>3121</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>538</v>
+        <v>3124</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F611" s="3"/>
-      <c r="G611" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H611" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I611" t="s">
-        <v>1167</v>
+      <c r="F611" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="G611" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H611" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>3133</v>
       </c>
     </row>
     <row r="612" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>530</v>
+        <v>3122</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>538</v>
+        <v>3124</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F612" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G612" s="3"/>
-      <c r="H612" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I612" t="s">
-        <v>1169</v>
-      </c>
+      <c r="F612" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G612" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="H612" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="I612" s="3"/>
     </row>
     <row r="613" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>531</v>
+        <v>3123</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>538</v>
+        <v>3127</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F613" s="3"/>
-      <c r="G613" s="3"/>
-      <c r="H613" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I613" t="s">
-        <v>1171</v>
+      <c r="F613" s="4" t="s">
+        <v>3124</v>
+      </c>
+      <c r="G613" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H613" s="4" t="s">
+        <v>3135</v>
       </c>
     </row>
     <row r="614" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>532</v>
+        <v>3130</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>538</v>
+        <v>3126</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F614" s="3"/>
-      <c r="G614" s="3"/>
-      <c r="H614" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I614" t="s">
-        <v>1173</v>
+      <c r="F614" s="4" t="s">
+        <v>3124</v>
+      </c>
+      <c r="G614" s="4" t="s">
+        <v>3124</v>
+      </c>
+      <c r="H614" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="I614" s="3" t="s">
+        <v>3121</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
-        <v>533</v>
+        <v>361</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>538</v>
+        <v>128</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F615" s="3"/>
-      <c r="G615" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H615" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I615" t="s">
-        <v>543</v>
+      <c r="F615" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G615" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H615" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="616" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>1296</v>
@@ -26326,19 +26406,17 @@
         <v>10</v>
       </c>
       <c r="F616" s="3"/>
-      <c r="G616" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="G616" s="3"/>
       <c r="H616" s="3" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="I616" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="617" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>1296</v>
@@ -26353,16 +26431,17 @@
         <v>10</v>
       </c>
       <c r="F617" s="3"/>
-      <c r="G617" s="3" t="s">
-        <v>438</v>
-      </c>
+      <c r="G617" s="3"/>
       <c r="H617" s="3" t="s">
-        <v>542</v>
+        <v>1164</v>
+      </c>
+      <c r="I617" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="618" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>1296</v>
@@ -26378,21 +26457,24 @@
       </c>
       <c r="F618" s="3"/>
       <c r="G618" s="3" t="s">
-        <v>441</v>
+        <v>1154</v>
       </c>
       <c r="H618" s="3" t="s">
-        <v>541</v>
+        <v>1166</v>
+      </c>
+      <c r="I618" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="619" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>427</v>
+        <v>530</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D619" s="3" t="s">
         <v>33</v>
@@ -26401,24 +26483,25 @@
         <v>10</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>429</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="G619" s="3"/>
       <c r="H619" s="3" t="s">
-        <v>1145</v>
+        <v>1168</v>
       </c>
       <c r="I619" t="s">
-        <v>1146</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="620" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D620" s="3" t="s">
         <v>33</v>
@@ -26426,22 +26509,24 @@
       <c r="E620" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F620" s="3"/>
+      <c r="G620" s="3"/>
       <c r="H620" s="3" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="I620" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="621" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
-        <v>431</v>
+        <v>532</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D621" s="3" t="s">
         <v>33</v>
@@ -26449,25 +26534,24 @@
       <c r="E621" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G621" s="3" t="s">
-        <v>1154</v>
-      </c>
+      <c r="F621" s="3"/>
+      <c r="G621" s="3"/>
       <c r="H621" s="3" t="s">
-        <v>1149</v>
+        <v>1172</v>
       </c>
       <c r="I621" t="s">
-        <v>1150</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D622" s="3" t="s">
         <v>33</v>
@@ -26475,25 +26559,26 @@
       <c r="E622" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F622" s="3" t="s">
-        <v>1154</v>
+      <c r="F622" s="3"/>
+      <c r="G622" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H622" s="3" t="s">
-        <v>1151</v>
+        <v>1174</v>
       </c>
       <c r="I622" t="s">
-        <v>1152</v>
+        <v>543</v>
       </c>
     </row>
     <row r="623" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>433</v>
+        <v>534</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D623" s="3" t="s">
         <v>33</v>
@@ -26501,25 +26586,26 @@
       <c r="E623" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F623" s="3"/>
       <c r="G623" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H623" s="3" t="s">
-        <v>1153</v>
+        <v>1175</v>
       </c>
       <c r="I623" t="s">
-        <v>2203</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="624" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>434</v>
+        <v>535</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D624" s="3" t="s">
         <v>33</v>
@@ -26527,22 +26613,23 @@
       <c r="E624" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F624" s="3"/>
+      <c r="G624" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="H624" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I624" t="s">
-        <v>1157</v>
+        <v>542</v>
       </c>
     </row>
     <row r="625" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>435</v>
+        <v>536</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="D625" s="3" t="s">
         <v>33</v>
@@ -26550,16 +26637,17 @@
       <c r="E625" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H625" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I625" s="3" t="s">
-        <v>1159</v>
+      <c r="F625" s="3"/>
+      <c r="G625" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="626" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>1296</v>
@@ -26573,16 +26661,19 @@
       <c r="E626" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F626" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="H626" s="3" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="I626" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="627" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>1296</v>
@@ -26596,16 +26687,16 @@
       <c r="E627" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G627" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="H627" s="3" t="s">
-        <v>439</v>
+        <v>1147</v>
+      </c>
+      <c r="I627" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="628" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>1296</v>
@@ -26620,73 +26711,76 @@
         <v>10</v>
       </c>
       <c r="G628" s="3" t="s">
-        <v>441</v>
+        <v>1154</v>
       </c>
       <c r="H628" s="3" t="s">
-        <v>442</v>
+        <v>1149</v>
+      </c>
+      <c r="I628" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="629" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>259</v>
+        <v>428</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F629" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G629" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H629" s="4" t="s">
-        <v>366</v>
+      <c r="F629" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I629" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="630" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F630" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G630" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I630" s="3" t="s">
-        <v>52</v>
+      <c r="G630" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I630" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="631" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
-        <v>756</v>
+        <v>434</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>755</v>
+        <v>428</v>
       </c>
       <c r="D631" s="3" t="s">
         <v>33</v>
@@ -26694,26 +26788,22 @@
       <c r="E631" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F631" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="G631" s="4"/>
       <c r="H631" s="3" t="s">
-        <v>2010</v>
+        <v>1155</v>
       </c>
       <c r="I631" t="s">
-        <v>757</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="632" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>757</v>
+        <v>435</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>755</v>
+        <v>428</v>
       </c>
       <c r="D632" s="3" t="s">
         <v>33</v>
@@ -26721,24 +26811,22 @@
       <c r="E632" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F632" s="4"/>
-      <c r="G632" s="4"/>
-      <c r="H632" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="I632" t="s">
-        <v>1197</v>
+      <c r="H632" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I632" s="3" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="633" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>758</v>
+        <v>436</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>755</v>
+        <v>428</v>
       </c>
       <c r="D633" s="3" t="s">
         <v>33</v>
@@ -26746,24 +26834,22 @@
       <c r="E633" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F633" s="4"/>
-      <c r="G633" s="4"/>
       <c r="H633" s="3" t="s">
-        <v>1198</v>
+        <v>1160</v>
       </c>
       <c r="I633" t="s">
-        <v>762</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="634" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>759</v>
+        <v>437</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>755</v>
+        <v>428</v>
       </c>
       <c r="D634" s="3" t="s">
         <v>33</v>
@@ -26771,24 +26857,22 @@
       <c r="E634" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F634" s="4"/>
-      <c r="G634" s="4"/>
+      <c r="G634" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="H634" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I634" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="635" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>755</v>
+        <v>428</v>
       </c>
       <c r="D635" s="3" t="s">
         <v>33</v>
@@ -26796,102 +26880,101 @@
       <c r="E635" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F635" s="4"/>
-      <c r="G635" s="4"/>
+      <c r="G635" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="H635" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I635" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="636" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>761</v>
+        <v>364</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C636" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F636" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G636" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H636" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F637" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G637" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C638" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D636" s="3" t="s">
+      <c r="D638" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E636" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F636" s="4"/>
-      <c r="G636" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H636" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="637" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="B637" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C637" s="3" t="s">
+      <c r="E638" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F638" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G638" s="4"/>
+      <c r="H638" s="3" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I638" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C639" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="D637" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E637" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F637" s="4"/>
-      <c r="G637" s="4"/>
-      <c r="H637" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I637" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="638" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B638" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C638" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D638" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F638" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G638" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H638" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I638" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="639" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C639" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D639" s="3" t="s">
         <v>33</v>
@@ -26899,300 +26982,305 @@
       <c r="E639" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F639" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G639" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H639" s="4" t="s">
-        <v>1206</v>
+      <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
+      <c r="H639" s="3" t="s">
+        <v>756</v>
       </c>
       <c r="I639" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="640" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
-        <v>373</v>
+        <v>758</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>95</v>
+        <v>755</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F640" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G640" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H640" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="641" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
+      <c r="H640" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I640" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>1629</v>
+        <v>759</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>1633</v>
+        <v>755</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F641" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G641" s="3"/>
-      <c r="H641" s="16"/>
-      <c r="I641" s="16" t="s">
-        <v>1630</v>
+      <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
+      <c r="H641" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I641" t="s">
+        <v>2266</v>
       </c>
     </row>
     <row r="642" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>1630</v>
+        <v>760</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>1633</v>
+        <v>755</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G642" s="3"/>
-      <c r="H642" s="16" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I642" s="16" t="s">
-        <v>1651</v>
+      <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
+      <c r="H642" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I642" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="643" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>1631</v>
+        <v>761</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>1633</v>
+        <v>755</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G643" s="3"/>
-      <c r="H643" s="16" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I643" s="16" t="s">
-        <v>1653</v>
+      <c r="F643" s="4"/>
+      <c r="G643" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="644" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>1632</v>
+        <v>762</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>1633</v>
+        <v>755</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G644" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H644" s="16" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I644" s="16" t="s">
-        <v>1600</v>
+      <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
+      <c r="H644" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I644" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="645" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>1634</v>
+        <v>368</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>1633</v>
+        <v>95</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>526</v>
+        <v>25</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F645" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G645" s="3"/>
-      <c r="H645" s="16"/>
-      <c r="I645" s="16" t="s">
-        <v>1655</v>
+      <c r="F645" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G645" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H645" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I645" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="646" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
-        <v>1635</v>
+        <v>371</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>1633</v>
+        <v>95</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G646" s="3"/>
-      <c r="H646" s="16" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I646" s="16" t="s">
-        <v>1657</v>
+      <c r="F646" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G646" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H646" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I646" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="647" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>1636</v>
+        <v>373</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>1633</v>
+        <v>95</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>526</v>
+        <v>25</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G647" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H647" s="16" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I647" s="16" t="s">
-        <v>1659</v>
+      <c r="F647" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G647" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H647" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="648" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F648" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G648" s="3"/>
-      <c r="H648" s="16" t="s">
-        <v>1647</v>
-      </c>
+      <c r="H648" s="16"/>
       <c r="I648" s="16" t="s">
-        <v>1660</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="649" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E649" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G649" s="3"/>
       <c r="H649" s="16" t="s">
-        <v>1661</v>
+        <v>1629</v>
       </c>
       <c r="I649" s="16" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="650" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G650" s="3"/>
       <c r="H650" s="16" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="I650" s="16" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="651" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D651" s="3" t="s">
         <v>526</v>
@@ -27200,176 +27288,172 @@
       <c r="E651" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F651" s="3" t="s">
-        <v>167</v>
+      <c r="G651" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H651" s="16" t="s">
+        <v>1654</v>
       </c>
       <c r="I651" s="16" t="s">
-        <v>1665</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E652" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F652" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G652" s="3"/>
-      <c r="H652" s="16" t="s">
-        <v>1648</v>
-      </c>
+      <c r="H652" s="16"/>
       <c r="I652" s="16" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="653" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E653" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G653" s="3"/>
       <c r="H653" s="16" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="I653" s="16" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="654" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E654" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G654" s="3"/>
+      <c r="G654" s="3" t="s">
+        <v>594</v>
+      </c>
       <c r="H654" s="16" t="s">
-        <v>1649</v>
+        <v>1658</v>
       </c>
       <c r="I654" s="16" t="s">
-        <v>1650</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="655" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
-        <v>375</v>
+        <v>1637</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>80</v>
+        <v>1644</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E655" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F655" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G655" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H655" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I655" t="s">
-        <v>1143</v>
+      <c r="G655" s="3"/>
+      <c r="H655" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I655" s="16" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="656" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>376</v>
+        <v>1638</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>80</v>
+        <v>1644</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E656" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F656" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G656" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H656" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="657" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G656" s="3"/>
+      <c r="H656" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I656" s="16" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>2333</v>
+        <v>1639</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>2334</v>
+        <v>1644</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E657" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F657" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G657" s="4"/>
-      <c r="H657" s="4" t="s">
-        <v>2336</v>
+      <c r="G657" s="3"/>
+      <c r="H657" s="16" t="s">
+        <v>1663</v>
       </c>
       <c r="I657" s="16" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="658" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>2338</v>
+        <v>1640</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>2334</v>
+        <v>1644</v>
       </c>
       <c r="D658" s="3" t="s">
         <v>526</v>
@@ -27377,151 +27461,149 @@
       <c r="E658" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F658" s="4"/>
-      <c r="G658" s="4"/>
-      <c r="H658" s="16" t="s">
-        <v>2337</v>
+      <c r="F658" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="I658" s="16" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="659" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>2339</v>
+        <v>1641</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C659" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" s="3"/>
+      <c r="H659" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I659" s="16" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G660" s="3"/>
+      <c r="H660" s="16" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I660" s="16" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G661" s="3"/>
+      <c r="H661" s="16" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I661" s="16" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F662" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G662" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H662" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I662" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F663" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G663" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H663" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C664" s="3" t="s">
         <v>2334</v>
-      </c>
-      <c r="D659" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E659" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F659" s="4"/>
-      <c r="G659" s="4"/>
-      <c r="H659" s="4" t="s">
-        <v>2338</v>
-      </c>
-      <c r="I659" s="16" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="660" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="3" t="s">
-        <v>2340</v>
-      </c>
-      <c r="B660" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C660" s="3" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D660" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E660" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F660" s="4"/>
-      <c r="G660" s="4"/>
-      <c r="H660" s="4" t="s">
-        <v>2339</v>
-      </c>
-      <c r="I660" s="16" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="661" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="3" t="s">
-        <v>2355</v>
-      </c>
-      <c r="B661" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C661" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D661" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E661" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F661" s="4" t="s">
-        <v>2347</v>
-      </c>
-      <c r="G661" s="4"/>
-      <c r="H661" s="4" t="s">
-        <v>2354</v>
-      </c>
-      <c r="I661" s="16" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="662" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="3" t="s">
-        <v>2356</v>
-      </c>
-      <c r="B662" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C662" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D662" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E662" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F662" s="4"/>
-      <c r="G662" s="4"/>
-      <c r="H662" s="4" t="s">
-        <v>2355</v>
-      </c>
-      <c r="I662" s="16" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="663" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="3" t="s">
-        <v>2357</v>
-      </c>
-      <c r="B663" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C663" s="3" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D663" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E663" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F663" s="4"/>
-      <c r="G663" s="4"/>
-      <c r="H663" s="4" t="s">
-        <v>2356</v>
-      </c>
-      <c r="I663" s="16" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="664" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="3" t="s">
-        <v>2358</v>
-      </c>
-      <c r="B664" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C664" s="3" t="s">
-        <v>2348</v>
       </c>
       <c r="D664" s="3" t="s">
         <v>526</v>
@@ -27529,26 +27611,26 @@
       <c r="E664" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F664" s="4"/>
-      <c r="G664" s="4" t="s">
-        <v>2346</v>
-      </c>
+      <c r="F664" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G664" s="4"/>
       <c r="H664" s="4" t="s">
-        <v>2360</v>
+        <v>2336</v>
       </c>
       <c r="I664" s="16" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="665" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>2049</v>
+        <v>2338</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>2030</v>
+        <v>2334</v>
       </c>
       <c r="D665" s="3" t="s">
         <v>526</v>
@@ -27556,26 +27638,24 @@
       <c r="E665" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F665" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G665" s="3"/>
+      <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
       <c r="H665" s="16" t="s">
-        <v>2805</v>
+        <v>2337</v>
       </c>
       <c r="I665" s="16" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="666" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>2051</v>
+        <v>2339</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>2030</v>
+        <v>2334</v>
       </c>
       <c r="D666" s="3" t="s">
         <v>526</v>
@@ -27583,156 +27663,147 @@
       <c r="E666" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
-      <c r="H666" s="16" t="s">
-        <v>2052</v>
+      <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
+      <c r="H666" s="4" t="s">
+        <v>2338</v>
       </c>
       <c r="I666" s="16" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="667" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>2053</v>
+        <v>2340</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>2030</v>
+        <v>2334</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E667" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F667" s="3"/>
-      <c r="G667" s="3"/>
-      <c r="H667" s="16" t="s">
-        <v>2051</v>
+      <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
+      <c r="H667" s="4" t="s">
+        <v>2339</v>
       </c>
       <c r="I667" s="16" t="s">
-        <v>2054</v>
-      </c>
-      <c r="J667" s="16" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="668" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>2055</v>
+        <v>2355</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>2030</v>
+        <v>2348</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E668" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
-      <c r="H668" s="16" t="s">
-        <v>2056</v>
+      <c r="F668" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G668" s="4"/>
+      <c r="H668" s="4" t="s">
+        <v>2354</v>
       </c>
       <c r="I668" s="16" t="s">
-        <v>2041</v>
-      </c>
-      <c r="J668" s="16" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="669" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>2047</v>
+        <v>2356</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>2030</v>
+        <v>2348</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E669" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F669" s="3"/>
-      <c r="G669" s="3"/>
-      <c r="H669" s="16" t="s">
-        <v>2057</v>
+      <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
+      <c r="H669" s="4" t="s">
+        <v>2355</v>
       </c>
       <c r="I669" s="16" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J669" s="16" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="670" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>2064</v>
+        <v>2357</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>2030</v>
+        <v>2348</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E670" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F670" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G670" s="3"/>
-      <c r="H670" s="16" t="s">
-        <v>2802</v>
-      </c>
-      <c r="I670" s="16"/>
-      <c r="J670" s="16"/>
-    </row>
-    <row r="671" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
+      <c r="H670" s="4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="I670" s="16" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>2811</v>
+        <v>2358</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>2030</v>
+        <v>2348</v>
       </c>
       <c r="D671" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E671" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F671" s="3"/>
-      <c r="G671" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H671" s="16" t="s">
-        <v>2813</v>
+      <c r="F671" s="4"/>
+      <c r="G671" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="H671" s="4" t="s">
+        <v>2360</v>
       </c>
       <c r="I671" s="16" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J671" s="16"/>
-    </row>
-    <row r="672" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>2812</v>
+        <v>2049</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>1296</v>
@@ -27741,59 +27812,56 @@
         <v>2030</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E672" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3" t="s">
+      <c r="F672" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G672" s="3"/>
       <c r="H672" s="16" t="s">
-        <v>2814</v>
+        <v>2805</v>
       </c>
       <c r="I672" s="16" t="s">
-        <v>2815</v>
-      </c>
-      <c r="J672" s="16"/>
+        <v>2050</v>
+      </c>
     </row>
     <row r="673" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
-        <v>2376</v>
+        <v>2051</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>2380</v>
+        <v>2030</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E673" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F673" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G673" s="4"/>
-      <c r="H673" s="4" t="s">
-        <v>2401</v>
+      <c r="F673" s="3"/>
+      <c r="G673" s="3"/>
+      <c r="H673" s="16" t="s">
+        <v>2052</v>
       </c>
       <c r="I673" s="16" t="s">
-        <v>2382</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="674" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
-        <v>2378</v>
+        <v>2053</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>2380</v>
+        <v>2030</v>
       </c>
       <c r="D674" s="3" t="s">
         <v>33</v>
@@ -27801,22 +27869,27 @@
       <c r="E674" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F674" s="4"/>
-      <c r="G674" s="4"/>
-      <c r="H674" s="4" t="s">
-        <v>2381</v>
-      </c>
-      <c r="I674" s="16"/>
+      <c r="F674" s="3"/>
+      <c r="G674" s="3"/>
+      <c r="H674" s="16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I674" s="16" t="s">
+        <v>2054</v>
+      </c>
+      <c r="J674" s="16" t="s">
+        <v>2060</v>
+      </c>
     </row>
     <row r="675" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
-        <v>2379</v>
+        <v>2055</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>2380</v>
+        <v>2030</v>
       </c>
       <c r="D675" s="3" t="s">
         <v>33</v>
@@ -27824,48 +27897,55 @@
       <c r="E675" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F675" s="4"/>
-      <c r="G675" s="4"/>
-      <c r="H675" s="4" t="s">
-        <v>2382</v>
-      </c>
-      <c r="I675" s="16"/>
+      <c r="F675" s="3"/>
+      <c r="G675" s="3"/>
+      <c r="H675" s="16" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I675" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J675" s="16" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="676" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="16" t="s">
-        <v>1282</v>
+      <c r="A676" s="3" t="s">
+        <v>2047</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C676" s="16" t="s">
-        <v>1284</v>
+      <c r="C676" s="3" t="s">
+        <v>2030</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E676" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F676" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="F676" s="3"/>
+      <c r="G676" s="3"/>
       <c r="H676" s="16" t="s">
-        <v>1289</v>
+        <v>2057</v>
       </c>
       <c r="I676" s="16" t="s">
-        <v>2078</v>
+        <v>2032</v>
+      </c>
+      <c r="J676" s="16" t="s">
+        <v>2061</v>
       </c>
     </row>
     <row r="677" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="16" t="s">
-        <v>1283</v>
+      <c r="A677" s="3" t="s">
+        <v>2064</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C677" s="16" t="s">
-        <v>1284</v>
+      <c r="C677" s="3" t="s">
+        <v>2030</v>
       </c>
       <c r="D677" s="3" t="s">
         <v>33</v>
@@ -27873,25 +27953,25 @@
       <c r="E677" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G677" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F677" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G677" s="3"/>
       <c r="H677" s="16" t="s">
-        <v>2079</v>
-      </c>
-      <c r="I677" s="16" t="s">
-        <v>1290</v>
-      </c>
+        <v>2802</v>
+      </c>
+      <c r="I677" s="16"/>
+      <c r="J677" s="16"/>
     </row>
     <row r="678" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="16" t="s">
-        <v>2075</v>
+      <c r="A678" s="3" t="s">
+        <v>2811</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C678" s="16" t="s">
-        <v>1284</v>
+      <c r="C678" s="3" t="s">
+        <v>2030</v>
       </c>
       <c r="D678" s="3" t="s">
         <v>33</v>
@@ -27899,48 +27979,55 @@
       <c r="E678" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F678" s="3"/>
       <c r="G678" s="3" t="s">
-        <v>2076</v>
+        <v>18</v>
       </c>
       <c r="H678" s="16" t="s">
-        <v>2077</v>
-      </c>
-      <c r="I678" s="16"/>
+        <v>2813</v>
+      </c>
+      <c r="I678" s="16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J678" s="16"/>
     </row>
     <row r="679" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
-        <v>2474</v>
+        <v>2812</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>2403</v>
+        <v>2030</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E679" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F679" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G679" s="3"/>
-      <c r="H679" s="16"/>
+      <c r="F679" s="3"/>
+      <c r="G679" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H679" s="16" t="s">
+        <v>2814</v>
+      </c>
       <c r="I679" s="16" t="s">
-        <v>2493</v>
-      </c>
+        <v>2815</v>
+      </c>
+      <c r="J679" s="16"/>
     </row>
     <row r="680" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
-        <v>2468</v>
+        <v>2376</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>2403</v>
+        <v>2380</v>
       </c>
       <c r="D680" s="3" t="s">
         <v>33</v>
@@ -27948,74 +28035,72 @@
       <c r="E680" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G680" s="3" t="s">
+      <c r="F680" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H680" s="16" t="s">
-        <v>2494</v>
+      <c r="G680" s="4"/>
+      <c r="H680" s="4" t="s">
+        <v>2401</v>
       </c>
       <c r="I680" s="16" t="s">
-        <v>2495</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="681" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
-        <v>2469</v>
+        <v>2378</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>2403</v>
+        <v>2380</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E681" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F681" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G681" s="3"/>
-      <c r="H681" s="16"/>
-      <c r="I681" s="16" t="s">
-        <v>2496</v>
-      </c>
+      <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
+      <c r="H681" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="I681" s="16"/>
     </row>
     <row r="682" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
-        <v>2470</v>
+        <v>2379</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>2403</v>
+        <v>2380</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E682" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G682" s="3"/>
-      <c r="H682" s="16" t="s">
-        <v>2497</v>
-      </c>
-      <c r="I682" s="16" t="s">
-        <v>2498</v>
-      </c>
+      <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
+      <c r="H682" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="I682" s="16"/>
     </row>
     <row r="683" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="3" t="s">
-        <v>2471</v>
+      <c r="A683" s="16" t="s">
+        <v>1282</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C683" s="3" t="s">
-        <v>2403</v>
+      <c r="C683" s="16" t="s">
+        <v>1284</v>
       </c>
       <c r="D683" s="3" t="s">
         <v>526</v>
@@ -28023,70 +28108,69 @@
       <c r="E683" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G683" s="3" t="s">
-        <v>2558</v>
+      <c r="F683" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H683" s="16" t="s">
-        <v>2499</v>
+        <v>1289</v>
       </c>
       <c r="I683" s="16" t="s">
-        <v>2653</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="684" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="3" t="s">
-        <v>2472</v>
+      <c r="A684" s="16" t="s">
+        <v>1283</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C684" s="3" t="s">
-        <v>2403</v>
+      <c r="C684" s="16" t="s">
+        <v>1284</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E684" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G684" s="3" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="H684" s="16" t="s">
-        <v>2500</v>
+        <v>2079</v>
       </c>
       <c r="I684" s="16" t="s">
-        <v>2501</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="685" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="3" t="s">
-        <v>2473</v>
+      <c r="A685" s="16" t="s">
+        <v>2075</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C685" s="3" t="s">
-        <v>2403</v>
+      <c r="C685" s="16" t="s">
+        <v>1284</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E685" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F685" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G685" s="3"/>
-      <c r="H685" s="16"/>
-      <c r="I685" s="16" t="s">
-        <v>2502</v>
-      </c>
+      <c r="G685" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H685" s="16" t="s">
+        <v>2077</v>
+      </c>
+      <c r="I685" s="16"/>
     </row>
     <row r="686" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
-        <v>2426</v>
+        <v>2474</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>1296</v>
@@ -28104,13 +28188,14 @@
         <v>167</v>
       </c>
       <c r="G686" s="3"/>
+      <c r="H686" s="16"/>
       <c r="I686" s="16" t="s">
-        <v>2503</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="687" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
-        <v>2427</v>
+        <v>2468</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>1296</v>
@@ -28119,23 +28204,24 @@
         <v>2403</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E687" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G687" s="3"/>
+      <c r="G687" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H687" s="16" t="s">
-        <v>2504</v>
+        <v>2494</v>
       </c>
       <c r="I687" s="16" t="s">
-        <v>2437</v>
-      </c>
-      <c r="J687" s="16"/>
+        <v>2495</v>
+      </c>
     </row>
     <row r="688" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
-        <v>2429</v>
+        <v>2469</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>1296</v>
@@ -28152,13 +28238,15 @@
       <c r="F688" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="G688" s="3"/>
+      <c r="H688" s="16"/>
       <c r="I688" s="16" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="689" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
-        <v>2432</v>
+        <v>2470</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>1296</v>
@@ -28174,15 +28262,15 @@
       </c>
       <c r="G689" s="3"/>
       <c r="H689" s="16" t="s">
-        <v>2428</v>
+        <v>2497</v>
       </c>
       <c r="I689" s="16" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="690" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
-        <v>2435</v>
+        <v>2471</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>1296</v>
@@ -28196,17 +28284,19 @@
       <c r="E690" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G690" s="3"/>
+      <c r="G690" s="3" t="s">
+        <v>2558</v>
+      </c>
       <c r="H690" s="16" t="s">
-        <v>2431</v>
+        <v>2499</v>
       </c>
       <c r="I690" s="16" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="691" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
-        <v>2439</v>
+        <v>2472</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>1296</v>
@@ -28220,17 +28310,19 @@
       <c r="E691" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G691" s="3"/>
+      <c r="G691" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="H691" s="16" t="s">
-        <v>2434</v>
+        <v>2500</v>
       </c>
       <c r="I691" s="16" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="692" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
-        <v>2442</v>
+        <v>2473</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>1296</v>
@@ -28239,24 +28331,23 @@
         <v>2403</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E692" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G692" s="3" t="s">
-        <v>2508</v>
-      </c>
-      <c r="H692" s="16" t="s">
-        <v>2445</v>
-      </c>
+      <c r="F692" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G692" s="3"/>
+      <c r="H692" s="16"/>
       <c r="I692" s="16" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
-        <v>2443</v>
+        <v>2426</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>1296</v>
@@ -28270,17 +28361,17 @@
       <c r="E693" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F693" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="G693" s="3"/>
-      <c r="H693" s="16" t="s">
-        <v>2441</v>
-      </c>
       <c r="I693" s="16" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
-        <v>2447</v>
+        <v>2427</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>1296</v>
@@ -28289,24 +28380,23 @@
         <v>2403</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E694" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G694" s="3" t="s">
-        <v>2508</v>
-      </c>
+      <c r="G694" s="3"/>
       <c r="H694" s="16" t="s">
-        <v>2458</v>
+        <v>2504</v>
       </c>
       <c r="I694" s="16" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2437</v>
+      </c>
+      <c r="J694" s="16"/>
+    </row>
+    <row r="695" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
-        <v>2448</v>
+        <v>2429</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>1296</v>
@@ -28315,24 +28405,21 @@
         <v>2403</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E695" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F695" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H695" s="16" t="s">
-        <v>2505</v>
-      </c>
-      <c r="I695" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="I695" s="16" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
-        <v>2449</v>
+        <v>2432</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>1296</v>
@@ -28341,24 +28428,22 @@
         <v>2403</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E696" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G696" s="3" t="s">
-        <v>619</v>
-      </c>
+      <c r="G696" s="3"/>
       <c r="H696" s="16" t="s">
-        <v>2453</v>
-      </c>
-      <c r="I696" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2428</v>
+      </c>
+      <c r="I696" s="16" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
-        <v>2454</v>
+        <v>2435</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>1296</v>
@@ -28367,21 +28452,22 @@
         <v>2403</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E697" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G697" s="3" t="s">
-        <v>2558</v>
-      </c>
+      <c r="G697" s="3"/>
       <c r="H697" s="16" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="698" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2431</v>
+      </c>
+      <c r="I697" s="16" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
-        <v>2456</v>
+        <v>2439</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>1296</v>
@@ -28390,82 +28476,78 @@
         <v>2403</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E698" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G698" s="3"/>
       <c r="H698" s="16" t="s">
-        <v>2451</v>
+        <v>2434</v>
       </c>
       <c r="I698" s="16" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
-        <v>1810</v>
+        <v>2442</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>1809</v>
+        <v>2403</v>
       </c>
       <c r="D699" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H699" s="16" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I699" s="16" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D700" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E699" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F699" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G699" s="3"/>
-      <c r="H699" s="3" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I699" s="16"/>
-    </row>
-    <row r="700" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="3" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B700" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C700" s="3" t="s">
-        <v>2565</v>
-      </c>
-      <c r="D700" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E700" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F700" s="4" t="s">
-        <v>2530</v>
-      </c>
-      <c r="G700" s="4" t="s">
-        <v>2558</v>
-      </c>
-      <c r="H700" s="3" t="s">
-        <v>2824</v>
-      </c>
-      <c r="I700" s="3" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="701" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G700" s="3"/>
+      <c r="H700" s="16" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I700" s="16" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
-        <v>2818</v>
+        <v>2447</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>818</v>
+        <v>2403</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>33</v>
@@ -28473,115 +28555,100 @@
       <c r="E701" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F701" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G701" s="3" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H701" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="I701" s="16" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H702" s="16" t="s">
+        <v>2505</v>
+      </c>
+      <c r="I702" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H703" s="16" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I703" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G704" s="3" t="s">
         <v>2558</v>
       </c>
-      <c r="H701" s="16" t="s">
-        <v>2823</v>
-      </c>
-      <c r="I701" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="702" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="3" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B702" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C702" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D702" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E702" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F702" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="G702" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H702" s="16" t="s">
-        <v>2825</v>
-      </c>
-      <c r="I702" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="703" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="B703" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C703" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="D703" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E703" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F703" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G703" s="16" t="s">
-        <v>2876</v>
-      </c>
-      <c r="H703" s="16" t="s">
-        <v>2810</v>
-      </c>
-      <c r="I703" s="3" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="704" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="3" t="s">
-        <v>2874</v>
-      </c>
-      <c r="B704" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C704" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="D704" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E704" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F704" s="16" t="s">
-        <v>2876</v>
-      </c>
-      <c r="G704" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H704" s="16" t="s">
-        <v>2878</v>
-      </c>
-      <c r="I704" t="s">
-        <v>1492</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="705" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
-        <v>2875</v>
+        <v>2456</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C705" s="16" t="s">
-        <v>2876</v>
+      <c r="C705" s="3" t="s">
+        <v>2403</v>
       </c>
       <c r="D705" s="3" t="s">
         <v>33</v>
@@ -28589,28 +28656,23 @@
       <c r="E705" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F705" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="G705" s="16" t="s">
-        <v>832</v>
-      </c>
+      <c r="G705" s="3"/>
       <c r="H705" s="16" t="s">
-        <v>2880</v>
-      </c>
-      <c r="I705" s="19" t="s">
-        <v>2879</v>
+        <v>2451</v>
+      </c>
+      <c r="I705" s="16" t="s">
+        <v>2446</v>
       </c>
     </row>
     <row r="706" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="16" t="s">
-        <v>2883</v>
+      <c r="A706" s="3" t="s">
+        <v>1810</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C706" s="16" t="s">
-        <v>832</v>
+      <c r="C706" s="3" t="s">
+        <v>1809</v>
       </c>
       <c r="D706" s="3" t="s">
         <v>526</v>
@@ -28618,26 +28680,24 @@
       <c r="E706" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F706" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G706" s="16"/>
-      <c r="H706" s="16" t="s">
-        <v>2886</v>
-      </c>
-      <c r="I706" s="16" t="s">
-        <v>2887</v>
-      </c>
+      <c r="F706" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G706" s="3"/>
+      <c r="H706" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I706" s="16"/>
     </row>
     <row r="707" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="16" t="s">
-        <v>2889</v>
+      <c r="A707" s="3" t="s">
+        <v>2529</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C707" s="16" t="s">
-        <v>832</v>
+      <c r="C707" s="3" t="s">
+        <v>2565</v>
       </c>
       <c r="D707" s="3" t="s">
         <v>33</v>
@@ -28645,26 +28705,28 @@
       <c r="E707" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F707" s="3"/>
-      <c r="G707" s="16" t="s">
-        <v>2885</v>
-      </c>
-      <c r="H707" s="16" t="s">
-        <v>2888</v>
-      </c>
-      <c r="I707" s="16" t="s">
-        <v>2890</v>
+      <c r="F707" s="4" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G707" s="4" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H707" s="3" t="s">
+        <v>2824</v>
+      </c>
+      <c r="I707" s="3" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="708" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="16" t="s">
-        <v>2884</v>
+      <c r="A708" s="3" t="s">
+        <v>2818</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C708" s="16" t="s">
-        <v>112</v>
+      <c r="C708" s="3" t="s">
+        <v>818</v>
       </c>
       <c r="D708" s="3" t="s">
         <v>33</v>
@@ -28672,27 +28734,31 @@
       <c r="E708" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F708" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="G708" s="16"/>
+      <c r="F708" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>2558</v>
+      </c>
       <c r="H708" s="16" t="s">
-        <v>2891</v>
-      </c>
-      <c r="I708" s="19"/>
+        <v>2823</v>
+      </c>
+      <c r="I708" t="s">
+        <v>2826</v>
+      </c>
     </row>
     <row r="709" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
-        <v>2548</v>
+        <v>2821</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C709" s="16" t="s">
-        <v>2569</v>
+      <c r="C709" s="3" t="s">
+        <v>818</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E709" s="3" t="s">
         <v>10</v>
@@ -28701,18 +28767,18 @@
         <v>2558</v>
       </c>
       <c r="G709" s="3" t="s">
-        <v>2558</v>
+        <v>18</v>
       </c>
       <c r="H709" s="16" t="s">
-        <v>2654</v>
-      </c>
-      <c r="I709" s="16" t="s">
-        <v>2655</v>
+        <v>2825</v>
+      </c>
+      <c r="I709" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
-        <v>2966</v>
+        <v>819</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>1296</v>
@@ -28721,27 +28787,27 @@
         <v>832</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E710" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F710" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="G710" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="G710" s="16" t="s">
+        <v>2876</v>
       </c>
       <c r="H710" s="16" t="s">
-        <v>2972</v>
-      </c>
-      <c r="I710" s="16" t="s">
-        <v>2973</v>
+        <v>2810</v>
+      </c>
+      <c r="I710" s="3" t="s">
+        <v>2877</v>
       </c>
     </row>
     <row r="711" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
-        <v>2967</v>
+        <v>2874</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>1296</v>
@@ -28750,33 +28816,33 @@
         <v>832</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E711" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F711" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="G711" s="16" t="s">
+      <c r="F711" s="16" t="s">
         <v>2876</v>
       </c>
+      <c r="G711" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H711" s="16" t="s">
-        <v>2974</v>
-      </c>
-      <c r="I711" s="16" t="s">
-        <v>2975</v>
+        <v>2878</v>
+      </c>
+      <c r="I711" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="712" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
-        <v>2968</v>
+        <v>2875</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C712" s="16" t="s">
-        <v>832</v>
+        <v>2876</v>
       </c>
       <c r="D712" s="3" t="s">
         <v>33</v>
@@ -28784,22 +28850,22 @@
       <c r="E712" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F712" s="16" t="s">
-        <v>2876</v>
+      <c r="F712" s="3" t="s">
+        <v>2558</v>
       </c>
       <c r="G712" s="16" t="s">
-        <v>2876</v>
+        <v>832</v>
       </c>
       <c r="H712" s="16" t="s">
-        <v>2976</v>
-      </c>
-      <c r="I712" s="16" t="s">
-        <v>2977</v>
+        <v>2880</v>
+      </c>
+      <c r="I712" s="19" t="s">
+        <v>2879</v>
       </c>
     </row>
     <row r="713" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="3" t="s">
-        <v>2969</v>
+      <c r="A713" s="16" t="s">
+        <v>2883</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>1296</v>
@@ -28808,33 +28874,31 @@
         <v>832</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E713" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F713" s="16" t="s">
-        <v>2876</v>
-      </c>
-      <c r="G713" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G713" s="16"/>
       <c r="H713" s="16" t="s">
-        <v>2977</v>
+        <v>2886</v>
       </c>
       <c r="I713" s="16" t="s">
-        <v>2978</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="714" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="3" t="s">
-        <v>2970</v>
+      <c r="A714" s="16" t="s">
+        <v>2889</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C714" s="16" t="s">
-        <v>2876</v>
+        <v>832</v>
       </c>
       <c r="D714" s="3" t="s">
         <v>33</v>
@@ -28842,28 +28906,26 @@
       <c r="E714" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F714" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="G714" s="3" t="s">
-        <v>966</v>
+      <c r="F714" s="3"/>
+      <c r="G714" s="16" t="s">
+        <v>2885</v>
       </c>
       <c r="H714" s="16" t="s">
-        <v>2979</v>
+        <v>2888</v>
       </c>
       <c r="I714" s="16" t="s">
-        <v>2982</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="715" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="3" t="s">
-        <v>2971</v>
+      <c r="A715" s="16" t="s">
+        <v>2884</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C715" s="16" t="s">
-        <v>2876</v>
+        <v>112</v>
       </c>
       <c r="D715" s="3" t="s">
         <v>33</v>
@@ -28874,25 +28936,21 @@
       <c r="F715" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="G715" s="3" t="s">
-        <v>966</v>
-      </c>
+      <c r="G715" s="16"/>
       <c r="H715" s="16" t="s">
-        <v>2980</v>
-      </c>
-      <c r="I715" s="16" t="s">
-        <v>2981</v>
-      </c>
+        <v>2891</v>
+      </c>
+      <c r="I715" s="19"/>
     </row>
     <row r="716" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
-        <v>2205</v>
+        <v>2548</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C716" s="16" t="s">
-        <v>2206</v>
+        <v>2569</v>
       </c>
       <c r="D716" s="3" t="s">
         <v>33</v>
@@ -28901,53 +28959,56 @@
         <v>10</v>
       </c>
       <c r="F716" s="3" t="s">
-        <v>45</v>
+        <v>2558</v>
       </c>
       <c r="G716" s="3" t="s">
-        <v>42</v>
+        <v>2558</v>
       </c>
       <c r="H716" s="16" t="s">
-        <v>2207</v>
+        <v>2654</v>
       </c>
       <c r="I716" s="16" t="s">
-        <v>1263</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="717" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
-        <v>2417</v>
+        <v>2966</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C717" s="3" t="s">
-        <v>2424</v>
+      <c r="C717" s="16" t="s">
+        <v>832</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E717" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F717" s="3" t="s">
-        <v>429</v>
+        <v>2558</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H717" s="16" t="s">
-        <v>1291</v>
-      </c>
-      <c r="I717" t="s">
-        <v>2418</v>
+        <v>2972</v>
+      </c>
+      <c r="I717" s="16" t="s">
+        <v>2973</v>
       </c>
     </row>
     <row r="718" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
-        <v>2419</v>
+        <v>2967</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C718" s="3" t="s">
-        <v>2424</v>
+      <c r="C718" s="16" t="s">
+        <v>832</v>
       </c>
       <c r="D718" s="3" t="s">
         <v>33</v>
@@ -28955,101 +29016,115 @@
       <c r="E718" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F718" s="3"/>
-      <c r="G718" s="3" t="s">
-        <v>12</v>
+      <c r="F718" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G718" s="16" t="s">
+        <v>2876</v>
       </c>
       <c r="H718" s="16" t="s">
-        <v>2420</v>
-      </c>
-      <c r="I718" t="s">
-        <v>1292</v>
+        <v>2974</v>
+      </c>
+      <c r="I718" s="16" t="s">
+        <v>2975</v>
       </c>
     </row>
     <row r="719" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
-        <v>778</v>
+        <v>2968</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C719" s="3" t="s">
-        <v>1218</v>
+      <c r="C719" s="16" t="s">
+        <v>832</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E719" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F719" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G719" s="3"/>
-      <c r="H719" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I719" t="s">
-        <v>1216</v>
+      <c r="F719" s="16" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G719" s="16" t="s">
+        <v>2876</v>
+      </c>
+      <c r="H719" s="16" t="s">
+        <v>2976</v>
+      </c>
+      <c r="I719" s="16" t="s">
+        <v>2977</v>
       </c>
     </row>
     <row r="720" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
-        <v>779</v>
+        <v>2969</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C720" s="3" t="s">
-        <v>1219</v>
+      <c r="C720" s="16" t="s">
+        <v>832</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E720" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F720" s="3"/>
+      <c r="F720" s="16" t="s">
+        <v>2876</v>
+      </c>
       <c r="G720" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="H720" s="3" t="s">
-        <v>782</v>
+        <v>8</v>
+      </c>
+      <c r="H720" s="16" t="s">
+        <v>2977</v>
+      </c>
+      <c r="I720" s="16" t="s">
+        <v>2978</v>
       </c>
     </row>
     <row r="721" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
-        <v>780</v>
+        <v>2970</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C721" s="3" t="s">
-        <v>1219</v>
+      <c r="C721" s="16" t="s">
+        <v>2876</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E721" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F721" s="3"/>
+      <c r="F721" s="16" t="s">
+        <v>832</v>
+      </c>
       <c r="G721" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="H721" s="3" t="s">
-        <v>783</v>
+        <v>966</v>
+      </c>
+      <c r="H721" s="16" t="s">
+        <v>2979</v>
+      </c>
+      <c r="I721" s="16" t="s">
+        <v>2982</v>
       </c>
     </row>
     <row r="722" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
-        <v>955</v>
+        <v>2971</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C722" s="16" t="s">
-        <v>1294</v>
+        <v>2876</v>
       </c>
       <c r="D722" s="3" t="s">
         <v>33</v>
@@ -29058,27 +29133,27 @@
         <v>10</v>
       </c>
       <c r="F722" s="16" t="s">
-        <v>190</v>
+        <v>832</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>2558</v>
+        <v>966</v>
       </c>
       <c r="H722" s="16" t="s">
-        <v>968</v>
+        <v>2980</v>
       </c>
       <c r="I722" s="16" t="s">
-        <v>2920</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="723" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
-        <v>2365</v>
+        <v>2205</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C723" s="16" t="s">
-        <v>2367</v>
+        <v>2206</v>
       </c>
       <c r="D723" s="3" t="s">
         <v>33</v>
@@ -29086,80 +29161,81 @@
       <c r="E723" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F723" s="16" t="s">
-        <v>2334</v>
-      </c>
-      <c r="G723" s="3"/>
+      <c r="F723" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H723" s="16" t="s">
-        <v>2368</v>
+        <v>2207</v>
       </c>
       <c r="I723" s="16" t="s">
-        <v>2370</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="724" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
-        <v>2366</v>
+        <v>2417</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C724" s="16" t="s">
-        <v>2367</v>
+      <c r="C724" s="3" t="s">
+        <v>2424</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E724" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F724" s="16"/>
-      <c r="G724" s="3"/>
+      <c r="F724" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="H724" s="16" t="s">
-        <v>2371</v>
-      </c>
-      <c r="J724" t="s">
-        <v>2369</v>
+        <v>1291</v>
+      </c>
+      <c r="I724" t="s">
+        <v>2418</v>
       </c>
     </row>
     <row r="725" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
-        <v>2711</v>
+        <v>2419</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C725" s="16" t="s">
-        <v>2710</v>
+      <c r="C725" s="3" t="s">
+        <v>2424</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E725" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F725" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="F725" s="3"/>
       <c r="G725" s="3" t="s">
-        <v>2713</v>
+        <v>12</v>
       </c>
       <c r="H725" s="16" t="s">
-        <v>2715</v>
-      </c>
-      <c r="I725" s="16" t="s">
-        <v>2740</v>
+        <v>2420</v>
+      </c>
+      <c r="I725" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="726" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
-        <v>2712</v>
+        <v>778</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C726" s="16" t="s">
-        <v>2710</v>
+      <c r="C726" s="3" t="s">
+        <v>1218</v>
       </c>
       <c r="D726" s="3" t="s">
         <v>526</v>
@@ -29168,24 +29244,25 @@
         <v>10</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>2713</v>
-      </c>
-      <c r="G726" s="3" t="s">
-        <v>2714</v>
-      </c>
-      <c r="H726" s="16" t="s">
-        <v>2741</v>
+        <v>34</v>
+      </c>
+      <c r="G726" s="3"/>
+      <c r="H726" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I726" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="727" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="16" t="s">
-        <v>2475</v>
+      <c r="A727" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C727" s="16" t="s">
-        <v>2402</v>
+      <c r="C727" s="3" t="s">
+        <v>1219</v>
       </c>
       <c r="D727" s="3" t="s">
         <v>526</v>
@@ -29193,26 +29270,23 @@
       <c r="E727" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F727" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G727" s="3"/>
-      <c r="H727" s="16" t="s">
-        <v>2481</v>
-      </c>
-      <c r="I727" s="16" t="s">
-        <v>2482</v>
+      <c r="F727" s="3"/>
+      <c r="G727" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H727" s="3" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="728" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="16" t="s">
-        <v>2476</v>
+      <c r="A728" s="3" t="s">
+        <v>780</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C728" s="16" t="s">
-        <v>2402</v>
+      <c r="C728" s="3" t="s">
+        <v>1219</v>
       </c>
       <c r="D728" s="3" t="s">
         <v>526</v>
@@ -29220,119 +29294,133 @@
       <c r="E728" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G728" s="3"/>
-      <c r="H728" s="16" t="s">
-        <v>2484</v>
-      </c>
-      <c r="I728" s="16" t="s">
-        <v>2485</v>
+      <c r="F728" s="3"/>
+      <c r="G728" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H728" s="3" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="729" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="16" t="s">
-        <v>2477</v>
+      <c r="A729" s="3" t="s">
+        <v>955</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C729" s="16" t="s">
-        <v>2402</v>
+        <v>1294</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E729" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G729" s="3"/>
+      <c r="F729" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>2558</v>
+      </c>
       <c r="H729" s="16" t="s">
-        <v>2483</v>
+        <v>968</v>
       </c>
       <c r="I729" s="16" t="s">
-        <v>2486</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="730" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="16" t="s">
-        <v>2478</v>
+      <c r="A730" s="3" t="s">
+        <v>2365</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C730" s="16" t="s">
-        <v>2402</v>
+        <v>2367</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E730" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F730" s="16" t="s">
+        <v>2334</v>
       </c>
       <c r="G730" s="3"/>
       <c r="H730" s="16" t="s">
-        <v>2487</v>
+        <v>2368</v>
       </c>
       <c r="I730" s="16" t="s">
-        <v>2488</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="731" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="16" t="s">
-        <v>2479</v>
+      <c r="A731" s="3" t="s">
+        <v>2366</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C731" s="16" t="s">
-        <v>2402</v>
+        <v>2367</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E731" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F731" s="16"/>
       <c r="G731" s="3"/>
       <c r="H731" s="16" t="s">
-        <v>2489</v>
-      </c>
-      <c r="I731" s="16" t="s">
-        <v>2490</v>
+        <v>2371</v>
+      </c>
+      <c r="J731" t="s">
+        <v>2369</v>
       </c>
     </row>
     <row r="732" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="16" t="s">
-        <v>2480</v>
+      <c r="A732" s="3" t="s">
+        <v>2711</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C732" s="16" t="s">
-        <v>2402</v>
+        <v>2710</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>526</v>
+        <v>9</v>
       </c>
       <c r="E732" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G732" s="3"/>
+      <c r="F732" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>2713</v>
+      </c>
       <c r="H732" s="16" t="s">
-        <v>2491</v>
+        <v>2715</v>
       </c>
       <c r="I732" s="16" t="s">
-        <v>2492</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="733" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="16" t="s">
-        <v>2722</v>
+      <c r="A733" s="3" t="s">
+        <v>2712</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C733" s="16" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>526</v>
@@ -29341,25 +29429,24 @@
         <v>10</v>
       </c>
       <c r="F733" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G733" s="3"/>
+        <v>2713</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>2714</v>
+      </c>
       <c r="H733" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I733" s="16" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="734" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="16" t="s">
-        <v>2723</v>
+        <v>2475</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C734" s="16" t="s">
-        <v>2708</v>
+        <v>2402</v>
       </c>
       <c r="D734" s="3" t="s">
         <v>526</v>
@@ -29367,23 +29454,26 @@
       <c r="E734" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F734" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="G734" s="3"/>
       <c r="H734" s="16" t="s">
-        <v>2743</v>
+        <v>2481</v>
       </c>
       <c r="I734" s="16" t="s">
-        <v>2745</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="735" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="16" t="s">
-        <v>2724</v>
+        <v>2476</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C735" s="16" t="s">
-        <v>2708</v>
+        <v>2402</v>
       </c>
       <c r="D735" s="3" t="s">
         <v>526</v>
@@ -29393,21 +29483,21 @@
       </c>
       <c r="G735" s="3"/>
       <c r="H735" s="16" t="s">
-        <v>2744</v>
+        <v>2484</v>
       </c>
       <c r="I735" s="16" t="s">
-        <v>2746</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="736" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="16" t="s">
-        <v>2725</v>
+        <v>2477</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C736" s="16" t="s">
-        <v>2708</v>
+        <v>2402</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>526</v>
@@ -29415,26 +29505,23 @@
       <c r="E736" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F736" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="G736" s="3"/>
       <c r="H736" s="16" t="s">
-        <v>2738</v>
+        <v>2483</v>
       </c>
       <c r="I736" s="16" t="s">
-        <v>2747</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="737" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="16" t="s">
-        <v>2726</v>
+        <v>2478</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C737" s="16" t="s">
-        <v>2708</v>
+        <v>2402</v>
       </c>
       <c r="D737" s="3" t="s">
         <v>526</v>
@@ -29444,45 +29531,45 @@
       </c>
       <c r="G737" s="3"/>
       <c r="H737" s="16" t="s">
-        <v>2748</v>
+        <v>2487</v>
       </c>
       <c r="I737" s="16" t="s">
-        <v>2750</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="738" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="16" t="s">
-        <v>2727</v>
+        <v>2479</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C738" s="16" t="s">
-        <v>2708</v>
+        <v>2402</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E738" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G738" s="3"/>
       <c r="H738" s="16" t="s">
-        <v>2749</v>
+        <v>2489</v>
       </c>
       <c r="I738" s="16" t="s">
-        <v>2751</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="739" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="16" t="s">
-        <v>2728</v>
+        <v>2480</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C739" s="16" t="s">
-        <v>2708</v>
+        <v>2402</v>
       </c>
       <c r="D739" s="3" t="s">
         <v>526</v>
@@ -29492,15 +29579,15 @@
       </c>
       <c r="G739" s="3"/>
       <c r="H739" s="16" t="s">
-        <v>2752</v>
+        <v>2491</v>
       </c>
       <c r="I739" s="16" t="s">
-        <v>2753</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="740" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="16" t="s">
-        <v>2729</v>
+        <v>2722</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>1296</v>
@@ -29514,17 +29601,20 @@
       <c r="E740" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F740" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G740" s="3"/>
       <c r="H740" s="16" t="s">
-        <v>2754</v>
+        <v>317</v>
       </c>
       <c r="I740" s="16" t="s">
-        <v>2755</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="741" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="16" t="s">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>1296</v>
@@ -29540,15 +29630,15 @@
       </c>
       <c r="G741" s="3"/>
       <c r="H741" s="16" t="s">
-        <v>2756</v>
+        <v>2743</v>
       </c>
       <c r="I741" s="16" t="s">
-        <v>2757</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="742" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="16" t="s">
-        <v>2731</v>
+        <v>2724</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>1296</v>
@@ -29564,15 +29654,15 @@
       </c>
       <c r="G742" s="3"/>
       <c r="H742" s="16" t="s">
-        <v>2758</v>
+        <v>2744</v>
       </c>
       <c r="I742" s="16" t="s">
-        <v>2759</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="743" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="16" t="s">
-        <v>2732</v>
+        <v>2725</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>1296</v>
@@ -29586,17 +29676,20 @@
       <c r="E743" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F743" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G743" s="3"/>
       <c r="H743" s="16" t="s">
-        <v>2760</v>
+        <v>2738</v>
       </c>
       <c r="I743" s="16" t="s">
-        <v>2761</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="744" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="16" t="s">
-        <v>2733</v>
+        <v>2726</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>1296</v>
@@ -29612,15 +29705,15 @@
       </c>
       <c r="G744" s="3"/>
       <c r="H744" s="16" t="s">
-        <v>2762</v>
+        <v>2748</v>
       </c>
       <c r="I744" s="16" t="s">
-        <v>2763</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="745" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="16" t="s">
-        <v>2734</v>
+        <v>2727</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>1296</v>
@@ -29636,15 +29729,15 @@
       </c>
       <c r="G745" s="3"/>
       <c r="H745" s="16" t="s">
-        <v>2764</v>
+        <v>2749</v>
       </c>
       <c r="I745" s="16" t="s">
-        <v>2765</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="16" t="s">
-        <v>2735</v>
+        <v>2728</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>1296</v>
@@ -29653,24 +29746,22 @@
         <v>2708</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E746" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G746" s="3" t="s">
-        <v>3117</v>
-      </c>
+      <c r="G746" s="3"/>
       <c r="H746" s="16" t="s">
-        <v>2766</v>
+        <v>2752</v>
       </c>
       <c r="I746" s="16" t="s">
-        <v>3109</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="747" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="16" t="s">
-        <v>2736</v>
+        <v>2729</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>1296</v>
@@ -29679,33 +29770,28 @@
         <v>2708</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E747" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F747" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G747" s="3" t="s">
-        <v>2710</v>
-      </c>
+      <c r="G747" s="3"/>
       <c r="H747" s="16" t="s">
-        <v>3074</v>
+        <v>2754</v>
       </c>
       <c r="I747" s="16" t="s">
-        <v>2739</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="748" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="3" t="s">
-        <v>1437</v>
+      <c r="A748" s="16" t="s">
+        <v>2730</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C748" s="16" t="s">
-        <v>1429</v>
+        <v>2708</v>
       </c>
       <c r="D748" s="3" t="s">
         <v>526</v>
@@ -29713,111 +29799,95 @@
       <c r="E748" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F748" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G748" s="3" t="s">
-        <v>2558</v>
-      </c>
+      <c r="G748" s="3"/>
       <c r="H748" s="16" t="s">
-        <v>1439</v>
+        <v>2756</v>
       </c>
       <c r="I748" s="16" t="s">
-        <v>2656</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="749" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="3" t="s">
-        <v>1438</v>
+      <c r="A749" s="16" t="s">
+        <v>2731</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C749" s="16" t="s">
-        <v>1428</v>
+        <v>2708</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E749" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F749" s="3" t="s">
-        <v>2558</v>
       </c>
       <c r="G749" s="3"/>
       <c r="H749" s="16" t="s">
-        <v>2657</v>
+        <v>2758</v>
       </c>
       <c r="I749" s="16" t="s">
-        <v>1440</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="750" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="3" t="s">
-        <v>1430</v>
+      <c r="A750" s="16" t="s">
+        <v>2732</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C750" s="16" t="s">
-        <v>1428</v>
+        <v>2708</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E750" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F750" s="16"/>
-      <c r="G750" s="3" t="s">
-        <v>2558</v>
-      </c>
+      <c r="G750" s="3"/>
       <c r="H750" s="16" t="s">
-        <v>1441</v>
+        <v>2760</v>
       </c>
       <c r="I750" s="16" t="s">
-        <v>2604</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="751" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="3" t="s">
-        <v>1538</v>
+      <c r="A751" s="16" t="s">
+        <v>2733</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C751" s="16" t="s">
-        <v>1428</v>
+        <v>2708</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E751" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F751" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G751" s="3" t="s">
-        <v>2558</v>
-      </c>
+      <c r="G751" s="3"/>
       <c r="H751" s="16" t="s">
-        <v>1542</v>
+        <v>2762</v>
       </c>
       <c r="I751" s="16" t="s">
-        <v>2678</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="752" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="3" t="s">
-        <v>1539</v>
+      <c r="A752" s="16" t="s">
+        <v>2734</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C752" s="16" t="s">
-        <v>1428</v>
+        <v>2708</v>
       </c>
       <c r="D752" s="3" t="s">
         <v>33</v>
@@ -29825,26 +29895,23 @@
       <c r="E752" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F752" s="3" t="s">
-        <v>2558</v>
-      </c>
       <c r="G752" s="3"/>
       <c r="H752" s="16" t="s">
-        <v>2679</v>
+        <v>2764</v>
       </c>
       <c r="I752" s="16" t="s">
-        <v>1543</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="753" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="3" t="s">
-        <v>1540</v>
+      <c r="A753" s="16" t="s">
+        <v>2735</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C753" s="16" t="s">
-        <v>1428</v>
+        <v>2708</v>
       </c>
       <c r="D753" s="3" t="s">
         <v>33</v>
@@ -29852,26 +29919,25 @@
       <c r="E753" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F753" s="16"/>
       <c r="G753" s="3" t="s">
-        <v>74</v>
+        <v>3117</v>
       </c>
       <c r="H753" s="16" t="s">
-        <v>1544</v>
+        <v>2766</v>
       </c>
       <c r="I753" s="16" t="s">
-        <v>1545</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="754" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="3" t="s">
-        <v>1541</v>
+      <c r="A754" s="16" t="s">
+        <v>2736</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>1428</v>
+        <v>2708</v>
       </c>
       <c r="D754" s="3" t="s">
         <v>33</v>
@@ -29880,51 +29946,56 @@
         <v>10</v>
       </c>
       <c r="F754" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="G754" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>2710</v>
+      </c>
       <c r="H754" s="16" t="s">
-        <v>2676</v>
+        <v>3074</v>
       </c>
       <c r="I754" s="16" t="s">
-        <v>1546</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="755" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
-        <v>1517</v>
+        <v>1437</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C755" s="16" t="s">
-        <v>268</v>
+        <v>1429</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>9</v>
+        <v>526</v>
       </c>
       <c r="E755" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F755" s="16" t="s">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="G755" s="3" t="s">
-        <v>839</v>
+        <v>2558</v>
       </c>
       <c r="H755" s="16" t="s">
-        <v>1518</v>
+        <v>1439</v>
+      </c>
+      <c r="I755" s="16" t="s">
+        <v>2656</v>
       </c>
     </row>
     <row r="756" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
-        <v>378</v>
+        <v>1438</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C756" s="3" t="s">
-        <v>282</v>
+      <c r="C756" s="16" t="s">
+        <v>1428</v>
       </c>
       <c r="D756" s="3" t="s">
         <v>33</v>
@@ -29933,24 +30004,25 @@
         <v>10</v>
       </c>
       <c r="F756" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G756" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="H756" s="3" t="s">
-        <v>379</v>
+        <v>2558</v>
+      </c>
+      <c r="G756" s="3"/>
+      <c r="H756" s="16" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I756" s="16" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="757" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
-        <v>752</v>
+        <v>1430</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C757" s="3" t="s">
-        <v>753</v>
+      <c r="C757" s="16" t="s">
+        <v>1428</v>
       </c>
       <c r="D757" s="3" t="s">
         <v>33</v>
@@ -29958,28 +30030,26 @@
       <c r="E757" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F757" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F757" s="16"/>
       <c r="G757" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H757" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="I757" t="s">
-        <v>2014</v>
+        <v>2558</v>
+      </c>
+      <c r="H757" s="16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I757" s="16" t="s">
+        <v>2604</v>
       </c>
     </row>
     <row r="758" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
-        <v>811</v>
+        <v>1538</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C758" s="3" t="s">
-        <v>753</v>
+      <c r="C758" s="16" t="s">
+        <v>1428</v>
       </c>
       <c r="D758" s="3" t="s">
         <v>33</v>
@@ -29987,28 +30057,28 @@
       <c r="E758" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F758" s="3" t="s">
-        <v>11</v>
+      <c r="F758" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="G758" s="3" t="s">
-        <v>43</v>
+        <v>2558</v>
       </c>
       <c r="H758" s="16" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I758" t="s">
-        <v>1212</v>
+        <v>1542</v>
+      </c>
+      <c r="I758" s="16" t="s">
+        <v>2678</v>
       </c>
     </row>
     <row r="759" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
-        <v>812</v>
+        <v>1539</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C759" s="3" t="s">
-        <v>753</v>
+      <c r="C759" s="16" t="s">
+        <v>1428</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>33</v>
@@ -30017,104 +30087,105 @@
         <v>10</v>
       </c>
       <c r="F759" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G759" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>2558</v>
+      </c>
+      <c r="G759" s="3"/>
       <c r="H759" s="16" t="s">
-        <v>1502</v>
-      </c>
-      <c r="I759" t="s">
-        <v>1214</v>
+        <v>2679</v>
+      </c>
+      <c r="I759" s="16" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="760" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
-        <v>1785</v>
+        <v>1540</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C760" s="3" t="s">
-        <v>753</v>
+      <c r="C760" s="16" t="s">
+        <v>1428</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E760" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F760" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G760" s="3"/>
-      <c r="H760" s="16"/>
+      <c r="F760" s="16"/>
+      <c r="G760" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H760" s="16" t="s">
+        <v>1544</v>
+      </c>
       <c r="I760" s="16" t="s">
-        <v>1793</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="761" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
-        <v>1786</v>
+        <v>1541</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C761" s="3" t="s">
-        <v>753</v>
+      <c r="C761" s="16" t="s">
+        <v>1428</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E761" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F761" s="3"/>
-      <c r="G761" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F761" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G761" s="3"/>
       <c r="H761" s="16" t="s">
-        <v>1792</v>
+        <v>2676</v>
       </c>
       <c r="I761" s="16" t="s">
-        <v>1794</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="762" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
-        <v>1787</v>
+        <v>1517</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C762" s="3" t="s">
-        <v>1791</v>
+      <c r="C762" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>526</v>
+        <v>9</v>
       </c>
       <c r="E762" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F762" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G762" s="3"/>
-      <c r="H762" s="16"/>
-      <c r="I762" s="16" t="s">
-        <v>1795</v>
+      <c r="F762" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H762" s="16" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="763" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
-        <v>1788</v>
+        <v>378</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>1791</v>
+        <v>282</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>33</v>
@@ -30122,70 +30193,77 @@
       <c r="E763" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F763" s="3"/>
-      <c r="G763" s="3"/>
-      <c r="H763" s="16" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I763" s="16" t="s">
-        <v>1797</v>
+      <c r="F763" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H763" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="764" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
-        <v>1789</v>
+        <v>752</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>1791</v>
+        <v>753</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E764" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F764" s="3"/>
+      <c r="F764" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G764" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H764" s="16" t="s">
-        <v>1798</v>
-      </c>
-      <c r="I764" s="16" t="s">
-        <v>1560</v>
+        <v>45</v>
+      </c>
+      <c r="H764" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I764" t="s">
+        <v>2014</v>
       </c>
     </row>
     <row r="765" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
-        <v>1790</v>
+        <v>811</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>1791</v>
+        <v>753</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="E765" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F765" s="3"/>
-      <c r="G765" s="3"/>
+      <c r="F765" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H765" s="16" t="s">
-        <v>1799</v>
-      </c>
-      <c r="I765" s="16" t="s">
-        <v>1800</v>
+        <v>1213</v>
+      </c>
+      <c r="I765" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="766" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
-        <v>3002</v>
+        <v>812</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>1296</v>
@@ -30203,18 +30281,18 @@
         <v>11</v>
       </c>
       <c r="G766" s="3" t="s">
-        <v>1791</v>
+        <v>43</v>
       </c>
       <c r="H766" s="16" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I766" s="16" t="s">
-        <v>3011</v>
+        <v>1502</v>
+      </c>
+      <c r="I766" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="767" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
-        <v>3003</v>
+        <v>1785</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>1296</v>
@@ -30223,27 +30301,23 @@
         <v>753</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E767" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F767" s="3" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G767" s="3" t="s">
-        <v>3006</v>
-      </c>
-      <c r="H767" s="16" t="s">
-        <v>3012</v>
-      </c>
+      <c r="F767" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G767" s="3"/>
+      <c r="H767" s="16"/>
       <c r="I767" s="16" t="s">
-        <v>3013</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="768" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
-        <v>3004</v>
+        <v>1786</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>1296</v>
@@ -30252,27 +30326,25 @@
         <v>753</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E768" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F768" s="3" t="s">
-        <v>3006</v>
-      </c>
+      <c r="F768" s="3"/>
       <c r="G768" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H768" s="16" t="s">
-        <v>3014</v>
+        <v>1792</v>
       </c>
       <c r="I768" s="16" t="s">
-        <v>1750</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="769" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
-        <v>3005</v>
+        <v>1787</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>1296</v>
@@ -30281,31 +30353,29 @@
         <v>1791</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>33</v>
+        <v>526</v>
       </c>
       <c r="E769" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F769" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="G769" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H769" s="16" t="s">
-        <v>3015</v>
-      </c>
-      <c r="I769" s="16"/>
+      <c r="F769" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G769" s="3"/>
+      <c r="H769" s="16"/>
+      <c r="I769" s="16" t="s">
+        <v>1795</v>
+      </c>
     </row>
     <row r="770" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
-        <v>380</v>
+        <v>1788</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>338</v>
+        <v>1791</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>33</v>
@@ -30313,164 +30383,166 @@
       <c r="E770" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F770" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G770" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="H770" s="4" t="s">
-        <v>382</v>
+      <c r="F770" s="3"/>
+      <c r="G770" s="3"/>
+      <c r="H770" s="16" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I770" s="16" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="771" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
-        <v>383</v>
+        <v>1789</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>78</v>
+        <v>1791</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>25</v>
+        <v>526</v>
       </c>
       <c r="E771" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F771" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G771" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H771" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I771" t="s">
-        <v>385</v>
+      <c r="F771" s="3"/>
+      <c r="G771" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H771" s="16" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I771" s="16" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="772" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
-        <v>385</v>
+        <v>1790</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>78</v>
+        <v>1791</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>9</v>
+        <v>526</v>
       </c>
       <c r="E772" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F772" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G772" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H772" s="4" t="s">
-        <v>383</v>
+      <c r="F772" s="3"/>
+      <c r="G772" s="3"/>
+      <c r="H772" s="16" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I772" s="16" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="773" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
-        <v>387</v>
+        <v>3002</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>328</v>
+        <v>753</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E773" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F773" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G773" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H773" s="4" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I773" t="s">
-        <v>1140</v>
+      <c r="F773" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H773" s="16" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I773" s="16" t="s">
+        <v>3011</v>
       </c>
     </row>
     <row r="774" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
-        <v>389</v>
+        <v>3003</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>328</v>
+        <v>753</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E774" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F774" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G774" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H774" s="4" t="s">
-        <v>390</v>
+      <c r="F774" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="H774" s="16" t="s">
+        <v>3012</v>
+      </c>
+      <c r="I774" s="16" t="s">
+        <v>3013</v>
       </c>
     </row>
     <row r="775" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
-        <v>391</v>
+        <v>3004</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C775" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="G775" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D775" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E775" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F775" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G775" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="I775" s="3" t="s">
-        <v>393</v>
+      <c r="H775" s="16" t="s">
+        <v>3014</v>
+      </c>
+      <c r="I775" s="16" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="776" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
-        <v>393</v>
+        <v>3005</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>11</v>
+        <v>1791</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E776" s="3" t="s">
         <v>10</v>
@@ -30479,82 +30551,77 @@
         <v>753</v>
       </c>
       <c r="G776" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H776" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="I776" s="3" t="s">
-        <v>2070</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H776" s="16" t="s">
+        <v>3015</v>
+      </c>
+      <c r="I776" s="16"/>
     </row>
     <row r="777" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E777" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F777" s="3" t="s">
-        <v>753</v>
+      <c r="F777" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="G777" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H777" s="3" t="s">
-        <v>2071</v>
-      </c>
-      <c r="I777" s="3" t="s">
-        <v>1783</v>
+        <v>381</v>
+      </c>
+      <c r="H777" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="778" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E778" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F778" s="4" t="s">
-        <v>392</v>
+        <v>26</v>
       </c>
       <c r="G778" s="4" t="s">
-        <v>2558</v>
+        <v>384</v>
       </c>
       <c r="H778" s="4" t="s">
-        <v>1784</v>
+        <v>1141</v>
       </c>
       <c r="I778" t="s">
-        <v>2847</v>
+        <v>385</v>
       </c>
     </row>
     <row r="779" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D779" s="3" t="s">
         <v>9</v>
@@ -30563,27 +30630,24 @@
         <v>10</v>
       </c>
       <c r="F779" s="4" t="s">
-        <v>2558</v>
+        <v>384</v>
       </c>
       <c r="G779" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H779" s="3" t="s">
-        <v>2848</v>
-      </c>
-      <c r="I779" t="s">
-        <v>1775</v>
+        <v>386</v>
+      </c>
+      <c r="H779" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="780" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="D780" s="3" t="s">
         <v>9</v>
@@ -30592,27 +30656,27 @@
         <v>10</v>
       </c>
       <c r="F780" s="4" t="s">
-        <v>429</v>
+        <v>323</v>
       </c>
       <c r="G780" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H780" t="s">
-        <v>1780</v>
-      </c>
-      <c r="I780" s="3" t="s">
-        <v>1771</v>
+        <v>388</v>
+      </c>
+      <c r="H780" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I780" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="781" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="D781" s="3" t="s">
         <v>9</v>
@@ -30621,21 +30685,18 @@
         <v>10</v>
       </c>
       <c r="F781" s="4" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="G781" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="H781" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="I781" s="4" t="s">
-        <v>1768</v>
+        <v>384</v>
+      </c>
+      <c r="H781" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="782" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>1296</v>
@@ -30650,21 +30711,18 @@
         <v>10</v>
       </c>
       <c r="F782" s="4" t="s">
-        <v>568</v>
+        <v>167</v>
       </c>
       <c r="G782" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H782" s="4" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I782" s="17" t="s">
-        <v>1766</v>
+      <c r="I782" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="783" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>1296</v>
@@ -30681,19 +30739,19 @@
       <c r="F783" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G783" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H783" s="17" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I783" s="17" t="s">
-        <v>1764</v>
+      <c r="G783" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H783" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I783" s="3" t="s">
+        <v>2070</v>
       </c>
     </row>
     <row r="784" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>1296</v>
@@ -30707,22 +30765,22 @@
       <c r="E784" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F784" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G784" s="3" t="s">
+      <c r="F784" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H784" s="17" t="s">
-        <v>1767</v>
-      </c>
-      <c r="I784" t="s">
-        <v>1762</v>
+      <c r="G784" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H784" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="I784" s="3" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="785" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>1296</v>
@@ -30736,22 +30794,22 @@
       <c r="E785" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F785" s="3" t="s">
-        <v>753</v>
+      <c r="F785" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="G785" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H785" s="17" t="s">
-        <v>1765</v>
+        <v>2558</v>
+      </c>
+      <c r="H785" s="4" t="s">
+        <v>1784</v>
       </c>
       <c r="I785" t="s">
-        <v>1761</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="786" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>1296</v>
@@ -30766,21 +30824,21 @@
         <v>10</v>
       </c>
       <c r="F786" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G786" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H786" s="4" t="s">
-        <v>1763</v>
+        <v>2558</v>
+      </c>
+      <c r="G786" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H786" s="3" t="s">
+        <v>2848</v>
       </c>
       <c r="I786" t="s">
-        <v>570</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="787" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
-        <v>570</v>
+        <v>397</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>1296</v>
@@ -30794,22 +30852,22 @@
       <c r="E787" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F787" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="G787" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H787" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="I787" t="s">
-        <v>1757</v>
+      <c r="F787" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G787" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H787" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I787" s="3" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="788" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
-        <v>569</v>
+        <v>398</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>1296</v>
@@ -30823,22 +30881,22 @@
       <c r="E788" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F788" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="G788" s="3" t="s">
-        <v>1468</v>
+      <c r="F788" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G788" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="H788" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="I788" s="3" t="s">
-        <v>1755</v>
+        <v>1776</v>
+      </c>
+      <c r="I788" s="4" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="789" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
-        <v>754</v>
+        <v>399</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>1296</v>
@@ -30852,22 +30910,22 @@
       <c r="E789" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F789" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G789" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H789" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I789" t="s">
-        <v>1754</v>
+      <c r="F789" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H789" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I789" s="17" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="790" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
-        <v>814</v>
+        <v>400</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>1296</v>
@@ -30881,22 +30939,22 @@
       <c r="E790" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F790" s="4" t="s">
-        <v>242</v>
+      <c r="F790" s="3" t="s">
+        <v>753</v>
       </c>
       <c r="G790" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H790" s="4" t="s">
-        <v>1474</v>
-      </c>
-      <c r="I790" t="s">
-        <v>2015</v>
+        <v>8</v>
+      </c>
+      <c r="H790" s="17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I790" s="17" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="791" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
-        <v>815</v>
+        <v>401</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>1296</v>
@@ -30911,21 +30969,21 @@
         <v>10</v>
       </c>
       <c r="F791" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G791" s="3" t="s">
-        <v>3016</v>
-      </c>
-      <c r="H791" s="4" t="s">
-        <v>2016</v>
+        <v>753</v>
+      </c>
+      <c r="H791" s="17" t="s">
+        <v>1767</v>
       </c>
       <c r="I791" t="s">
-        <v>3017</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="792" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
-        <v>1466</v>
+        <v>402</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>1296</v>
@@ -30940,21 +30998,21 @@
         <v>10</v>
       </c>
       <c r="F792" s="3" t="s">
-        <v>3016</v>
+        <v>753</v>
       </c>
       <c r="G792" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H792" t="s">
-        <v>3018</v>
+        <v>43</v>
+      </c>
+      <c r="H792" s="17" t="s">
+        <v>1765</v>
       </c>
       <c r="I792" t="s">
-        <v>3019</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="793" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
-        <v>1751</v>
+        <v>403</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>1296</v>
@@ -30969,21 +31027,21 @@
         <v>10</v>
       </c>
       <c r="F793" s="4" t="s">
-        <v>323</v>
+        <v>43</v>
       </c>
       <c r="G793" s="3" t="s">
-        <v>3016</v>
+        <v>571</v>
       </c>
       <c r="H793" s="4" t="s">
-        <v>1752</v>
+        <v>1763</v>
       </c>
       <c r="I793" t="s">
-        <v>3020</v>
+        <v>570</v>
       </c>
     </row>
     <row r="794" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
-        <v>1749</v>
+        <v>570</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>1296</v>
@@ -30998,21 +31056,21 @@
         <v>10</v>
       </c>
       <c r="F794" s="3" t="s">
-        <v>3016</v>
-      </c>
-      <c r="G794" s="17" t="s">
-        <v>2144</v>
-      </c>
-      <c r="H794" t="s">
-        <v>3021</v>
+        <v>571</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H794" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="I794" t="s">
-        <v>3000</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="795" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
-        <v>2143</v>
+        <v>569</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>1296</v>
@@ -31026,22 +31084,22 @@
       <c r="E795" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F795" s="17" t="s">
-        <v>2144</v>
-      </c>
-      <c r="G795" s="16" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H795" s="4" t="s">
-        <v>3022</v>
-      </c>
-      <c r="I795" s="16" t="s">
-        <v>2996</v>
+      <c r="F795" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H795" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I795" s="3" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="796" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
-        <v>2997</v>
+        <v>754</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>1296</v>
@@ -31055,22 +31113,22 @@
       <c r="E796" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F796" s="16" t="s">
-        <v>2145</v>
+      <c r="F796" s="3" t="s">
+        <v>1468</v>
       </c>
       <c r="G796" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H796" s="16" t="s">
-        <v>3001</v>
-      </c>
-      <c r="I796" s="19" t="s">
-        <v>2992</v>
+        <v>242</v>
+      </c>
+      <c r="H796" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I796" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="797" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="16" t="s">
-        <v>2993</v>
+      <c r="A797" s="3" t="s">
+        <v>814</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>1296</v>
@@ -31079,86 +31137,91 @@
         <v>11</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E797" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F797" s="4" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="G797" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H797" s="17" t="s">
-        <v>2998</v>
+        <v>45</v>
+      </c>
+      <c r="H797" s="4" t="s">
+        <v>1474</v>
       </c>
       <c r="I797" t="s">
-        <v>2274</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="798" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
-        <v>1938</v>
+        <v>815</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>1940</v>
+        <v>11</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E798" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F798" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G798" s="4" t="s">
-        <v>1943</v>
-      </c>
-      <c r="H798" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H798" s="4" t="s">
+        <v>2016</v>
+      </c>
       <c r="I798" t="s">
-        <v>1939</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="799" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
-        <v>1939</v>
+        <v>1466</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>1940</v>
+        <v>11</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E799" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F799" s="4" t="s">
-        <v>1943</v>
+      <c r="F799" s="3" t="s">
+        <v>3016</v>
       </c>
       <c r="G799" s="4" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H799" s="4" t="s">
-        <v>1938</v>
+        <v>323</v>
+      </c>
+      <c r="H799" t="s">
+        <v>3018</v>
+      </c>
+      <c r="I799" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="800" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
-        <v>404</v>
+        <v>1751</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>352</v>
+        <v>11</v>
       </c>
       <c r="D800" s="3" t="s">
         <v>9</v>
@@ -31167,24 +31230,27 @@
         <v>10</v>
       </c>
       <c r="F800" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G800" s="4" t="s">
-        <v>405</v>
+        <v>323</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>3016</v>
       </c>
       <c r="H800" s="4" t="s">
-        <v>118</v>
+        <v>1752</v>
+      </c>
+      <c r="I800" t="s">
+        <v>3020</v>
       </c>
     </row>
     <row r="801" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
-        <v>407</v>
+        <v>1749</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D801" s="3" t="s">
         <v>9</v>
@@ -31192,28 +31258,28 @@
       <c r="E801" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F801" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G801" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H801" s="4" t="s">
-        <v>1223</v>
+      <c r="F801" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G801" s="17" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H801" t="s">
+        <v>3021</v>
       </c>
       <c r="I801" t="s">
-        <v>1224</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="802" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
-        <v>408</v>
+        <v>2143</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>9</v>
@@ -31221,25 +31287,28 @@
       <c r="E802" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F802" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G802" s="4" t="s">
-        <v>1226</v>
+      <c r="F802" s="17" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G802" s="16" t="s">
+        <v>2145</v>
       </c>
       <c r="H802" s="4" t="s">
-        <v>1225</v>
+        <v>3022</v>
+      </c>
+      <c r="I802" s="16" t="s">
+        <v>2996</v>
       </c>
     </row>
     <row r="803" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
-        <v>409</v>
+        <v>2997</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="D803" s="3" t="s">
         <v>9</v>
@@ -31247,104 +31316,110 @@
       <c r="E803" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F803" s="4" t="s">
-        <v>328</v>
+      <c r="F803" s="16" t="s">
+        <v>2145</v>
       </c>
       <c r="G803" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H803" s="4" t="s">
-        <v>411</v>
+        <v>31</v>
+      </c>
+      <c r="H803" s="16" t="s">
+        <v>3001</v>
+      </c>
+      <c r="I803" s="19" t="s">
+        <v>2992</v>
       </c>
     </row>
     <row r="804" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="3" t="s">
-        <v>1835</v>
+      <c r="A804" s="16" t="s">
+        <v>2993</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>1836</v>
+        <v>11</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E804" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F804" s="4" t="s">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="G804" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="H804" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="H804" s="17" t="s">
+        <v>2998</v>
+      </c>
+      <c r="I804" t="s">
+        <v>2274</v>
+      </c>
     </row>
     <row r="805" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
-        <v>412</v>
+        <v>1938</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>198</v>
+        <v>1940</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E805" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F805" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G805" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I805" s="3" t="s">
-        <v>1228</v>
+      <c r="F805" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G805" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H805" s="4"/>
+      <c r="I805" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="806" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
-        <v>413</v>
+        <v>1939</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>198</v>
+        <v>1940</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E806" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F806" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G806" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H806" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I806" s="3" t="s">
-        <v>1229</v>
+      <c r="F806" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G806" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H806" s="4" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="807" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c r="D807" s="3" t="s">
         <v>9</v>
@@ -31352,28 +31427,25 @@
       <c r="E807" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F807" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G807" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H807" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I807" t="s">
-        <v>1232</v>
+      <c r="F807" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G807" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H807" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="808" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="D808" s="3" t="s">
         <v>9</v>
@@ -31381,28 +31453,28 @@
       <c r="E808" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F808" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G808" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H808" s="3" t="s">
-        <v>1231</v>
+      <c r="F808" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G808" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H808" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="I808" t="s">
-        <v>417</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="809" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="D809" s="3" t="s">
         <v>9</v>
@@ -31410,25 +31482,25 @@
       <c r="E809" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F809" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G809" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H809" s="3" t="s">
-        <v>415</v>
+      <c r="F809" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G809" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H809" s="4" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="810" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B810" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="D810" s="3" t="s">
         <v>9</v>
@@ -31436,28 +31508,25 @@
       <c r="E810" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F810" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G810" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H810" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I810" t="s">
-        <v>1234</v>
+      <c r="F810" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G810" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H810" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="811" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
-        <v>420</v>
+        <v>1835</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>284</v>
+        <v>1836</v>
       </c>
       <c r="D811" s="3" t="s">
         <v>9</v>
@@ -31465,213 +31534,237 @@
       <c r="E811" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F811" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="G811" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H811" s="3" t="s">
-        <v>423</v>
-      </c>
+      <c r="F811" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G811" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="H811" s="4"/>
     </row>
     <row r="812" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E812" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F812" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G812" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H812" s="4" t="s">
-        <v>426</v>
+        <v>167</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I812" s="3" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="813" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
-        <v>557</v>
+        <v>413</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E813" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F813" s="3" t="s">
-        <v>2138</v>
+        <v>195</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="H813" s="3" t="s">
-        <v>3023</v>
+        <v>1227</v>
       </c>
       <c r="I813" s="3" t="s">
-        <v>2140</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="814" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
-        <v>1571</v>
+        <v>414</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E814" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F814" s="3" t="s">
-        <v>2139</v>
+        <v>281</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="H814" s="3" t="s">
-        <v>2999</v>
-      </c>
-      <c r="I814" s="3" t="s">
-        <v>2141</v>
+        <v>1230</v>
+      </c>
+      <c r="I814" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="815" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
-        <v>1572</v>
+        <v>415</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E815" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F815" s="3"/>
+      <c r="F815" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="H815" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="I815" s="3" t="s">
-        <v>1573</v>
+        <v>1231</v>
+      </c>
+      <c r="I815" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="816" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
-        <v>1573</v>
+        <v>417</v>
       </c>
       <c r="B816" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E816" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F816" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>418</v>
+      </c>
       <c r="H816" s="3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="I816" s="3" t="s">
-        <v>1574</v>
+        <v>415</v>
       </c>
     </row>
     <row r="817" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
-        <v>1574</v>
+        <v>419</v>
       </c>
       <c r="B817" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E817" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F817" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="H817" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I817" s="3" t="s">
-        <v>1575</v>
+        <v>1233</v>
+      </c>
+      <c r="I817" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="818" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
-        <v>1575</v>
+        <v>420</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E818" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F818" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="H818" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="I818" s="3" t="s">
-        <v>1576</v>
+        <v>423</v>
       </c>
     </row>
     <row r="819" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
-        <v>1576</v>
+        <v>424</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E819" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H819" s="3" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I819" s="3" t="s">
-        <v>2137</v>
+      <c r="F819" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G819" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H819" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="820" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
-        <v>2137</v>
+        <v>557</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>1296</v>
@@ -31685,16 +31778,19 @@
       <c r="E820" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F820" s="3" t="s">
+        <v>2138</v>
+      </c>
       <c r="H820" s="3" t="s">
-        <v>1576</v>
+        <v>3023</v>
       </c>
       <c r="I820" s="3" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="821" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
-        <v>2136</v>
+        <v>1571</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>1296</v>
@@ -31708,19 +31804,19 @@
       <c r="E821" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G821" s="3" t="s">
-        <v>2173</v>
+      <c r="F821" s="3" t="s">
+        <v>2139</v>
       </c>
       <c r="H821" s="3" t="s">
-        <v>2137</v>
+        <v>2999</v>
       </c>
       <c r="I821" s="3" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="822" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
-        <v>2146</v>
+        <v>1572</v>
       </c>
       <c r="B822" s="3" t="s">
         <v>1296</v>
@@ -31729,24 +31825,22 @@
         <v>324</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E822" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F822" s="3" t="s">
-        <v>2173</v>
-      </c>
-      <c r="G822" s="3" t="s">
-        <v>333</v>
-      </c>
+      <c r="F822" s="3"/>
       <c r="H822" s="3" t="s">
-        <v>2136</v>
+        <v>2142</v>
+      </c>
+      <c r="I822" s="3" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="823" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>1296</v>
@@ -31760,15 +31854,16 @@
       <c r="E823" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F823" s="3"/>
-      <c r="G823" s="3"/>
-      <c r="H823" s="16" t="s">
-        <v>2147</v>
+      <c r="H823" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I823" s="3" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="824" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>1296</v>
@@ -31782,17 +31877,16 @@
       <c r="E824" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F824" s="3"/>
-      <c r="G824" s="16" t="s">
-        <v>2150</v>
-      </c>
-      <c r="H824" s="16" t="s">
-        <v>2151</v>
+      <c r="H824" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I824" s="3" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="825" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>1296</v>
@@ -31806,17 +31900,16 @@
       <c r="E825" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F825" s="3"/>
-      <c r="G825" s="16" t="s">
-        <v>2149</v>
-      </c>
-      <c r="H825" s="16" t="s">
-        <v>2148</v>
+      <c r="H825" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I825" s="3" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="826" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>1296</v>
@@ -31830,18 +31923,16 @@
       <c r="E826" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F826" s="3"/>
-      <c r="G826" s="16"/>
-      <c r="H826" s="16" t="s">
-        <v>2164</v>
-      </c>
-      <c r="I826" s="16" t="s">
-        <v>2165</v>
+      <c r="H826" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="827" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
-        <v>1590</v>
+        <v>2137</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>1296</v>
@@ -31855,18 +31946,16 @@
       <c r="E827" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F827" s="3"/>
-      <c r="G827" s="16"/>
-      <c r="H827" s="16" t="s">
-        <v>2166</v>
-      </c>
-      <c r="I827" s="16" t="s">
-        <v>2167</v>
+      <c r="H827" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I827" s="3" t="s">
+        <v>2136</v>
       </c>
     </row>
     <row r="828" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
-        <v>1591</v>
+        <v>2136</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>1296</v>
@@ -31880,17 +31969,19 @@
       <c r="E828" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F828" s="3"/>
-      <c r="G828" s="16" t="s">
-        <v>2174</v>
-      </c>
-      <c r="H828" s="16" t="s">
-        <v>2168</v>
+      <c r="G828" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H828" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="I828" s="3" t="s">
+        <v>2146</v>
       </c>
     </row>
     <row r="829" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
-        <v>2085</v>
+        <v>2146</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>1296</v>
@@ -31899,22 +31990,24 @@
         <v>324</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E829" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F829" s="3"/>
-      <c r="G829" s="16" t="s">
-        <v>2174</v>
-      </c>
-      <c r="H829" s="16" t="s">
-        <v>2169</v>
+      <c r="F829" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H829" s="3" t="s">
+        <v>2136</v>
       </c>
     </row>
     <row r="830" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
-        <v>2161</v>
+        <v>1586</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>1296</v>
@@ -31929,17 +32022,14 @@
         <v>10</v>
       </c>
       <c r="F830" s="3"/>
-      <c r="G830" s="16"/>
+      <c r="G830" s="3"/>
       <c r="H830" s="16" t="s">
-        <v>2170</v>
-      </c>
-      <c r="I830" s="16" t="s">
-        <v>2171</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="831" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
-        <v>2162</v>
+        <v>1587</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>1296</v>
@@ -31954,14 +32044,16 @@
         <v>10</v>
       </c>
       <c r="F831" s="3"/>
-      <c r="G831" s="16"/>
+      <c r="G831" s="16" t="s">
+        <v>2150</v>
+      </c>
       <c r="H831" s="16" t="s">
-        <v>2172</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="832" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
-        <v>2163</v>
+        <v>1588</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>1296</v>
@@ -31977,15 +32069,15 @@
       </c>
       <c r="F832" s="3"/>
       <c r="G832" s="16" t="s">
-        <v>2174</v>
+        <v>2149</v>
       </c>
       <c r="H832" s="16" t="s">
-        <v>2171</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="833" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
-        <v>2120</v>
+        <v>1589</v>
       </c>
       <c r="B833" s="3" t="s">
         <v>1296</v>
@@ -31999,19 +32091,18 @@
       <c r="E833" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F833" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H833" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I833" s="3" t="s">
-        <v>2121</v>
+      <c r="F833" s="3"/>
+      <c r="G833" s="16"/>
+      <c r="H833" s="16" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I833" s="16" t="s">
+        <v>2165</v>
       </c>
     </row>
     <row r="834" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
-        <v>2121</v>
+        <v>1590</v>
       </c>
       <c r="B834" s="3" t="s">
         <v>1296</v>
@@ -32025,16 +32116,18 @@
       <c r="E834" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H834" s="3" t="s">
-        <v>2120</v>
-      </c>
-      <c r="I834" s="3" t="s">
-        <v>2131</v>
+      <c r="F834" s="3"/>
+      <c r="G834" s="16"/>
+      <c r="H834" s="16" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I834" s="16" t="s">
+        <v>2167</v>
       </c>
     </row>
     <row r="835" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
-        <v>2123</v>
+        <v>1591</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>1296</v>
@@ -32048,16 +32141,17 @@
       <c r="E835" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H835" s="3" t="s">
-        <v>2132</v>
-      </c>
-      <c r="I835" s="3" t="s">
-        <v>2125</v>
+      <c r="F835" s="3"/>
+      <c r="G835" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H835" s="16" t="s">
+        <v>2168</v>
       </c>
     </row>
     <row r="836" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
-        <v>2125</v>
+        <v>2085</v>
       </c>
       <c r="B836" s="3" t="s">
         <v>1296</v>
@@ -32071,16 +32165,17 @@
       <c r="E836" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H836" s="3" t="s">
-        <v>2123</v>
-      </c>
-      <c r="I836" s="3" t="s">
-        <v>2127</v>
+      <c r="F836" s="3"/>
+      <c r="G836" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H836" s="16" t="s">
+        <v>2169</v>
       </c>
     </row>
     <row r="837" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
-        <v>2127</v>
+        <v>2161</v>
       </c>
       <c r="B837" s="3" t="s">
         <v>1296</v>
@@ -32094,13 +32189,18 @@
       <c r="E837" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H837" s="3" t="s">
-        <v>2125</v>
+      <c r="F837" s="3"/>
+      <c r="G837" s="16"/>
+      <c r="H837" s="16" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I837" s="16" t="s">
+        <v>2171</v>
       </c>
     </row>
     <row r="838" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
-        <v>2133</v>
+        <v>2162</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>1296</v>
@@ -32114,16 +32214,15 @@
       <c r="E838" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H838" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I838" s="3" t="s">
-        <v>2124</v>
+      <c r="F838" s="3"/>
+      <c r="G838" s="16"/>
+      <c r="H838" s="16" t="s">
+        <v>2172</v>
       </c>
     </row>
     <row r="839" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
-        <v>2134</v>
+        <v>2163</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>1296</v>
@@ -32137,16 +32236,17 @@
       <c r="E839" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H839" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="I839" s="3" t="s">
-        <v>2128</v>
+      <c r="F839" s="3"/>
+      <c r="G839" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H839" s="16" t="s">
+        <v>2171</v>
       </c>
     </row>
     <row r="840" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
-        <v>2135</v>
+        <v>2120</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>1296</v>
@@ -32160,14 +32260,19 @@
       <c r="E840" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F840" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="H840" s="3" t="s">
-        <v>2122</v>
-      </c>
-      <c r="I840" s="3"/>
+        <v>1592</v>
+      </c>
+      <c r="I840" s="3" t="s">
+        <v>2121</v>
+      </c>
     </row>
     <row r="841" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
-        <v>1570</v>
+        <v>2121</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>1296</v>
@@ -32176,164 +32281,139 @@
         <v>324</v>
       </c>
       <c r="D841" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E841" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F841" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G841" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="H841" s="3" t="s">
-        <v>1584</v>
+        <v>2120</v>
+      </c>
+      <c r="I841" s="3" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="842" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
-        <v>2112</v>
+        <v>2123</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>2113</v>
+        <v>324</v>
       </c>
       <c r="D842" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E842" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F842" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G842" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="H842" s="3"/>
+      <c r="H842" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I842" s="3" t="s">
+        <v>2125</v>
+      </c>
     </row>
     <row r="843" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
-        <v>1740</v>
+        <v>2125</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>2114</v>
+        <v>324</v>
       </c>
       <c r="D843" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E843" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F843" s="3" t="s">
-        <v>1748</v>
-      </c>
-      <c r="G843" s="3" t="s">
-        <v>1744</v>
+      <c r="H843" s="3" t="s">
+        <v>2123</v>
       </c>
       <c r="I843" s="3" t="s">
-        <v>1741</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="844" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
-        <v>1741</v>
+        <v>2127</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>2114</v>
+        <v>324</v>
       </c>
       <c r="D844" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E844" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F844" s="3" t="s">
-        <v>1744</v>
-      </c>
-      <c r="G844" s="3" t="s">
-        <v>1745</v>
-      </c>
       <c r="H844" s="3" t="s">
-        <v>1740</v>
-      </c>
-      <c r="I844" s="3" t="s">
-        <v>1742</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="845" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
-        <v>1742</v>
+        <v>2133</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>2114</v>
+        <v>324</v>
       </c>
       <c r="D845" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E845" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F845" s="3" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G845" s="3" t="s">
-        <v>1746</v>
-      </c>
       <c r="H845" s="3" t="s">
-        <v>1741</v>
+        <v>1139</v>
       </c>
       <c r="I845" s="3" t="s">
-        <v>1743</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="846" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
-        <v>1743</v>
+        <v>2134</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C846" s="3" t="s">
-        <v>2114</v>
+        <v>324</v>
       </c>
       <c r="D846" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E846" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F846" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G846" s="3" t="s">
-        <v>1747</v>
-      </c>
       <c r="H846" s="3" t="s">
-        <v>1742</v>
+        <v>2126</v>
+      </c>
+      <c r="I846" s="3" t="s">
+        <v>2128</v>
       </c>
     </row>
     <row r="847" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
-        <v>1881</v>
+        <v>2135</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>1882</v>
+        <v>324</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>33</v>
@@ -32341,100 +32421,96 @@
       <c r="E847" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F847" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G847" s="3" t="s">
-        <v>1883</v>
-      </c>
       <c r="H847" s="3" t="s">
-        <v>2096</v>
-      </c>
+        <v>2122</v>
+      </c>
+      <c r="I847" s="3"/>
     </row>
     <row r="848" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
-        <v>3030</v>
+        <v>1570</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C848" s="3" t="s">
-        <v>3031</v>
+        <v>324</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E848" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F848" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G848" s="3" t="s">
-        <v>3032</v>
+        <v>370</v>
+      </c>
+      <c r="H848" s="3" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="849" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
-        <v>3039</v>
+        <v>2112</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>3033</v>
+        <v>2113</v>
       </c>
       <c r="D849" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E849" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F849" s="3" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="G849" s="3" t="s">
-        <v>3034</v>
-      </c>
-      <c r="H849" s="3" t="s">
-        <v>3035</v>
-      </c>
+        <v>2115</v>
+      </c>
+      <c r="H849" s="3"/>
     </row>
     <row r="850" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
-        <v>3040</v>
+        <v>1740</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>3036</v>
+        <v>2114</v>
       </c>
       <c r="D850" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E850" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F850" s="3" t="s">
-        <v>45</v>
+        <v>1748</v>
       </c>
       <c r="G850" s="3" t="s">
-        <v>3037</v>
-      </c>
-      <c r="H850" s="3" t="s">
-        <v>3038</v>
+        <v>1744</v>
+      </c>
+      <c r="I850" s="3" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="851" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
-        <v>3085</v>
+        <v>1741</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>58</v>
+        <v>2114</v>
       </c>
       <c r="D851" s="3" t="s">
         <v>9</v>
@@ -32442,25 +32518,28 @@
       <c r="E851" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F851" s="4" t="s">
-        <v>211</v>
+      <c r="F851" s="3" t="s">
+        <v>1744</v>
       </c>
       <c r="G851" s="3" t="s">
-        <v>3086</v>
+        <v>1745</v>
+      </c>
+      <c r="H851" s="3" t="s">
+        <v>1740</v>
       </c>
       <c r="I851" s="3" t="s">
-        <v>3093</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="852" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
-        <v>3087</v>
+        <v>1742</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>58</v>
+        <v>2114</v>
       </c>
       <c r="D852" s="3" t="s">
         <v>9</v>
@@ -32469,27 +32548,27 @@
         <v>10</v>
       </c>
       <c r="F852" s="3" t="s">
-        <v>3086</v>
+        <v>1745</v>
       </c>
       <c r="G852" s="3" t="s">
-        <v>3091</v>
+        <v>1746</v>
       </c>
       <c r="H852" s="3" t="s">
-        <v>3094</v>
+        <v>1741</v>
       </c>
       <c r="I852" s="3" t="s">
-        <v>3095</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="853" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
-        <v>3088</v>
+        <v>1743</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>58</v>
+        <v>2114</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>9</v>
@@ -32498,137 +32577,125 @@
         <v>10</v>
       </c>
       <c r="F853" s="3" t="s">
-        <v>3091</v>
+        <v>1746</v>
       </c>
       <c r="G853" s="3" t="s">
-        <v>3092</v>
+        <v>1747</v>
       </c>
       <c r="H853" s="3" t="s">
-        <v>3096</v>
-      </c>
-      <c r="I853" s="3" t="s">
-        <v>3097</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="854" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
-        <v>3089</v>
+        <v>1881</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>58</v>
+        <v>1882</v>
       </c>
       <c r="D854" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E854" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F854" s="3" t="s">
-        <v>3092</v>
+        <v>45</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>3083</v>
+        <v>1883</v>
       </c>
       <c r="H854" s="3" t="s">
-        <v>3098</v>
-      </c>
-      <c r="I854" s="3" t="s">
-        <v>3099</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="855" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
-        <v>3090</v>
+        <v>3030</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>58</v>
+        <v>3031</v>
       </c>
       <c r="D855" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E855" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F855" s="3" t="s">
-        <v>3083</v>
+        <v>333</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H855" s="3" t="s">
-        <v>3100</v>
-      </c>
-      <c r="I855" s="3" t="s">
-        <v>3101</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="856" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
-        <v>3102</v>
+        <v>3039</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C856" s="3" t="s">
-        <v>3086</v>
+        <v>3033</v>
       </c>
       <c r="D856" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E856" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F856" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>2076</v>
+        <v>3034</v>
       </c>
       <c r="H856" s="3" t="s">
-        <v>3105</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="857" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
-        <v>3103</v>
+        <v>3040</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>3092</v>
+        <v>3036</v>
       </c>
       <c r="D857" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E857" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>2076</v>
+        <v>3037</v>
       </c>
       <c r="H857" s="3" t="s">
-        <v>3106</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="858" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
-        <v>3104</v>
+        <v>3085</v>
       </c>
       <c r="B858" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C858" s="3" t="s">
-        <v>3091</v>
+        <v>58</v>
       </c>
       <c r="D858" s="3" t="s">
         <v>9</v>
@@ -32636,28 +32703,25 @@
       <c r="E858" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F858" s="3" t="s">
-        <v>58</v>
+      <c r="F858" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="G858" s="3" t="s">
-        <v>2767</v>
-      </c>
-      <c r="H858" s="3" t="s">
-        <v>3107</v>
+        <v>3086</v>
       </c>
       <c r="I858" s="3" t="s">
-        <v>3109</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="859" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
-        <v>3108</v>
+        <v>3087</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>3111</v>
+        <v>58</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>9</v>
@@ -32666,27 +32730,27 @@
         <v>10</v>
       </c>
       <c r="F859" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="G859" s="3" t="s">
         <v>3091</v>
       </c>
-      <c r="G859" s="3" t="s">
-        <v>3112</v>
-      </c>
       <c r="H859" s="3" t="s">
-        <v>3113</v>
+        <v>3094</v>
       </c>
       <c r="I859" s="3" t="s">
-        <v>3115</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="860" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
-        <v>3110</v>
+        <v>3088</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>3111</v>
+        <v>58</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>9</v>
@@ -32695,15 +32759,212 @@
         <v>10</v>
       </c>
       <c r="F860" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="G860" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="H860" s="3" t="s">
+        <v>3096</v>
+      </c>
+      <c r="I860" s="3" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A861" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C861" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E861" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F861" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="G861" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="H861" s="3" t="s">
+        <v>3098</v>
+      </c>
+      <c r="I861" s="3" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C862" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E862" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F862" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="G862" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H862" s="3" t="s">
+        <v>3100</v>
+      </c>
+      <c r="I862" s="3" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="3" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C863" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E863" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F863" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G863" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H863" s="3" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C864" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E864" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F864" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G864" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H864" s="3" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C865" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D865" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E865" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F865" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G865" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="H865" s="3" t="s">
+        <v>3107</v>
+      </c>
+      <c r="I865" s="3" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C866" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E866" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F866" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="G866" s="3" t="s">
         <v>3112</v>
       </c>
-      <c r="G860" s="3" t="s">
+      <c r="H866" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="I866" s="3" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="3" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C867" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E867" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F867" s="3" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G867" s="3" t="s">
         <v>3091</v>
       </c>
-      <c r="H860" s="3" t="s">
+      <c r="H867" s="3" t="s">
         <v>3116</v>
       </c>
-      <c r="I860" s="3" t="s">
+      <c r="I867" s="3" t="s">
         <v>3114</v>
       </c>
     </row>
@@ -58967,11 +59228,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y409"/>
+  <dimension ref="A1:Y411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C407" sqref="C407"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -63518,6 +63779,28 @@
         <v>3034</v>
       </c>
     </row>
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C411" t="s">
+        <v>3140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8818" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8876" uniqueCount="3358">
   <si>
     <t>trackID</t>
   </si>
@@ -10023,6 +10023,78 @@
   </si>
   <si>
     <t>AHMK03, AHMKW01</t>
+  </si>
+  <si>
+    <t>IRNL05</t>
+  </si>
+  <si>
+    <t>IRNL06</t>
+  </si>
+  <si>
+    <t>IRNL07</t>
+  </si>
+  <si>
+    <t>Top of the Morn Campground</t>
+  </si>
+  <si>
+    <t>Unnamed road off of Iron Lake Rd</t>
+  </si>
+  <si>
+    <t>IRNL04, DPLE07</t>
+  </si>
+  <si>
+    <t>IRNL06, TOTM01</t>
+  </si>
+  <si>
+    <t>IRNL05, TOTM01</t>
+  </si>
+  <si>
+    <t>IRNL07, TRIL01</t>
+  </si>
+  <si>
+    <t>IRNL06, TRIL01</t>
+  </si>
+  <si>
+    <t>TRIL01</t>
+  </si>
+  <si>
+    <t>TOTM01</t>
+  </si>
+  <si>
+    <t>Semi-Private</t>
+  </si>
+  <si>
+    <t>IRNL05, IRNL06</t>
+  </si>
+  <si>
+    <t>IRNL06, IRNL07</t>
+  </si>
+  <si>
+    <t>GLGR01</t>
+  </si>
+  <si>
+    <t>GLGR02</t>
+  </si>
+  <si>
+    <t>Gallagher Rd</t>
+  </si>
+  <si>
+    <t>ATV/Snow Trail #24</t>
+  </si>
+  <si>
+    <t>Jones Lake Rd / Ahmeek Lake Rd</t>
+  </si>
+  <si>
+    <t>JNSL07, AHMK01</t>
+  </si>
+  <si>
+    <t>Pero Rd / Lindgren Rd / Hughes Town Hall Rd</t>
+  </si>
+  <si>
+    <t>JNSL07, GLGR02</t>
+  </si>
+  <si>
+    <t>AHMK01, GLGR02</t>
   </si>
 </sst>
 </file>
@@ -10371,13 +10443,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X931"/>
+  <dimension ref="A1:X938"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="I492" sqref="I492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10461,7 +10533,7 @@
         <v>3300</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>3282</v>
+        <v>3356</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>3292</v>
@@ -23491,7 +23563,7 @@
         <v>3285</v>
       </c>
       <c r="I491" s="16" t="s">
-        <v>3291</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -35332,6 +35404,194 @@
       </c>
       <c r="I931" s="3" t="s">
         <v>3330</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A932" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C932" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D932" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E932" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F932" s="3" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G932" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="H932" s="3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I932" s="3" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B933" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C933" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D933" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E933" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F933" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G933" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H933" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="I933" s="3" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A934" s="3" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B934" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C934" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F934" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G934" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H934" s="3" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B935" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C935" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F935" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="G935" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H935" s="3" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="3" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B936" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C936" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D936" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E936" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F936" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="H936" s="3" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C937" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D937" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E937" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F937" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="G937" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="I937" s="3" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A938" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B938" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C938" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D938" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E938" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F938" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G938" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="H938" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I938" s="3" t="s">
+        <v>3354</v>
       </c>
     </row>
   </sheetData>

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9082" uniqueCount="3413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9152" uniqueCount="3428">
   <si>
     <t>trackID</t>
   </si>
@@ -10229,9 +10229,6 @@
     <t>LNGE08</t>
   </si>
   <si>
-    <t>LNGE09</t>
-  </si>
-  <si>
     <t>ISLB01</t>
   </si>
   <si>
@@ -10253,13 +10250,61 @@
     <t>LNGE03</t>
   </si>
   <si>
-    <t>LNGE09, ISLB01</t>
-  </si>
-  <si>
     <t>LNGE08, ISLB01</t>
   </si>
   <si>
-    <t>LNGE08, LNGE09</t>
+    <t>LNGE02</t>
+  </si>
+  <si>
+    <t>LNGE07, ISLB01</t>
+  </si>
+  <si>
+    <t>LNGE07, LNGE08</t>
+  </si>
+  <si>
+    <t>LNGE01</t>
+  </si>
+  <si>
+    <t>US Hwy 2</t>
+  </si>
+  <si>
+    <t>ATV/Snow Trail Tri-County Corridor</t>
+  </si>
+  <si>
+    <t>LNGE03, FR24201</t>
+  </si>
+  <si>
+    <t>FR24201</t>
+  </si>
+  <si>
+    <t>FR24202</t>
+  </si>
+  <si>
+    <t>FR24203</t>
+  </si>
+  <si>
+    <t>FR24204</t>
+  </si>
+  <si>
+    <t>FR24205</t>
+  </si>
+  <si>
+    <t>FR24206</t>
+  </si>
+  <si>
+    <t>Check Type</t>
+  </si>
+  <si>
+    <t>Unnamed trail off FR242</t>
+  </si>
+  <si>
+    <t>ATV/Snow Trail #21</t>
+  </si>
+  <si>
+    <t>Fire Tower Rd</t>
+  </si>
+  <si>
+    <t>Loon Lake Rd</t>
   </si>
 </sst>
 </file>
@@ -10608,13 +10653,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X962"/>
+  <dimension ref="A1:X971"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B933" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B942" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H963" sqref="H963"/>
+      <selection pane="bottomRight" activeCell="H970" sqref="H970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36207,7 +36252,7 @@
     </row>
     <row r="955" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3" t="s">
-        <v>3394</v>
+        <v>3413</v>
       </c>
       <c r="B955" s="3" t="s">
         <v>1296</v>
@@ -36222,21 +36267,19 @@
         <v>10</v>
       </c>
       <c r="F955" s="3" t="s">
-        <v>3396</v>
+        <v>3414</v>
       </c>
       <c r="G955" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="H955" s="3" t="s">
-        <v>3409</v>
-      </c>
+        <v>3415</v>
+      </c>
+      <c r="H955" s="3"/>
       <c r="I955" s="3" t="s">
-        <v>3398</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="956" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3" t="s">
-        <v>3398</v>
+        <v>3410</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1296</v>
@@ -36251,21 +36294,21 @@
         <v>10</v>
       </c>
       <c r="F956" s="3" t="s">
-        <v>3397</v>
+        <v>3415</v>
       </c>
       <c r="G956" s="3" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="H956" s="3" t="s">
-        <v>3394</v>
+        <v>3413</v>
       </c>
       <c r="I956" s="3" t="s">
-        <v>3399</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="957" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
-        <v>3399</v>
+        <v>3408</v>
       </c>
       <c r="B957" s="3" t="s">
         <v>1296</v>
@@ -36280,21 +36323,21 @@
         <v>10</v>
       </c>
       <c r="F957" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G957" s="3" t="s">
         <v>3397</v>
       </c>
-      <c r="G957" s="3" t="s">
-        <v>3407</v>
-      </c>
       <c r="H957" s="3" t="s">
-        <v>3398</v>
+        <v>3410</v>
       </c>
       <c r="I957" s="3" t="s">
-        <v>3400</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="958" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
-        <v>3400</v>
+        <v>3394</v>
       </c>
       <c r="B958" s="3" t="s">
         <v>1296</v>
@@ -36309,21 +36352,21 @@
         <v>10</v>
       </c>
       <c r="F958" s="3" t="s">
-        <v>3407</v>
+        <v>3397</v>
       </c>
       <c r="G958" s="3" t="s">
         <v>3397</v>
       </c>
       <c r="H958" s="3" t="s">
-        <v>3399</v>
+        <v>3408</v>
       </c>
       <c r="I958" s="3" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="959" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="B959" s="3" t="s">
         <v>1296</v>
@@ -36341,18 +36384,18 @@
         <v>3397</v>
       </c>
       <c r="G959" s="3" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="H959" s="3" t="s">
-        <v>3400</v>
+        <v>3394</v>
       </c>
       <c r="I959" s="3" t="s">
-        <v>3410</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="960" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B960" s="3" t="s">
         <v>1296</v>
@@ -36367,25 +36410,27 @@
         <v>10</v>
       </c>
       <c r="F960" s="3" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="G960" s="3" t="s">
-        <v>3408</v>
+        <v>3397</v>
       </c>
       <c r="H960" s="3" t="s">
-        <v>3411</v>
-      </c>
-      <c r="I960" s="3"/>
-    </row>
-    <row r="961" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3398</v>
+      </c>
+      <c r="I960" s="3" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="B961" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>3405</v>
+        <v>3395</v>
       </c>
       <c r="D961" s="3" t="s">
         <v>25</v>
@@ -36394,27 +36439,27 @@
         <v>10</v>
       </c>
       <c r="F961" s="3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="G961" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="H961" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I961" s="3" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C962" s="3" t="s">
         <v>3395</v>
-      </c>
-      <c r="G961" s="3" t="s">
-        <v>3406</v>
-      </c>
-      <c r="H961" s="3" t="s">
-        <v>3412</v>
-      </c>
-      <c r="I961" s="3" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="962" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="3" t="s">
-        <v>3404</v>
-      </c>
-      <c r="B962" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C962" s="3" t="s">
-        <v>3405</v>
       </c>
       <c r="D962" s="3" t="s">
         <v>25</v>
@@ -36423,11 +36468,241 @@
         <v>10</v>
       </c>
       <c r="F962" s="3" t="s">
-        <v>3406</v>
+        <v>3404</v>
+      </c>
+      <c r="G962" s="3" t="s">
+        <v>3407</v>
       </c>
       <c r="H962" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="I962" s="3"/>
+    </row>
+    <row r="963" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="3" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C963" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D963" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E963" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F963" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G963" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="H963" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="I963" s="3" t="s">
         <v>3403</v>
       </c>
+    </row>
+    <row r="964" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C964" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D964" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E964" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F964" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="H964" s="3" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C965" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D965" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E965" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F965" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G965" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="I965" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="J965" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C966" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D966" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E966" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F966" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G966" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="H966" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="I966" s="3" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C967" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D967" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E967" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F967" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G967" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="H967" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="I967" s="3" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C968" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D968" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E968" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F968" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G968" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="H968" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I968" s="3" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C969" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D969" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E969" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F969" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G969" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="H969" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="I969" s="3" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C970" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D970" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E970" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F970" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="G970" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="H970" s="3" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H971" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:X922">

--- a/Pike Chain Area/Data/Trail Mapping Info.xlsx
+++ b/Pike Chain Area/Data/Trail Mapping Info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9152" uniqueCount="3428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9319" uniqueCount="3469">
   <si>
     <t>trackID</t>
   </si>
@@ -10175,9 +10175,6 @@
     <t>W Moon Lake Rd</t>
   </si>
   <si>
-    <t>WMNL01</t>
-  </si>
-  <si>
     <t>W Spider Lake Rd Circle</t>
   </si>
   <si>
@@ -10202,9 +10199,6 @@
     <t>SPDW07, SPDW08</t>
   </si>
   <si>
-    <t>SPDW05, SPDW06</t>
-  </si>
-  <si>
     <t>LNGE04</t>
   </si>
   <si>
@@ -10305,6 +10299,135 @@
   </si>
   <si>
     <t>Loon Lake Rd</t>
+  </si>
+  <si>
+    <t>LNGW01</t>
+  </si>
+  <si>
+    <t>LNGW02</t>
+  </si>
+  <si>
+    <t>LNGS01</t>
+  </si>
+  <si>
+    <t>LNGS02</t>
+  </si>
+  <si>
+    <t>LNGS03</t>
+  </si>
+  <si>
+    <t>W Long Lake Rd</t>
+  </si>
+  <si>
+    <t>S Long Lake Rd</t>
+  </si>
+  <si>
+    <t>Angus Lake Rd</t>
+  </si>
+  <si>
+    <t>W Bay Dr</t>
+  </si>
+  <si>
+    <t>LNGW03, LNGS01</t>
+  </si>
+  <si>
+    <t>LNGW02, LNGW03</t>
+  </si>
+  <si>
+    <t>LNGN10</t>
+  </si>
+  <si>
+    <t>LNGN11</t>
+  </si>
+  <si>
+    <t>LNGN12</t>
+  </si>
+  <si>
+    <t>LNGN13</t>
+  </si>
+  <si>
+    <t>LNGN14</t>
+  </si>
+  <si>
+    <t>FTWR01</t>
+  </si>
+  <si>
+    <t>FTWR02</t>
+  </si>
+  <si>
+    <t>FTWR03</t>
+  </si>
+  <si>
+    <t>FTWR04</t>
+  </si>
+  <si>
+    <t>Pothole Rd [West]</t>
+  </si>
+  <si>
+    <t>Pothole Rd [East]</t>
+  </si>
+  <si>
+    <t>Bladder Lake Cutoff Rd</t>
+  </si>
+  <si>
+    <t>Fire Tower Rd / Bladder Lake Rd</t>
+  </si>
+  <si>
+    <t>Fire Tower / Unnamed trail to Tri-Lake Timbers</t>
+  </si>
+  <si>
+    <t>ATV/Snow Trail #31</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Fire Tower Rd</t>
+  </si>
+  <si>
+    <t>N Long Lake Rd / Bladder Lake Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail off N Long Lake Rd</t>
+  </si>
+  <si>
+    <t>FR24205, FR24206</t>
+  </si>
+  <si>
+    <t>TPSD01</t>
+  </si>
+  <si>
+    <t>TPSD02</t>
+  </si>
+  <si>
+    <t>TPSD03</t>
+  </si>
+  <si>
+    <t>LOON01</t>
+  </si>
+  <si>
+    <t>LOON02</t>
+  </si>
+  <si>
+    <t>LOON03</t>
+  </si>
+  <si>
+    <t>Topside Rd</t>
+  </si>
+  <si>
+    <t>Unnamed trail off Loon Lake Rd</t>
+  </si>
+  <si>
+    <t>FR847 / FR242</t>
+  </si>
+  <si>
+    <t>TPSD03, LOON01</t>
+  </si>
+  <si>
+    <t>TPSD02, LOON01</t>
+  </si>
+  <si>
+    <t>LOON02, FR24206</t>
+  </si>
+  <si>
+    <t>LOON01, FR24206</t>
   </si>
 </sst>
 </file>
@@ -10653,13 +10776,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X971"/>
+  <dimension ref="A1:X989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B942" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B943" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H970" sqref="H970"/>
+      <selection pane="bottomRight" activeCell="A954" sqref="A954:XFD954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36107,7 +36230,7 @@
         <v>3375</v>
       </c>
       <c r="I949" s="3" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="950" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36130,13 +36253,13 @@
         <v>3383</v>
       </c>
       <c r="G950" s="3" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="H950" s="3" t="s">
+        <v>3386</v>
+      </c>
+      <c r="I950" s="3" t="s">
         <v>3387</v>
-      </c>
-      <c r="I950" s="3" t="s">
-        <v>3388</v>
       </c>
     </row>
     <row r="951" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36156,16 +36279,16 @@
         <v>10</v>
       </c>
       <c r="F951" s="3" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="G951" s="3" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="H951" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I951" s="3" t="s">
         <v>3389</v>
-      </c>
-      <c r="I951" s="3" t="s">
-        <v>3390</v>
       </c>
     </row>
     <row r="952" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36185,13 +36308,13 @@
         <v>10</v>
       </c>
       <c r="F952" s="3" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="G952" s="3" t="s">
         <v>839</v>
       </c>
       <c r="H952" s="3" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="I952" s="3"/>
     </row>
@@ -36203,7 +36326,7 @@
         <v>1296</v>
       </c>
       <c r="C953" s="3" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="D953" s="3" t="s">
         <v>25</v>
@@ -36218,21 +36341,21 @@
         <v>3382</v>
       </c>
       <c r="H953" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I953" s="3" t="s">
         <v>3391</v>
-      </c>
-      <c r="I953" s="3" t="s">
-        <v>3392</v>
       </c>
     </row>
     <row r="954" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3" t="s">
-        <v>3384</v>
+        <v>3411</v>
       </c>
       <c r="B954" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C954" s="3" t="s">
-        <v>3383</v>
+        <v>3393</v>
       </c>
       <c r="D954" s="3" t="s">
         <v>25</v>
@@ -36241,24 +36364,25 @@
         <v>10</v>
       </c>
       <c r="F954" s="3" t="s">
-        <v>3382</v>
+        <v>3412</v>
       </c>
       <c r="G954" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="H954" s="3" t="s">
-        <v>3393</v>
+        <v>3413</v>
+      </c>
+      <c r="H954" s="3"/>
+      <c r="I954" s="3" t="s">
+        <v>3408</v>
       </c>
     </row>
     <row r="955" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B955" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C955" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D955" s="3" t="s">
         <v>25</v>
@@ -36267,25 +36391,27 @@
         <v>10</v>
       </c>
       <c r="F955" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G955" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H955" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="I955" s="3" t="s">
         <v>3414</v>
-      </c>
-      <c r="G955" s="3" t="s">
-        <v>3415</v>
-      </c>
-      <c r="H955" s="3"/>
-      <c r="I955" s="3" t="s">
-        <v>3410</v>
       </c>
     </row>
     <row r="956" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3" t="s">
-        <v>3410</v>
+        <v>3406</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C956" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D956" s="3" t="s">
         <v>25</v>
@@ -36294,27 +36420,27 @@
         <v>10</v>
       </c>
       <c r="F956" s="3" t="s">
-        <v>3415</v>
+        <v>3394</v>
       </c>
       <c r="G956" s="3" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="H956" s="3" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="I956" s="3" t="s">
-        <v>3416</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="957" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
-        <v>3408</v>
+        <v>3392</v>
       </c>
       <c r="B957" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C957" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D957" s="3" t="s">
         <v>25</v>
@@ -36323,27 +36449,27 @@
         <v>10</v>
       </c>
       <c r="F957" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G957" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H957" s="3" t="s">
+        <v>3406</v>
+      </c>
+      <c r="I957" s="3" t="s">
         <v>3396</v>
-      </c>
-      <c r="G957" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="H957" s="3" t="s">
-        <v>3410</v>
-      </c>
-      <c r="I957" s="3" t="s">
-        <v>3394</v>
       </c>
     </row>
     <row r="958" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="B958" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C958" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D958" s="3" t="s">
         <v>25</v>
@@ -36352,27 +36478,27 @@
         <v>10</v>
       </c>
       <c r="F958" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G958" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="H958" s="3" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I958" s="3" t="s">
         <v>3397</v>
-      </c>
-      <c r="G958" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="H958" s="3" t="s">
-        <v>3408</v>
-      </c>
-      <c r="I958" s="3" t="s">
-        <v>3398</v>
       </c>
     </row>
     <row r="959" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="B959" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C959" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D959" s="3" t="s">
         <v>25</v>
@@ -36381,27 +36507,27 @@
         <v>10</v>
       </c>
       <c r="F959" s="3" t="s">
-        <v>3397</v>
+        <v>3404</v>
       </c>
       <c r="G959" s="3" t="s">
-        <v>3406</v>
+        <v>3395</v>
       </c>
       <c r="H959" s="3" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="I959" s="3" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="960" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B960" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C960" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D960" s="3" t="s">
         <v>25</v>
@@ -36410,27 +36536,27 @@
         <v>10</v>
       </c>
       <c r="F960" s="3" t="s">
-        <v>3406</v>
+        <v>3395</v>
       </c>
       <c r="G960" s="3" t="s">
+        <v>3402</v>
+      </c>
+      <c r="H960" s="3" t="s">
         <v>3397</v>
       </c>
-      <c r="H960" s="3" t="s">
-        <v>3398</v>
-      </c>
       <c r="I960" s="3" t="s">
-        <v>3400</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="961" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B961" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="D961" s="3" t="s">
         <v>25</v>
@@ -36439,27 +36565,25 @@
         <v>10</v>
       </c>
       <c r="F961" s="3" t="s">
-        <v>3397</v>
+        <v>3402</v>
       </c>
       <c r="G961" s="3" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="H961" s="3" t="s">
-        <v>3399</v>
-      </c>
-      <c r="I961" s="3" t="s">
         <v>3409</v>
       </c>
+      <c r="I961" s="3"/>
     </row>
     <row r="962" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B962" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C962" s="3" t="s">
-        <v>3395</v>
+        <v>3402</v>
       </c>
       <c r="D962" s="3" t="s">
         <v>25</v>
@@ -36468,25 +36592,27 @@
         <v>10</v>
       </c>
       <c r="F962" s="3" t="s">
-        <v>3404</v>
+        <v>3393</v>
       </c>
       <c r="G962" s="3" t="s">
-        <v>3407</v>
+        <v>3403</v>
       </c>
       <c r="H962" s="3" t="s">
-        <v>3411</v>
-      </c>
-      <c r="I962" s="3"/>
+        <v>3410</v>
+      </c>
+      <c r="I962" s="3" t="s">
+        <v>3401</v>
+      </c>
     </row>
     <row r="963" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C963" s="3" t="s">
         <v>3402</v>
-      </c>
-      <c r="B963" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C963" s="3" t="s">
-        <v>3404</v>
       </c>
       <c r="D963" s="3" t="s">
         <v>25</v>
@@ -36495,50 +36621,50 @@
         <v>10</v>
       </c>
       <c r="F963" s="3" t="s">
-        <v>3395</v>
-      </c>
-      <c r="G963" s="3" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="H963" s="3" t="s">
-        <v>3412</v>
-      </c>
-      <c r="I963" s="3" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="964" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="3" t="s">
-        <v>3403</v>
+        <v>3415</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C964" s="3" t="s">
-        <v>3404</v>
+        <v>3394</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E964" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F964" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="H964" s="3" t="s">
-        <v>3402</v>
+        <v>3393</v>
+      </c>
+      <c r="G964" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="I964" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="J964" t="s">
+        <v>3421</v>
       </c>
     </row>
     <row r="965" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="3" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="B965" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C965" s="3" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D965" s="3" t="s">
         <v>9</v>
@@ -36547,27 +36673,27 @@
         <v>10</v>
       </c>
       <c r="F965" s="3" t="s">
-        <v>3395</v>
+        <v>3422</v>
       </c>
       <c r="G965" s="3" t="s">
-        <v>3424</v>
+        <v>3422</v>
+      </c>
+      <c r="H965" s="3" t="s">
+        <v>3415</v>
       </c>
       <c r="I965" s="3" t="s">
-        <v>3418</v>
-      </c>
-      <c r="J965" t="s">
-        <v>3423</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="966" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="3" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="B966" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C966" s="3" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D966" s="3" t="s">
         <v>9</v>
@@ -36576,27 +36702,27 @@
         <v>10</v>
       </c>
       <c r="F966" s="3" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="G966" s="3" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="H966" s="3" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="I966" s="3" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="967" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="3" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B967" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C967" s="3" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D967" s="3" t="s">
         <v>9</v>
@@ -36605,27 +36731,27 @@
         <v>10</v>
       </c>
       <c r="F967" s="3" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="G967" s="3" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="H967" s="3" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="I967" s="3" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="968" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B968" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C968" s="3" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D968" s="3" t="s">
         <v>9</v>
@@ -36634,27 +36760,27 @@
         <v>10</v>
       </c>
       <c r="F968" s="3" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="G968" s="3" t="s">
         <v>3424</v>
       </c>
       <c r="H968" s="3" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="I968" s="3" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="969" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="B969" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C969" s="3" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D969" s="3" t="s">
         <v>9</v>
@@ -36666,24 +36792,21 @@
         <v>3424</v>
       </c>
       <c r="G969" s="3" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="H969" s="3" t="s">
-        <v>3420</v>
-      </c>
-      <c r="I969" s="3" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="970" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="3" t="s">
-        <v>3422</v>
+        <v>3426</v>
       </c>
       <c r="B970" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="C970" s="3" t="s">
-        <v>3396</v>
+        <v>3431</v>
       </c>
       <c r="D970" s="3" t="s">
         <v>9</v>
@@ -36692,17 +36815,555 @@
         <v>10</v>
       </c>
       <c r="F970" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G970" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="H970" s="3"/>
+      <c r="I970" s="3" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C971" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D971" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E971" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F971" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G971" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="H971" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="G970" s="3" t="s">
-        <v>3427</v>
-      </c>
-      <c r="H970" s="3" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="971" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H971" s="3"/>
+      <c r="I971" s="3" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C972" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D972" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E972" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F972" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="G972" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="H972" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="I972" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C973" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E973" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F973" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="G973" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="H973" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="I973" s="3" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C974" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D974" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E974" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F974" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G974" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H974" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C975" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D975" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E975" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F975" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="G975" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H975" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I975" s="3" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C976" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D976" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E976" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F976" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G976" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="H976" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="I976" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C977" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E977" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F977" s="3" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G977" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="H977" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I977" s="3" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C978" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D978" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E978" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F978" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="G978" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="H978" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="I978" s="3" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C979" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D979" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E979" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F979" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="G979" s="3" t="s">
+        <v>3449</v>
+      </c>
+      <c r="H979" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="I979" s="3" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C980" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D980" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E980" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F980" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="G980" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="H980" s="3" t="s">
+        <v>3455</v>
+      </c>
+      <c r="I980" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C981" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E981" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F981" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G981" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="H981" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="I981" s="3" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="3" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C982" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D982" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E982" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F982" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G982" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="H982" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="I982" s="3" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C983" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D983" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E983" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F983" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G983" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="H983" s="3" t="s">
+        <v>3444</v>
+      </c>
+      <c r="I983" s="3" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C984" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D984" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E984" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F984" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G984" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="H984" s="3"/>
+      <c r="I984" s="3" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C985" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D985" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E985" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F985" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G985" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="H985" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I985" s="3" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C986" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D986" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E986" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F986" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="G986" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H986" s="3" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C987" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D987" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E987" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F987" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="G987" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H987" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I987" s="3" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="3" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C988" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E988" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F988" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="G988" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="H988" s="3" t="s">
+        <v>3468</v>
+      </c>
+      <c r="I988" s="3" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="3" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C989" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E989" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F989" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="G989" s="3" t="s">
+        <v>3464</v>
+      </c>
+      <c r="H989" s="3" t="s">
+        <v>3460</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:X922">
